--- a/FISIB_Übungen/Online_Shop.Projekt.xlsx
+++ b/FISIB_Übungen/Online_Shop.Projekt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\QM_PM\FISIB_Übungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C1ECA15-D9BD-43F9-8E23-8CFD93038936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBCA98E-1001-4C25-9AEB-E6CE2B64547F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="81">
   <si>
     <t>Beispiel: Funktionsorientierter Projektstrukturplan</t>
   </si>
@@ -352,7 +352,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,12 +435,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor rgb="FFE8E8E8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -941,15 +935,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
@@ -957,12 +942,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -972,76 +960,73 @@
     <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1049,6 +1034,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1335,6 +1329,223 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>250371</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2426370" cy="352469"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="Textfeld 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15B7BECC-A00E-6401-1F37-AEE4F1D70702}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6781800" y="3540578"/>
+              <a:ext cx="2426370" cy="352469"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐷𝑎𝑢𝑒𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐴𝑢𝑓𝑤𝑎𝑛𝑑</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> (</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑃𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑃𝑒𝑟𝑠𝑜𝑛𝑒𝑛</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> ∗</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐾𝑎𝑝𝑎𝑧𝑖𝑡</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>ä</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> (%))</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="de-DE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="Textfeld 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15B7BECC-A00E-6401-1F37-AEE4F1D70702}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6781800" y="3540578"/>
+              <a:ext cx="2426370" cy="352469"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐷𝑎𝑢𝑒𝑟=  (𝐴𝑢𝑓𝑤𝑎𝑛𝑑 (𝑃𝑇))/((𝑃𝑒𝑟𝑠𝑜𝑛𝑒𝑛 ∗𝐾𝑎𝑝𝑎𝑧𝑖𝑡ä𝑡 (%)))</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-DE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1888,20 +2099,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="92" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="93"/>
+      <c r="I1" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="80"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -1941,20 +2152,20 @@
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="24.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="95"/>
+      <c r="G5" s="82"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="96" t="s">
+      <c r="I5" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="97"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="98" t="s">
+      <c r="L5" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="99"/>
+      <c r="M5" s="86"/>
     </row>
     <row r="6" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F6" s="48" t="s">
@@ -1988,14 +2199,14 @@
         <v>12</v>
       </c>
       <c r="G8" s="88"/>
-      <c r="I8" s="83" t="s">
+      <c r="I8" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="84"/>
-      <c r="L8" s="89" t="s">
+      <c r="J8" s="90"/>
+      <c r="L8" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="90"/>
+      <c r="M8" s="92"/>
     </row>
     <row r="9" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F9" s="50" t="s">
@@ -2027,14 +2238,14 @@
         <v>18</v>
       </c>
       <c r="G11" s="88"/>
-      <c r="I11" s="83" t="s">
+      <c r="I11" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="84"/>
-      <c r="L11" s="89" t="s">
+      <c r="J11" s="90"/>
+      <c r="L11" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="90"/>
+      <c r="M11" s="92"/>
     </row>
     <row r="12" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F12" s="50" t="s">
@@ -2066,14 +2277,14 @@
         <v>24</v>
       </c>
       <c r="G14" s="88"/>
-      <c r="I14" s="83" t="s">
+      <c r="I14" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="84"/>
-      <c r="L14" s="89" t="s">
+      <c r="J14" s="90"/>
+      <c r="L14" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="90"/>
+      <c r="M14" s="92"/>
     </row>
     <row r="15" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F15" s="50" t="s">
@@ -2104,10 +2315,10 @@
         <v>30</v>
       </c>
       <c r="G17" s="88"/>
-      <c r="I17" s="83" t="s">
+      <c r="I17" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="84"/>
+      <c r="J17" s="90"/>
     </row>
     <row r="18" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F18" s="50" t="s">
@@ -2127,10 +2338,10 @@
       <c r="I19" s="42"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I20" s="83" t="s">
+      <c r="I20" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="84"/>
+      <c r="J20" s="90"/>
     </row>
     <row r="21" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I21" s="54" t="s">
@@ -2144,10 +2355,10 @@
       <c r="I22" s="42"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I23" s="83" t="s">
+      <c r="I23" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="J23" s="84"/>
+      <c r="J23" s="90"/>
     </row>
     <row r="24" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I24" s="54" t="s">
@@ -2161,11 +2372,11 @@
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="I25" s="42"/>
@@ -2174,27 +2385,27 @@
       <c r="A26" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="I26" s="83" t="s">
+      <c r="I26" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="84"/>
+      <c r="J26" s="90"/>
     </row>
     <row r="27" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="I27" s="54" t="s">
@@ -2208,11 +2419,11 @@
       <c r="A28" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="I28" s="42"/>
@@ -2221,27 +2432,27 @@
       <c r="A29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="81" t="s">
+      <c r="B29" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="I29" s="83" t="s">
+      <c r="I29" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="84"/>
+      <c r="J29" s="90"/>
     </row>
     <row r="30" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="I30" s="54" t="s">
@@ -2255,11 +2466,11 @@
       <c r="A31" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="81" t="s">
+      <c r="B31" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="I31" s="42"/>
@@ -2268,27 +2479,27 @@
       <c r="A32" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="81" t="s">
+      <c r="B32" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="I32" s="83" t="s">
+      <c r="I32" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="J32" s="84"/>
+      <c r="J32" s="90"/>
     </row>
     <row r="33" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="81" t="s">
+      <c r="B33" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="I33" s="54" t="s">
@@ -2302,11 +2513,11 @@
       <c r="A34" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
@@ -2314,11 +2525,11 @@
       <c r="A35" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="81" t="s">
+      <c r="B35" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
@@ -2326,11 +2537,11 @@
       <c r="A36" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="81" t="s">
+      <c r="B36" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
@@ -2338,11 +2549,11 @@
       <c r="A37" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="81" t="s">
+      <c r="B37" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
@@ -2350,11 +2561,11 @@
       <c r="A38" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="81" t="s">
+      <c r="B38" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
@@ -2362,11 +2573,11 @@
       <c r="A39" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
@@ -2374,11 +2585,11 @@
       <c r="A40" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="81" t="s">
+      <c r="B40" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
@@ -2386,47 +2597,16 @@
       <c r="A41" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="82" t="s">
+      <c r="B41" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B35:D35"/>
@@ -2434,6 +2614,37 @@
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -2448,17 +2659,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BQ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:D23"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="16.140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="11.5703125" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="11.5703125" style="13" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="11.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="11.5703125" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="11.5703125" style="13" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="11.5703125" style="4" customWidth="1"/>
     <col min="11" max="107" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2466,11 +2677,11 @@
       <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
       <c r="E1" s="14" t="s">
         <v>46</v>
       </c>
@@ -2494,11 +2705,11 @@
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
       <c r="E2" s="16"/>
       <c r="F2" s="17" t="s">
         <v>52</v>
@@ -2506,124 +2717,124 @@
       <c r="G2" s="18">
         <v>5</v>
       </c>
-      <c r="H2" s="62" t="s">
-        <v>53</v>
+      <c r="H2" s="100">
+        <v>3</v>
       </c>
       <c r="I2" s="19">
         <v>1</v>
       </c>
       <c r="J2" s="18">
         <f t="shared" ref="J2:J17" si="0">ROUND(G2/(H2*I2),0)</f>
-        <v>5</v>
-      </c>
-      <c r="L2" s="72">
+        <v>2</v>
+      </c>
+      <c r="L2" s="69">
         <v>0</v>
       </c>
-      <c r="M2" s="73"/>
-      <c r="N2" s="76">
+      <c r="M2" s="70"/>
+      <c r="N2" s="73">
         <f>L2+L4</f>
-        <v>5</v>
-      </c>
-      <c r="Q2" s="72">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="69">
         <f>N2</f>
-        <v>5</v>
-      </c>
-      <c r="R2" s="73"/>
-      <c r="S2" s="76">
+        <v>2</v>
+      </c>
+      <c r="R2" s="70"/>
+      <c r="S2" s="73">
         <f>Q2+Q4</f>
-        <v>6</v>
-      </c>
-      <c r="V2" s="72">
+        <v>3</v>
+      </c>
+      <c r="V2" s="69">
         <f>S2</f>
-        <v>6</v>
-      </c>
-      <c r="W2" s="73"/>
-      <c r="X2" s="76">
+        <v>3</v>
+      </c>
+      <c r="W2" s="70"/>
+      <c r="X2" s="73">
         <f>V2+V4</f>
-        <v>10</v>
-      </c>
-      <c r="AF2" s="72">
+        <v>7</v>
+      </c>
+      <c r="AF2" s="69">
         <f>MAX(X2,AC8,X14)</f>
+        <v>11</v>
+      </c>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="73">
+        <f>AF2+AF4</f>
+        <v>12</v>
+      </c>
+      <c r="AK2" s="69">
+        <f>AH2</f>
+        <v>12</v>
+      </c>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="73">
+        <f>AK2+AK4</f>
+        <v>13</v>
+      </c>
+      <c r="AP2" s="69">
+        <f>AM2</f>
+        <v>13</v>
+      </c>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="73">
+        <f>AP2+AP4</f>
+        <v>14</v>
+      </c>
+      <c r="AU2" s="69">
+        <f>AR2</f>
+        <v>14</v>
+      </c>
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="73">
+        <f>AU2+AU4</f>
         <v>16</v>
       </c>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="76">
-        <f>AF2+AF4</f>
+      <c r="AZ2" s="69">
+        <f>AW2</f>
+        <v>16</v>
+      </c>
+      <c r="BA2" s="70"/>
+      <c r="BB2" s="73">
+        <f>AZ2+AZ4</f>
         <v>18</v>
       </c>
-      <c r="AK2" s="72">
-        <f>AH2</f>
+      <c r="BE2" s="69">
+        <f>BB2</f>
         <v>18</v>
       </c>
-      <c r="AL2" s="73"/>
-      <c r="AM2" s="76">
-        <f>AK2+AK4</f>
-        <v>20</v>
-      </c>
-      <c r="AP2" s="72">
-        <f>AM2</f>
-        <v>20</v>
-      </c>
-      <c r="AQ2" s="73"/>
-      <c r="AR2" s="76">
-        <f>AP2+AP4</f>
+      <c r="BF2" s="70"/>
+      <c r="BG2" s="73">
+        <f>BE2+BE4</f>
+        <v>19</v>
+      </c>
+      <c r="BJ2" s="69">
+        <f>BG2</f>
+        <v>19</v>
+      </c>
+      <c r="BK2" s="70"/>
+      <c r="BL2" s="73">
+        <f>BJ2+BJ4</f>
         <v>22</v>
       </c>
-      <c r="AU2" s="72">
-        <f>AR2</f>
-        <v>22</v>
-      </c>
-      <c r="AV2" s="73"/>
-      <c r="AW2" s="76">
-        <f>AU2+AU4</f>
+      <c r="BO2" s="69">
+        <f>MAX(BL2,AC14)</f>
         <v>25</v>
       </c>
-      <c r="AZ2" s="72">
-        <f>AW2</f>
-        <v>25</v>
-      </c>
-      <c r="BA2" s="73"/>
-      <c r="BB2" s="76">
-        <f>AZ2+AZ4</f>
-        <v>28</v>
-      </c>
-      <c r="BE2" s="72">
-        <f>BB2</f>
-        <v>28</v>
-      </c>
-      <c r="BF2" s="73"/>
-      <c r="BG2" s="76">
-        <f>BE2+BE4</f>
-        <v>29</v>
-      </c>
-      <c r="BJ2" s="72">
-        <f>BG2</f>
-        <v>29</v>
-      </c>
-      <c r="BK2" s="73"/>
-      <c r="BL2" s="76">
-        <f>BJ2+BJ4</f>
-        <v>34</v>
-      </c>
-      <c r="BO2" s="72">
-        <f>MAX(BL2,AC14)</f>
-        <v>34</v>
-      </c>
-      <c r="BP2" s="73"/>
-      <c r="BQ2" s="76">
+      <c r="BP2" s="70"/>
+      <c r="BQ2" s="73">
         <f>BO2+BO4</f>
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="20" t="s">
         <v>16</v>
       </c>
@@ -2633,8 +2844,8 @@
       <c r="G3" s="21">
         <v>1</v>
       </c>
-      <c r="H3" s="63" t="s">
-        <v>53</v>
+      <c r="H3" s="101">
+        <v>2</v>
       </c>
       <c r="I3" s="22">
         <v>1</v>
@@ -2643,96 +2854,96 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L3" s="100" t="s">
+      <c r="L3" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
       <c r="O3" s="60"/>
       <c r="P3" s="61"/>
-      <c r="Q3" s="100" t="s">
+      <c r="Q3" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
       <c r="T3" s="60"/>
       <c r="U3" s="61"/>
-      <c r="V3" s="100" t="s">
+      <c r="V3" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
       <c r="Y3" s="60"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
       <c r="AE3" s="61"/>
-      <c r="AF3" s="100" t="s">
+      <c r="AF3" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="AG3" s="100"/>
-      <c r="AH3" s="100"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
       <c r="AI3" s="60"/>
       <c r="AJ3" s="61"/>
-      <c r="AK3" s="100" t="s">
+      <c r="AK3" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="AL3" s="100"/>
-      <c r="AM3" s="100"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
       <c r="AN3" s="60"/>
       <c r="AO3" s="61"/>
-      <c r="AP3" s="100" t="s">
+      <c r="AP3" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="AQ3" s="100"/>
-      <c r="AR3" s="100"/>
+      <c r="AQ3" s="97"/>
+      <c r="AR3" s="97"/>
       <c r="AS3" s="60"/>
       <c r="AT3" s="61"/>
-      <c r="AU3" s="100" t="s">
+      <c r="AU3" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="AV3" s="100"/>
-      <c r="AW3" s="100"/>
+      <c r="AV3" s="97"/>
+      <c r="AW3" s="97"/>
       <c r="AX3" s="60"/>
       <c r="AY3" s="61"/>
-      <c r="AZ3" s="100" t="s">
+      <c r="AZ3" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="BA3" s="100"/>
-      <c r="BB3" s="100"/>
+      <c r="BA3" s="97"/>
+      <c r="BB3" s="97"/>
       <c r="BC3" s="60"/>
       <c r="BD3" s="61"/>
-      <c r="BE3" s="100" t="s">
+      <c r="BE3" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="BF3" s="100"/>
-      <c r="BG3" s="100"/>
+      <c r="BF3" s="97"/>
+      <c r="BG3" s="97"/>
       <c r="BH3" s="60"/>
       <c r="BI3" s="61"/>
-      <c r="BJ3" s="100" t="s">
+      <c r="BJ3" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="BK3" s="100"/>
-      <c r="BL3" s="100"/>
+      <c r="BK3" s="97"/>
+      <c r="BL3" s="97"/>
       <c r="BM3" s="60"/>
       <c r="BN3" s="61"/>
-      <c r="BO3" s="100" t="s">
+      <c r="BO3" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="BP3" s="100"/>
-      <c r="BQ3" s="100"/>
+      <c r="BP3" s="97"/>
+      <c r="BQ3" s="97"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="20" t="s">
         <v>15</v>
       </c>
@@ -2742,7 +2953,7 @@
       <c r="G4" s="21">
         <v>4</v>
       </c>
-      <c r="H4" s="63" t="s">
+      <c r="H4" s="101" t="s">
         <v>53</v>
       </c>
       <c r="I4" s="22">
@@ -2752,149 +2963,149 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L4" s="77">
+      <c r="L4" s="74">
         <f>J2</f>
-        <v>5</v>
-      </c>
-      <c r="M4" s="78">
+        <v>2</v>
+      </c>
+      <c r="M4" s="75">
         <f>N5-N2</f>
         <v>0</v>
       </c>
-      <c r="N4" s="79">
+      <c r="N4" s="76">
         <f>MIN(Q2,Q14)-N2</f>
         <v>0</v>
       </c>
       <c r="O4" s="43"/>
-      <c r="Q4" s="77">
+      <c r="Q4" s="74">
         <f>J3</f>
         <v>1</v>
       </c>
-      <c r="R4" s="78">
+      <c r="R4" s="75">
         <f>S5-S2</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="79">
+        <v>3</v>
+      </c>
+      <c r="S4" s="76">
         <f>MIN(V2,V8)-S2</f>
         <v>0</v>
       </c>
       <c r="T4" s="43"/>
-      <c r="V4" s="77">
+      <c r="V4" s="74">
         <f>J4</f>
         <v>4</v>
       </c>
-      <c r="W4" s="78">
+      <c r="W4" s="75">
         <f>X5-X2</f>
-        <v>6</v>
-      </c>
-      <c r="X4" s="79">
+        <v>7</v>
+      </c>
+      <c r="X4" s="76">
         <f>AF2-X2</f>
-        <v>6</v>
-      </c>
-      <c r="AE4" s="70"/>
-      <c r="AF4" s="77">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="67"/>
+      <c r="AF4" s="74">
         <f>J9</f>
-        <v>2</v>
-      </c>
-      <c r="AG4" s="78">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="75">
         <f>AH5-AH2</f>
-        <v>0</v>
-      </c>
-      <c r="AH4" s="79">
+        <v>3</v>
+      </c>
+      <c r="AH4" s="76">
         <f>AK2-AH2</f>
         <v>0</v>
       </c>
-      <c r="AK4" s="77">
+      <c r="AK4" s="74">
         <f>J10</f>
-        <v>2</v>
-      </c>
-      <c r="AL4" s="78">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="75">
         <f>AM5-AM2</f>
-        <v>0</v>
-      </c>
-      <c r="AM4" s="79">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="76">
         <f>AP2-AM2</f>
         <v>0</v>
       </c>
-      <c r="AP4" s="77">
+      <c r="AP4" s="74">
         <f>J11</f>
-        <v>2</v>
-      </c>
-      <c r="AQ4" s="78">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="75">
         <f>AR5-AR2</f>
-        <v>0</v>
-      </c>
-      <c r="AR4" s="79">
+        <v>3</v>
+      </c>
+      <c r="AR4" s="76">
         <f>AU2-AR2</f>
         <v>0</v>
       </c>
-      <c r="AU4" s="77">
+      <c r="AU4" s="74">
         <f>J13</f>
+        <v>2</v>
+      </c>
+      <c r="AV4" s="75">
+        <f>AW5-AW2</f>
         <v>3</v>
       </c>
-      <c r="AV4" s="78">
-        <f>AW5-AW2</f>
-        <v>0</v>
-      </c>
-      <c r="AW4" s="79">
+      <c r="AW4" s="76">
         <f>AZ2-AW2</f>
         <v>0</v>
       </c>
-      <c r="AZ4" s="77">
+      <c r="AZ4" s="74">
         <f>J14</f>
+        <v>2</v>
+      </c>
+      <c r="BA4" s="75">
+        <f>BB5-BB2</f>
         <v>3</v>
       </c>
-      <c r="BA4" s="78">
-        <f>BB5-BB2</f>
-        <v>0</v>
-      </c>
-      <c r="BB4" s="79">
+      <c r="BB4" s="76">
         <f>BE2-BB2</f>
         <v>0</v>
       </c>
-      <c r="BE4" s="77">
+      <c r="BE4" s="74">
         <f>J15</f>
         <v>1</v>
       </c>
-      <c r="BF4" s="78">
+      <c r="BF4" s="75">
         <f>BG5-BG2</f>
-        <v>0</v>
-      </c>
-      <c r="BG4" s="79">
+        <v>3</v>
+      </c>
+      <c r="BG4" s="76">
         <f>BJ2-BG2</f>
         <v>0</v>
       </c>
-      <c r="BJ4" s="77">
+      <c r="BJ4" s="74">
         <f>J16</f>
-        <v>5</v>
-      </c>
-      <c r="BK4" s="78">
+        <v>3</v>
+      </c>
+      <c r="BK4" s="75">
         <f>BL5-BL2</f>
-        <v>0</v>
-      </c>
-      <c r="BL4" s="79">
+        <v>3</v>
+      </c>
+      <c r="BL4" s="76">
         <f>BO2-BL2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BN4" s="61"/>
-      <c r="BO4" s="77">
+      <c r="BO4" s="74">
         <f>J17</f>
         <v>1</v>
       </c>
-      <c r="BP4" s="78">
+      <c r="BP4" s="75">
         <f>BQ5-BQ2</f>
         <v>0</v>
       </c>
-      <c r="BQ4" s="79"/>
+      <c r="BQ4" s="76"/>
     </row>
     <row r="5" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="20" t="s">
         <v>15</v>
       </c>
@@ -2904,7 +3115,7 @@
       <c r="G5" s="21">
         <v>3</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="101" t="s">
         <v>53</v>
       </c>
       <c r="I5" s="22">
@@ -2914,119 +3125,119 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L5" s="74">
+      <c r="L5" s="71">
         <f>N5-L4</f>
         <v>0</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="75">
+      <c r="M5" s="70"/>
+      <c r="N5" s="72">
         <f>MIN(Q5,Q17)</f>
-        <v>5</v>
-      </c>
-      <c r="O5" s="65"/>
-      <c r="Q5" s="74">
+        <v>2</v>
+      </c>
+      <c r="O5" s="62"/>
+      <c r="Q5" s="71">
         <f>S5-Q4</f>
         <v>5</v>
       </c>
-      <c r="R5" s="73"/>
-      <c r="S5" s="75">
+      <c r="R5" s="70"/>
+      <c r="S5" s="72">
         <f>MIN(V5,V11)</f>
         <v>6</v>
       </c>
-      <c r="T5" s="65"/>
-      <c r="V5" s="74">
+      <c r="T5" s="62"/>
+      <c r="V5" s="71">
         <f>X5-V4</f>
-        <v>12</v>
-      </c>
-      <c r="W5" s="73"/>
-      <c r="X5" s="75">
+        <v>10</v>
+      </c>
+      <c r="W5" s="70"/>
+      <c r="X5" s="72">
         <f>AF5</f>
+        <v>14</v>
+      </c>
+      <c r="AD5" s="62"/>
+      <c r="AF5" s="71">
+        <f>AH5-AF4</f>
+        <v>14</v>
+      </c>
+      <c r="AG5" s="70"/>
+      <c r="AH5" s="72">
+        <f>AK5</f>
+        <v>15</v>
+      </c>
+      <c r="AK5" s="71">
+        <f>AM5-AK4</f>
+        <v>15</v>
+      </c>
+      <c r="AL5" s="70"/>
+      <c r="AM5" s="72">
+        <f>AP5</f>
         <v>16</v>
       </c>
-      <c r="AD5" s="65"/>
-      <c r="AF5" s="74">
-        <f>AH5-AF4</f>
+      <c r="AP5" s="71">
+        <f>AR5-AP4</f>
         <v>16</v>
       </c>
-      <c r="AG5" s="73"/>
-      <c r="AH5" s="75">
-        <f>AK5</f>
-        <v>18</v>
-      </c>
-      <c r="AK5" s="74">
-        <f>AM5-AK4</f>
-        <v>18</v>
-      </c>
-      <c r="AL5" s="73"/>
-      <c r="AM5" s="75">
-        <f>AP5</f>
-        <v>20</v>
-      </c>
-      <c r="AP5" s="74">
-        <f>AR5-AP4</f>
-        <v>20</v>
-      </c>
-      <c r="AQ5" s="73"/>
-      <c r="AR5" s="75">
+      <c r="AQ5" s="70"/>
+      <c r="AR5" s="72">
         <f>AU5</f>
+        <v>17</v>
+      </c>
+      <c r="AU5" s="71">
+        <f>AW5-AU4</f>
+        <v>17</v>
+      </c>
+      <c r="AV5" s="70"/>
+      <c r="AW5" s="72">
+        <f>AZ5</f>
+        <v>19</v>
+      </c>
+      <c r="AZ5" s="71">
+        <f>BB5-AZ4</f>
+        <v>19</v>
+      </c>
+      <c r="BA5" s="70"/>
+      <c r="BB5" s="72">
+        <f>BE5</f>
+        <v>21</v>
+      </c>
+      <c r="BE5" s="71">
+        <f>BG5-BE4</f>
+        <v>21</v>
+      </c>
+      <c r="BF5" s="70"/>
+      <c r="BG5" s="72">
+        <f>BJ5</f>
         <v>22</v>
       </c>
-      <c r="AU5" s="74">
-        <f>AW5-AU4</f>
+      <c r="BJ5" s="71">
+        <f>BL5-BJ4</f>
         <v>22</v>
       </c>
-      <c r="AV5" s="73"/>
-      <c r="AW5" s="75">
-        <f>AZ5</f>
+      <c r="BK5" s="70"/>
+      <c r="BL5" s="72">
+        <f>BO5</f>
         <v>25</v>
       </c>
-      <c r="AZ5" s="74">
-        <f>BB5-AZ4</f>
+      <c r="BM5" s="62"/>
+      <c r="BO5" s="71">
+        <f>BQ5-BO4</f>
         <v>25</v>
       </c>
-      <c r="BA5" s="73"/>
-      <c r="BB5" s="75">
-        <f>BE5</f>
-        <v>28</v>
-      </c>
-      <c r="BE5" s="74">
-        <f>BG5-BE4</f>
-        <v>28</v>
-      </c>
-      <c r="BF5" s="73"/>
-      <c r="BG5" s="75">
-        <f>BJ5</f>
-        <v>29</v>
-      </c>
-      <c r="BJ5" s="74">
-        <f>BL5-BJ4</f>
-        <v>29</v>
-      </c>
-      <c r="BK5" s="73"/>
-      <c r="BL5" s="75">
-        <f>BO5</f>
-        <v>34</v>
-      </c>
-      <c r="BM5" s="65"/>
-      <c r="BO5" s="74">
-        <f>BQ5-BO4</f>
-        <v>34</v>
-      </c>
-      <c r="BP5" s="73"/>
-      <c r="BQ5" s="75">
+      <c r="BP5" s="70"/>
+      <c r="BQ5" s="72">
         <f>BQ2</f>
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="23" t="s">
         <v>27</v>
       </c>
@@ -3036,31 +3247,32 @@
       <c r="G6" s="1">
         <v>7</v>
       </c>
-      <c r="H6" s="63" t="s">
-        <v>53</v>
+      <c r="H6" s="101">
+        <v>2</v>
       </c>
       <c r="I6" s="22">
-        <v>1</v>
+        <f>150%/2</f>
+        <v>0.75</v>
       </c>
       <c r="J6" s="21">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="O6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="AD6" s="65"/>
-      <c r="AE6" s="65"/>
-      <c r="BM6" s="65"/>
+        <v>5</v>
+      </c>
+      <c r="O6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="BM6" s="62"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="20" t="s">
         <v>16</v>
       </c>
@@ -3070,31 +3282,31 @@
       <c r="G7" s="21">
         <v>1</v>
       </c>
-      <c r="H7" s="63" t="s">
-        <v>53</v>
+      <c r="H7" s="101">
+        <v>2</v>
       </c>
       <c r="I7" s="22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J7" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="AD7" s="65"/>
-      <c r="AE7" s="65"/>
-      <c r="BM7" s="65"/>
+      <c r="O7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="AD7" s="62"/>
+      <c r="AE7" s="62"/>
+      <c r="BM7" s="62"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="23" t="s">
         <v>22</v>
       </c>
@@ -3104,49 +3316,49 @@
       <c r="G8" s="1">
         <v>3</v>
       </c>
-      <c r="H8" s="63" t="s">
-        <v>53</v>
+      <c r="H8" s="101">
+        <v>2</v>
       </c>
       <c r="I8" s="22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J8" s="21">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="V8" s="69">
+        <f>S2</f>
         <v>3</v>
       </c>
-      <c r="O8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="V8" s="72">
-        <f>S2</f>
+      <c r="W8" s="70"/>
+      <c r="X8" s="73">
+        <f>V8+V10</f>
         <v>6</v>
       </c>
-      <c r="W8" s="73"/>
-      <c r="X8" s="76">
-        <f>V8+V10</f>
-        <v>9</v>
-      </c>
-      <c r="AA8" s="72">
+      <c r="AA8" s="69">
         <f>X8</f>
-        <v>9</v>
-      </c>
-      <c r="AB8" s="73"/>
-      <c r="AC8" s="76">
+        <v>6</v>
+      </c>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="73">
         <f>AA8+AA10</f>
-        <v>16</v>
-      </c>
-      <c r="AD8" s="65"/>
-      <c r="AE8" s="65"/>
-      <c r="BM8" s="65"/>
+        <v>11</v>
+      </c>
+      <c r="AD8" s="62"/>
+      <c r="AE8" s="62"/>
+      <c r="BM8" s="62"/>
     </row>
     <row r="9" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="23" t="s">
         <v>56</v>
       </c>
@@ -3156,43 +3368,43 @@
       <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="H9" s="63" t="s">
-        <v>53</v>
+      <c r="H9" s="101">
+        <v>2</v>
       </c>
       <c r="I9" s="22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J9" s="21">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="V9" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="V9" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="W9" s="100"/>
-      <c r="X9" s="100"/>
+      <c r="W9" s="97"/>
+      <c r="X9" s="97"/>
       <c r="Y9" s="60"/>
       <c r="Z9" s="61"/>
-      <c r="AA9" s="100" t="s">
+      <c r="AA9" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="AB9" s="100"/>
-      <c r="AC9" s="100"/>
-      <c r="AD9" s="69"/>
-      <c r="AE9" s="65"/>
-      <c r="BM9" s="65"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="97"/>
+      <c r="AD9" s="66"/>
+      <c r="AE9" s="62"/>
+      <c r="BM9" s="62"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="23" t="s">
         <v>33</v>
       </c>
@@ -3202,54 +3414,54 @@
       <c r="G10" s="1">
         <v>2</v>
       </c>
-      <c r="H10" s="63" t="s">
-        <v>53</v>
+      <c r="H10" s="101">
+        <v>2</v>
       </c>
       <c r="I10" s="22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J10" s="21">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O10" s="65"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="77">
+        <v>1</v>
+      </c>
+      <c r="O10" s="62"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="74">
         <f>J5</f>
         <v>3</v>
       </c>
-      <c r="W10" s="78">
+      <c r="W10" s="75">
         <f>X11-X8</f>
-        <v>0</v>
-      </c>
-      <c r="X10" s="79">
+        <v>3</v>
+      </c>
+      <c r="X10" s="76">
         <f>AA8-X8</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="77">
+      <c r="AA10" s="74">
         <f>J6</f>
-        <v>7</v>
-      </c>
-      <c r="AB10" s="78">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="75">
         <f>AC11-AC8</f>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="79">
+        <v>3</v>
+      </c>
+      <c r="AC10" s="76">
         <f>AF2-AC8</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="65"/>
-      <c r="BM10" s="65"/>
+      <c r="AE10" s="62"/>
+      <c r="BM10" s="62"/>
     </row>
     <row r="11" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="23" t="s">
         <v>35</v>
       </c>
@@ -3259,47 +3471,47 @@
       <c r="G11" s="1">
         <v>2</v>
       </c>
-      <c r="H11" s="63" t="s">
-        <v>53</v>
+      <c r="H11" s="101">
+        <v>2</v>
       </c>
       <c r="I11" s="22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J11" s="21">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O11" s="65"/>
-      <c r="V11" s="74">
+        <v>1</v>
+      </c>
+      <c r="O11" s="62"/>
+      <c r="V11" s="71">
         <f>X11-V10</f>
         <v>6</v>
       </c>
-      <c r="W11" s="73"/>
-      <c r="X11" s="75">
+      <c r="W11" s="70"/>
+      <c r="X11" s="72">
         <f>AA11</f>
         <v>9</v>
       </c>
-      <c r="AA11" s="74">
+      <c r="AA11" s="71">
         <f>AC11-AA10</f>
         <v>9</v>
       </c>
-      <c r="AB11" s="73"/>
-      <c r="AC11" s="75">
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="72">
         <f>AF5</f>
-        <v>16</v>
-      </c>
-      <c r="AE11" s="65"/>
-      <c r="BM11" s="65"/>
+        <v>14</v>
+      </c>
+      <c r="AE11" s="62"/>
+      <c r="BM11" s="62"/>
     </row>
     <row r="12" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="23" t="s">
         <v>28</v>
       </c>
@@ -3309,34 +3521,34 @@
       <c r="G12" s="1">
         <v>10</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="101">
         <v>1</v>
       </c>
       <c r="I12" s="22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J12" s="21">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O12" s="65"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="68"/>
-      <c r="AE12" s="71"/>
-      <c r="BM12" s="65"/>
+        <v>20</v>
+      </c>
+      <c r="O12" s="62"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="68"/>
+      <c r="BM12" s="62"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="23" t="s">
         <v>37</v>
       </c>
@@ -3346,29 +3558,29 @@
       <c r="G13" s="1">
         <v>3</v>
       </c>
-      <c r="H13" s="63" t="s">
-        <v>53</v>
+      <c r="H13" s="101">
+        <v>2</v>
       </c>
       <c r="I13" s="22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J13" s="21">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="BM13" s="65"/>
+        <v>2</v>
+      </c>
+      <c r="O13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="BM13" s="62"/>
     </row>
     <row r="14" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
       <c r="E14" s="23" t="s">
         <v>23</v>
       </c>
@@ -3378,56 +3590,56 @@
       <c r="G14" s="1">
         <v>3</v>
       </c>
-      <c r="H14" s="63" t="s">
-        <v>53</v>
+      <c r="H14" s="101">
+        <v>2</v>
       </c>
       <c r="I14" s="22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J14" s="21">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O14" s="62"/>
+      <c r="Q14" s="69">
+        <f>N2</f>
+        <v>2</v>
+      </c>
+      <c r="R14" s="70"/>
+      <c r="S14" s="73">
+        <f>Q14+Q16</f>
         <v>3</v>
       </c>
-      <c r="O14" s="65"/>
-      <c r="Q14" s="72">
-        <f>N2</f>
+      <c r="V14" s="69">
+        <f>S14</f>
+        <v>3</v>
+      </c>
+      <c r="W14" s="70"/>
+      <c r="X14" s="73">
+        <f>V14+V16</f>
         <v>5</v>
       </c>
-      <c r="R14" s="73"/>
-      <c r="S14" s="76">
-        <f>Q14+Q16</f>
-        <v>6</v>
-      </c>
-      <c r="V14" s="72">
-        <f>S14</f>
-        <v>6</v>
-      </c>
-      <c r="W14" s="73"/>
-      <c r="X14" s="76">
-        <f>V14+V16</f>
-        <v>9</v>
-      </c>
-      <c r="Y14" s="69"/>
-      <c r="AA14" s="72">
+      <c r="Y14" s="66"/>
+      <c r="AA14" s="69">
         <f>X14</f>
-        <v>9</v>
-      </c>
-      <c r="AB14" s="73"/>
-      <c r="AC14" s="76">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="73">
         <f>AA14+AA16</f>
-        <v>19</v>
-      </c>
-      <c r="BM14" s="65"/>
+        <v>25</v>
+      </c>
+      <c r="BM14" s="62"/>
     </row>
     <row r="15" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="23" t="s">
         <v>41</v>
       </c>
@@ -3437,7 +3649,7 @@
       <c r="G15" s="1">
         <v>1</v>
       </c>
-      <c r="H15" s="63" t="s">
+      <c r="H15" s="101" t="s">
         <v>53</v>
       </c>
       <c r="I15" s="22">
@@ -3447,73 +3659,73 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O15" s="65"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="100" t="s">
+      <c r="O15" s="62"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="100"/>
-      <c r="S15" s="100"/>
+      <c r="R15" s="97"/>
+      <c r="S15" s="97"/>
       <c r="T15" s="60"/>
       <c r="U15" s="61"/>
-      <c r="V15" s="100" t="s">
+      <c r="V15" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="W15" s="100"/>
-      <c r="X15" s="100"/>
+      <c r="W15" s="97"/>
+      <c r="X15" s="97"/>
       <c r="Y15" s="60"/>
       <c r="Z15" s="61"/>
-      <c r="AA15" s="100" t="s">
+      <c r="AA15" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="AB15" s="100"/>
-      <c r="AC15" s="100"/>
+      <c r="AB15" s="97"/>
+      <c r="AC15" s="97"/>
       <c r="AD15" s="60"/>
-      <c r="AE15" s="68"/>
-      <c r="AF15" s="68"/>
-      <c r="AG15" s="68"/>
-      <c r="AH15" s="68"/>
-      <c r="AI15" s="68"/>
-      <c r="AJ15" s="68"/>
-      <c r="AK15" s="68"/>
-      <c r="AL15" s="68"/>
-      <c r="AM15" s="68"/>
-      <c r="AN15" s="68"/>
-      <c r="AO15" s="68"/>
-      <c r="AP15" s="68"/>
-      <c r="AQ15" s="68"/>
-      <c r="AR15" s="68"/>
-      <c r="AS15" s="68"/>
-      <c r="AT15" s="68"/>
-      <c r="AU15" s="68"/>
-      <c r="AV15" s="68"/>
-      <c r="AW15" s="68"/>
-      <c r="AX15" s="68"/>
-      <c r="AY15" s="68"/>
-      <c r="AZ15" s="68"/>
-      <c r="BA15" s="68"/>
-      <c r="BB15" s="68"/>
-      <c r="BC15" s="68"/>
-      <c r="BD15" s="68"/>
-      <c r="BE15" s="68"/>
-      <c r="BF15" s="68"/>
-      <c r="BG15" s="68"/>
-      <c r="BH15" s="68"/>
-      <c r="BI15" s="68"/>
-      <c r="BJ15" s="68"/>
-      <c r="BK15" s="68"/>
-      <c r="BL15" s="68"/>
-      <c r="BM15" s="71"/>
+      <c r="AE15" s="65"/>
+      <c r="AF15" s="65"/>
+      <c r="AG15" s="65"/>
+      <c r="AH15" s="65"/>
+      <c r="AI15" s="65"/>
+      <c r="AJ15" s="65"/>
+      <c r="AK15" s="65"/>
+      <c r="AL15" s="65"/>
+      <c r="AM15" s="65"/>
+      <c r="AN15" s="65"/>
+      <c r="AO15" s="65"/>
+      <c r="AP15" s="65"/>
+      <c r="AQ15" s="65"/>
+      <c r="AR15" s="65"/>
+      <c r="AS15" s="65"/>
+      <c r="AT15" s="65"/>
+      <c r="AU15" s="65"/>
+      <c r="AV15" s="65"/>
+      <c r="AW15" s="65"/>
+      <c r="AX15" s="65"/>
+      <c r="AY15" s="65"/>
+      <c r="AZ15" s="65"/>
+      <c r="BA15" s="65"/>
+      <c r="BB15" s="65"/>
+      <c r="BC15" s="65"/>
+      <c r="BD15" s="65"/>
+      <c r="BE15" s="65"/>
+      <c r="BF15" s="65"/>
+      <c r="BG15" s="65"/>
+      <c r="BH15" s="65"/>
+      <c r="BI15" s="65"/>
+      <c r="BJ15" s="65"/>
+      <c r="BK15" s="65"/>
+      <c r="BL15" s="65"/>
+      <c r="BM15" s="68"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="23" t="s">
         <v>29</v>
       </c>
@@ -3523,62 +3735,62 @@
       <c r="G16" s="1">
         <v>5</v>
       </c>
-      <c r="H16" s="63" t="s">
-        <v>53</v>
+      <c r="H16" s="101">
+        <v>2</v>
       </c>
       <c r="I16" s="22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J16" s="21">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q16" s="77">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="74">
         <f>J7</f>
         <v>1</v>
       </c>
-      <c r="R16" s="78">
+      <c r="R16" s="75">
         <f>S17-S14</f>
-        <v>7</v>
-      </c>
-      <c r="S16" s="79">
+        <v>0</v>
+      </c>
+      <c r="S16" s="76">
         <f>V14-S14</f>
         <v>0</v>
       </c>
-      <c r="V16" s="77">
+      <c r="V16" s="74">
         <f>J8</f>
-        <v>3</v>
-      </c>
-      <c r="W16" s="78">
+        <v>2</v>
+      </c>
+      <c r="W16" s="75">
         <f>X17-X14</f>
-        <v>7</v>
-      </c>
-      <c r="X16" s="79">
+        <v>0</v>
+      </c>
+      <c r="X16" s="76">
         <f>MIN(AA14,AF2)-X14</f>
         <v>0</v>
       </c>
-      <c r="AA16" s="77">
+      <c r="AA16" s="74">
         <f>J12</f>
-        <v>10</v>
-      </c>
-      <c r="AB16" s="78">
+        <v>20</v>
+      </c>
+      <c r="AB16" s="75">
         <f>AC17-AC14</f>
-        <v>15</v>
-      </c>
-      <c r="AC16" s="79">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="76">
         <f>BO2-AC14</f>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
       <c r="E17" s="24" t="s">
         <v>58</v>
       </c>
@@ -3586,7 +3798,7 @@
       <c r="G17" s="26">
         <v>1</v>
       </c>
-      <c r="H17" s="64" t="s">
+      <c r="H17" s="102" t="s">
         <v>53</v>
       </c>
       <c r="I17" s="22">
@@ -3596,41 +3808,41 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q17" s="74">
+      <c r="Q17" s="71">
         <f>S17-Q16</f>
-        <v>12</v>
-      </c>
-      <c r="R17" s="73"/>
-      <c r="S17" s="75">
+        <v>2</v>
+      </c>
+      <c r="R17" s="70"/>
+      <c r="S17" s="72">
         <f>V17</f>
-        <v>13</v>
-      </c>
-      <c r="V17" s="74">
+        <v>3</v>
+      </c>
+      <c r="V17" s="71">
         <f>X17-V16</f>
-        <v>13</v>
-      </c>
-      <c r="W17" s="73"/>
-      <c r="X17" s="75">
+        <v>3</v>
+      </c>
+      <c r="W17" s="70"/>
+      <c r="X17" s="72">
         <f>MIN(AA17,AF5)</f>
-        <v>16</v>
-      </c>
-      <c r="AA17" s="74">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="71">
         <f>AC17-AA16</f>
-        <v>24</v>
-      </c>
-      <c r="AB17" s="73"/>
-      <c r="AC17" s="75">
+        <v>5</v>
+      </c>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="72">
         <f>BO5</f>
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="77" t="s">
         <v>78</v>
       </c>
       <c r="C19" t="s">
@@ -3638,11 +3850,11 @@
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="76" t="s">
+      <c r="B20" s="70"/>
+      <c r="C20" s="73" t="s">
         <v>69</v>
       </c>
       <c r="D20" t="s">
@@ -3650,20 +3862,20 @@
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A21" s="100" t="s">
+      <c r="A21" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="76" t="s">
         <v>73</v>
       </c>
       <c r="D22" t="s">
@@ -3671,11 +3883,11 @@
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="73"/>
-      <c r="C23" s="75" t="s">
+      <c r="B23" s="70"/>
+      <c r="C23" s="72" t="s">
         <v>74</v>
       </c>
       <c r="D23" t="s">
@@ -3684,11 +3896,26 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="AZ3:BB3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="BJ3:BL3"/>
@@ -3699,26 +3926,11 @@
     <mergeCell ref="AK3:AM3"/>
     <mergeCell ref="AP3:AR3"/>
     <mergeCell ref="AU3:AW3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="Q3:S3"/>
   </mergeCells>
   <conditionalFormatting sqref="B22">
     <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
@@ -3811,6 +4023,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3838,11 +4051,11 @@
       <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
       <c r="E1" s="14" t="s">
         <v>46</v>
       </c>
@@ -4032,11 +4245,11 @@
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
       <c r="E2" s="16"/>
       <c r="F2" s="17" t="s">
         <v>52</v>
@@ -4045,9 +4258,9 @@
         <f>Netzplan!G2</f>
         <v>5</v>
       </c>
-      <c r="H2" s="21" t="str">
+      <c r="H2" s="21">
         <f>Netzplan!H2</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" s="22">
         <f>Netzplan!I2</f>
@@ -4055,7 +4268,7 @@
       </c>
       <c r="J2" s="31">
         <f>Netzplan!J2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K2" s="32">
         <f t="shared" ref="K2:K8" si="0">SUM(L2:BM2)</f>
@@ -4133,11 +4346,11 @@
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="20" t="s">
         <v>16</v>
       </c>
@@ -4148,9 +4361,9 @@
         <f>Netzplan!G3</f>
         <v>1</v>
       </c>
-      <c r="H3" s="21" t="str">
+      <c r="H3" s="21">
         <f>Netzplan!H3</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="22">
         <f>Netzplan!I3</f>
@@ -4228,11 +4441,11 @@
       <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="20" t="s">
         <v>15</v>
       </c>
@@ -4329,11 +4542,11 @@
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="20" t="s">
         <v>15</v>
       </c>
@@ -4428,11 +4641,11 @@
       <c r="A6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="23" t="s">
         <v>27</v>
       </c>
@@ -4443,17 +4656,17 @@
         <f>Netzplan!G6</f>
         <v>7</v>
       </c>
-      <c r="H6" s="21" t="str">
+      <c r="H6" s="21">
         <f>Netzplan!H6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="22">
         <f>Netzplan!I6</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J6" s="31">
         <f>Netzplan!J6</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K6" s="32">
         <f t="shared" si="0"/>
@@ -4531,11 +4744,11 @@
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="20" t="s">
         <v>16</v>
       </c>
@@ -4546,13 +4759,13 @@
         <f>Netzplan!G7</f>
         <v>1</v>
       </c>
-      <c r="H7" s="21" t="str">
+      <c r="H7" s="21">
         <f>Netzplan!H7</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="22">
         <f>Netzplan!I7</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J7" s="31">
         <f>Netzplan!J7</f>
@@ -4626,11 +4839,11 @@
       <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="23" t="s">
         <v>22</v>
       </c>
@@ -4641,17 +4854,17 @@
         <f>Netzplan!G8</f>
         <v>3</v>
       </c>
-      <c r="H8" s="21" t="str">
+      <c r="H8" s="21">
         <f>Netzplan!H8</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="22">
         <f>Netzplan!I8</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J8" s="31">
         <f>Netzplan!J8</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" s="32">
         <f t="shared" si="0"/>
@@ -4723,11 +4936,11 @@
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="21"/>
@@ -4797,11 +5010,11 @@
       <c r="A10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="23" t="s">
         <v>56</v>
       </c>
@@ -4812,17 +5025,17 @@
         <f>Netzplan!G9</f>
         <v>2</v>
       </c>
-      <c r="H10" s="21" t="str">
+      <c r="H10" s="21">
         <f>Netzplan!H9</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="22">
         <f>Netzplan!I9</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J10" s="31">
         <f>Netzplan!J9</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" s="32">
         <f>SUM(L10:BM10)</f>
@@ -4894,11 +5107,11 @@
       <c r="A11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="23" t="s">
         <v>33</v>
       </c>
@@ -4909,17 +5122,17 @@
         <f>Netzplan!G10</f>
         <v>2</v>
       </c>
-      <c r="H11" s="21" t="str">
+      <c r="H11" s="21">
         <f>Netzplan!H10</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="22">
         <f>Netzplan!I10</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J11" s="31">
         <f>Netzplan!J10</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" s="32">
         <f>SUM(L11:BM11)</f>
@@ -4991,11 +5204,11 @@
       <c r="A12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="23" t="s">
         <v>35</v>
       </c>
@@ -5006,17 +5219,17 @@
         <f>Netzplan!G11</f>
         <v>2</v>
       </c>
-      <c r="H12" s="21" t="str">
+      <c r="H12" s="21">
         <f>Netzplan!H11</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="22">
         <f>Netzplan!I11</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J12" s="31">
         <f>Netzplan!J11</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" s="32">
         <f>SUM(L12:BM12)</f>
@@ -5087,11 +5300,11 @@
       <c r="A13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="23" t="s">
         <v>28</v>
       </c>
@@ -5108,11 +5321,11 @@
       </c>
       <c r="I13" s="22">
         <f>Netzplan!I12</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J13" s="31">
         <f>Netzplan!J12</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K13" s="32">
         <f>SUM(L13:BM13)</f>
@@ -5217,11 +5430,11 @@
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="21"/>
@@ -5290,11 +5503,11 @@
       <c r="A15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="23" t="s">
         <v>37</v>
       </c>
@@ -5305,17 +5518,17 @@
         <f>Netzplan!G13</f>
         <v>3</v>
       </c>
-      <c r="H15" s="21" t="str">
+      <c r="H15" s="21">
         <f>Netzplan!H13</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="22">
         <f>Netzplan!I13</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J15" s="31">
         <f>Netzplan!J13</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15" s="32">
         <f>SUM(L15:BM15)</f>
@@ -5388,11 +5601,11 @@
       <c r="A16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="23" t="s">
         <v>23</v>
       </c>
@@ -5403,17 +5616,17 @@
         <f>Netzplan!G14</f>
         <v>3</v>
       </c>
-      <c r="H16" s="21" t="str">
+      <c r="H16" s="21">
         <f>Netzplan!H14</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="22">
         <f>Netzplan!I14</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J16" s="31">
         <f>Netzplan!J14</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16" s="32">
         <f>SUM(L16:BM16)</f>
@@ -5484,11 +5697,11 @@
     </row>
     <row r="17" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="21"/>
@@ -5557,11 +5770,11 @@
       <c r="A18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
       <c r="E18" s="23" t="s">
         <v>41</v>
       </c>
@@ -5652,11 +5865,11 @@
       <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
       <c r="E19" s="23" t="s">
         <v>29</v>
       </c>
@@ -5667,17 +5880,17 @@
         <f>Netzplan!G16</f>
         <v>5</v>
       </c>
-      <c r="H19" s="21" t="str">
+      <c r="H19" s="21">
         <f>Netzplan!H16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="22">
         <f>Netzplan!I16</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J19" s="31">
         <f>Netzplan!J16</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K19" s="32">
         <f>SUM(L19:BM19)</f>
@@ -5750,11 +5963,11 @@
       <c r="A20" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
       <c r="E20" s="24" t="s">
         <v>58</v>
       </c>
@@ -5841,26 +6054,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:K20">
     <cfRule type="expression" dxfId="2" priority="4">

--- a/FISIB_Übungen/Online_Shop.Projekt.xlsx
+++ b/FISIB_Übungen/Online_Shop.Projekt.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\QM_PM\FISIB_Übungen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\QM_PM\FIAED Übungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBCA98E-1001-4C25-9AEB-E6CE2B64547F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8226ABB3-9744-4F4E-985D-0B5E09A773D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PSP" sheetId="1" r:id="rId1"/>
     <sheet name="Netzplan" sheetId="2" r:id="rId2"/>
-    <sheet name="Gantt" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Gantt" sheetId="3" r:id="rId3"/>
+    <sheet name="FeiertageMV" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="88">
   <si>
     <t>Beispiel: Funktionsorientierter Projektstrukturplan</t>
   </si>
@@ -221,30 +222,6 @@
     <t>Ressourcen</t>
   </si>
   <si>
-    <t>Groß</t>
-  </si>
-  <si>
-    <t>Karl</t>
-  </si>
-  <si>
-    <t>Karl, Nyugen (50%)</t>
-  </si>
-  <si>
-    <t>Daten erfasst</t>
-  </si>
-  <si>
-    <t>Nyugen</t>
-  </si>
-  <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>Beta</t>
-  </si>
-  <si>
-    <t>Groß, Nyugen (50%)</t>
-  </si>
-  <si>
     <t>FAZ</t>
   </si>
   <si>
@@ -282,16 +259,62 @@
   </si>
   <si>
     <t>Puffer</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Feiertag</t>
+  </si>
+  <si>
+    <t>Neujahr</t>
+  </si>
+  <si>
+    <t>Gründonnerstag</t>
+  </si>
+  <si>
+    <t>Karfreitag</t>
+  </si>
+  <si>
+    <t>Ostersonntag</t>
+  </si>
+  <si>
+    <t>Ostermontag</t>
+  </si>
+  <si>
+    <t>Tag der Arbeit</t>
+  </si>
+  <si>
+    <t>Christi Himmelfahrt</t>
+  </si>
+  <si>
+    <t>Pfingstsonntag</t>
+  </si>
+  <si>
+    <t>Pfingstmontag</t>
+  </si>
+  <si>
+    <t>Tag der Deutschen Einheit</t>
+  </si>
+  <si>
+    <t>Reformationstag</t>
+  </si>
+  <si>
+    <t>1. Weihnachtsfeiertag</t>
+  </si>
+  <si>
+    <t>2. Weihnachtsfeiertag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="165" formatCode="0.00\ %"/>
     <numFmt numFmtId="166" formatCode="0\ %"/>
+    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -352,7 +375,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,18 +410,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE8E8E8"/>
         <bgColor rgb="FFEEEEEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFEEEEEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFCC0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -853,30 +864,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="70"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="70"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -897,6 +896,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -919,18 +930,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -942,33 +941,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -978,6 +1016,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -985,65 +1029,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Gantt-Balken" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1051,7 +1056,153 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Wochenende" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <color rgb="FFFFBF00"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFBF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFBF00"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFBF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFBF00"/>
@@ -1332,20 +1483,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>250371</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>46264</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>758490</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>26570</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2426370" cy="352469"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <xdr:ext cx="2244461" cy="424614"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="Textfeld 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15B7BECC-A00E-6401-1F37-AEE4F1D70702}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F45204C-C6F4-9B78-5E9D-BA099EC682EC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1353,8 +1504,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6781800" y="3540578"/>
-              <a:ext cx="2426370" cy="352469"/>
+              <a:off x="3886701" y="3295149"/>
+              <a:ext cx="2244461" cy="424614"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1377,10 +1528,11 @@
           </xdr:style>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
+              <a:noAutofit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1434,48 +1586,77 @@
                         </m:r>
                       </m:num>
                       <m:den>
-                        <m:r>
-                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>(</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑃𝑒𝑟𝑠𝑜𝑛𝑒𝑛</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t> ∗</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝐾𝑎𝑝𝑎𝑧𝑖𝑡</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>ä</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑡</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t> (%))</m:t>
-                        </m:r>
+                        <m:eqArr>
+                          <m:eqArrPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:eqArrPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑃𝑒𝑟𝑠𝑜𝑛</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t> ∗</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐾𝑎𝑝𝑎𝑧𝑖𝑡</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>ä</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                            <m:d>
+                              <m:dPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:dPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>%</m:t>
+                                </m:r>
+                              </m:e>
+                            </m:d>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>)</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e/>
+                        </m:eqArr>
                       </m:den>
                     </m:f>
                   </m:oMath>
@@ -1486,13 +1667,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="Textfeld 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15B7BECC-A00E-6401-1F37-AEE4F1D70702}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F45204C-C6F4-9B78-5E9D-BA099EC682EC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1500,8 +1681,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6781800" y="3540578"/>
-              <a:ext cx="2426370" cy="352469"/>
+              <a:off x="3886701" y="3295149"/>
+              <a:ext cx="2244461" cy="424614"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1524,7 +1705,7 @@
           </xdr:style>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
+              <a:noAutofit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
@@ -1532,7 +1713,7 @@
                 <a:rPr lang="de-DE" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝐷𝑎𝑢𝑒𝑟=  (𝐴𝑢𝑓𝑤𝑎𝑛𝑑 (𝑃𝑇))/((𝑃𝑒𝑟𝑠𝑜𝑛𝑒𝑛 ∗𝐾𝑎𝑝𝑎𝑧𝑖𝑡ä𝑡 (%)))</a:t>
+                <a:t>𝐷𝑎𝑢𝑒𝑟=  (𝐴𝑢𝑓𝑤𝑎𝑛𝑑 (𝑃𝑇))/█((𝑃𝑒𝑟𝑠𝑜𝑛 ∗𝐾𝑎𝑝𝑎𝑧𝑖𝑡ä𝑡(%))@)</a:t>
               </a:r>
               <a:endParaRPr lang="de-DE" sz="1100"/>
             </a:p>
@@ -1542,251 +1723,6 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>8280</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>134280</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Freihandform: Form 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11856600" y="1647720"/>
-          <a:ext cx="126000" cy="155160"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="10800" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="10800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="10800" y="21600"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="10800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="10800" y="0"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="729FCF"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465A4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>5400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>131400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Freihandform: Form 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13880520" y="2462040"/>
-          <a:ext cx="126000" cy="155160"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="10800" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="10800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="10800" y="21600"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="10800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="10800" y="0"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="729FCF"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465A4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>2880</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>128880</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Freihandform: Form 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17172000" y="2949480"/>
-          <a:ext cx="126000" cy="155160"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="10800" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="10800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="10800" y="21600"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="10800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="10800" y="0"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="729FCF"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465A4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2099,20 +2035,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="79" t="s">
+      <c r="I1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="80"/>
+      <c r="J1" s="87"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -2121,10 +2057,10 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="47">
+      <c r="I2" s="41">
         <v>1</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="40" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="4"/>
@@ -2133,238 +2069,238 @@
     </row>
     <row r="3" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F3" s="4"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="41"/>
+      <c r="F4" s="35"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="44"/>
+      <c r="I4" s="38"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="44"/>
+      <c r="L4" s="38"/>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="24.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="81" t="s">
+      <c r="F5" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="82"/>
+      <c r="G5" s="89"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="83" t="s">
+      <c r="I5" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="85" t="s">
+      <c r="L5" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="86"/>
+      <c r="M5" s="93"/>
     </row>
     <row r="6" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="43" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="53" t="s">
+      <c r="J6" s="47" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="4"/>
-      <c r="L6" s="56" t="s">
+      <c r="L6" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="57" t="s">
+      <c r="M6" s="51" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="L7" s="42"/>
+      <c r="F7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="L7" s="36"/>
     </row>
     <row r="8" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="87" t="s">
+      <c r="F8" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="88"/>
-      <c r="I8" s="89" t="s">
+      <c r="G8" s="82"/>
+      <c r="I8" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="90"/>
-      <c r="L8" s="91" t="s">
+      <c r="J8" s="78"/>
+      <c r="L8" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="92"/>
+      <c r="M8" s="84"/>
     </row>
     <row r="9" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="54" t="s">
+      <c r="I9" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="55" t="s">
+      <c r="J9" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="58" t="s">
+      <c r="L9" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="59" t="s">
+      <c r="M9" s="53" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="L10" s="42"/>
+      <c r="F10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="L10" s="36"/>
     </row>
     <row r="11" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="87" t="s">
+      <c r="F11" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="88"/>
-      <c r="I11" s="89" t="s">
+      <c r="G11" s="82"/>
+      <c r="I11" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="90"/>
-      <c r="L11" s="91" t="s">
+      <c r="J11" s="78"/>
+      <c r="L11" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="92"/>
+      <c r="M11" s="84"/>
     </row>
     <row r="12" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="50" t="s">
+      <c r="F12" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="54" t="s">
+      <c r="I12" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="55" t="s">
+      <c r="J12" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="58" t="s">
+      <c r="L12" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="59" t="s">
+      <c r="M12" s="53" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="L13" s="42"/>
+      <c r="F13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="L13" s="36"/>
     </row>
     <row r="14" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F14" s="87" t="s">
+      <c r="F14" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="88"/>
-      <c r="I14" s="89" t="s">
+      <c r="G14" s="82"/>
+      <c r="I14" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="90"/>
-      <c r="L14" s="91" t="s">
+      <c r="J14" s="78"/>
+      <c r="L14" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="92"/>
+      <c r="M14" s="84"/>
     </row>
     <row r="15" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="54" t="s">
+      <c r="I15" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="55" t="s">
+      <c r="J15" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="58" t="s">
+      <c r="L15" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="59" t="s">
+      <c r="M15" s="53" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="42"/>
-      <c r="I16" s="42"/>
+      <c r="F16" s="36"/>
+      <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="87" t="s">
+      <c r="F17" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="88"/>
-      <c r="I17" s="89" t="s">
+      <c r="G17" s="82"/>
+      <c r="I17" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="90"/>
+      <c r="J17" s="78"/>
     </row>
     <row r="18" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="54" t="s">
+      <c r="I18" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="55" t="s">
+      <c r="J18" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I19" s="42"/>
+      <c r="I19" s="36"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I20" s="89" t="s">
+      <c r="I20" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="90"/>
+      <c r="J20" s="78"/>
     </row>
     <row r="21" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I21" s="54" t="s">
+      <c r="I21" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="J21" s="55" t="s">
+      <c r="J21" s="49" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="42"/>
+      <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I23" s="89" t="s">
+      <c r="I23" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="J23" s="90"/>
+      <c r="J23" s="78"/>
     </row>
     <row r="24" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I24" s="54" t="s">
+      <c r="I24" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="55" t="s">
+      <c r="J24" s="49" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2372,46 +2308,46 @@
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="I25" s="42"/>
+      <c r="I25" s="36"/>
     </row>
     <row r="26" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="I26" s="89" t="s">
+      <c r="I26" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="90"/>
+      <c r="J26" s="78"/>
     </row>
     <row r="27" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="95" t="s">
+      <c r="B27" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-      <c r="I27" s="54" t="s">
+      <c r="I27" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="J27" s="55" t="s">
+      <c r="J27" s="49" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2419,46 +2355,46 @@
       <c r="A28" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="95" t="s">
+      <c r="B28" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="I28" s="42"/>
+      <c r="I28" s="36"/>
     </row>
     <row r="29" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="95" t="s">
+      <c r="B29" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="I29" s="89" t="s">
+      <c r="I29" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="90"/>
+      <c r="J29" s="78"/>
     </row>
     <row r="30" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="95" t="s">
+      <c r="B30" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="I30" s="54" t="s">
+      <c r="I30" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="J30" s="55" t="s">
+      <c r="J30" s="49" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2466,46 +2402,46 @@
       <c r="A31" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="95" t="s">
+      <c r="B31" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="I31" s="42"/>
+      <c r="I31" s="36"/>
     </row>
     <row r="32" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="95" t="s">
+      <c r="B32" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="95"/>
-      <c r="D32" s="95"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="I32" s="89" t="s">
+      <c r="I32" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="J32" s="90"/>
+      <c r="J32" s="78"/>
     </row>
     <row r="33" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="95" t="s">
+      <c r="B33" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="I33" s="54" t="s">
+      <c r="I33" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="J33" s="55" t="s">
+      <c r="J33" s="49" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2513,11 +2449,11 @@
       <c r="A34" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="95" t="s">
+      <c r="B34" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
@@ -2525,11 +2461,11 @@
       <c r="A35" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="95" t="s">
+      <c r="B35" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
@@ -2537,11 +2473,11 @@
       <c r="A36" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="95" t="s">
+      <c r="B36" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="95"/>
-      <c r="D36" s="95"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
@@ -2549,11 +2485,11 @@
       <c r="A37" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="95" t="s">
+      <c r="B37" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
@@ -2561,11 +2497,11 @@
       <c r="A38" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="95" t="s">
+      <c r="B38" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
@@ -2573,11 +2509,11 @@
       <c r="A39" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="95" t="s">
+      <c r="B39" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
@@ -2585,11 +2521,11 @@
       <c r="A40" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="95" t="s">
+      <c r="B40" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
@@ -2597,16 +2533,47 @@
       <c r="A41" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="96" t="s">
+      <c r="B41" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B35:D35"/>
@@ -2614,37 +2581,6 @@
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -2659,8 +2595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BQ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2677,11 +2613,11 @@
       <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="14" t="s">
         <v>46</v>
       </c>
@@ -2705,11 +2641,11 @@
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
       <c r="E2" s="16"/>
       <c r="F2" s="17" t="s">
         <v>52</v>
@@ -2717,7 +2653,7 @@
       <c r="G2" s="18">
         <v>5</v>
       </c>
-      <c r="H2" s="100">
+      <c r="H2" s="72">
         <v>3</v>
       </c>
       <c r="I2" s="19">
@@ -2727,114 +2663,114 @@
         <f t="shared" ref="J2:J17" si="0">ROUND(G2/(H2*I2),0)</f>
         <v>2</v>
       </c>
-      <c r="L2" s="69">
+      <c r="L2" s="63">
         <v>0</v>
       </c>
-      <c r="M2" s="70"/>
-      <c r="N2" s="73">
+      <c r="M2" s="64"/>
+      <c r="N2" s="67">
         <f>L2+L4</f>
         <v>2</v>
       </c>
-      <c r="Q2" s="69">
+      <c r="Q2" s="63">
         <f>N2</f>
         <v>2</v>
       </c>
-      <c r="R2" s="70"/>
-      <c r="S2" s="73">
+      <c r="R2" s="64"/>
+      <c r="S2" s="67">
         <f>Q2+Q4</f>
         <v>3</v>
       </c>
-      <c r="V2" s="69">
+      <c r="V2" s="63">
         <f>S2</f>
         <v>3</v>
       </c>
-      <c r="W2" s="70"/>
-      <c r="X2" s="73">
+      <c r="W2" s="64"/>
+      <c r="X2" s="67">
         <f>V2+V4</f>
         <v>7</v>
       </c>
-      <c r="AF2" s="69">
+      <c r="AF2" s="63">
         <f>MAX(X2,AC8,X14)</f>
         <v>11</v>
       </c>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="73">
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="67">
         <f>AF2+AF4</f>
         <v>12</v>
       </c>
-      <c r="AK2" s="69">
+      <c r="AK2" s="63">
         <f>AH2</f>
         <v>12</v>
       </c>
-      <c r="AL2" s="70"/>
-      <c r="AM2" s="73">
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="67">
         <f>AK2+AK4</f>
         <v>13</v>
       </c>
-      <c r="AP2" s="69">
+      <c r="AP2" s="63">
         <f>AM2</f>
         <v>13</v>
       </c>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="73">
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="67">
         <f>AP2+AP4</f>
         <v>14</v>
       </c>
-      <c r="AU2" s="69">
+      <c r="AU2" s="63">
         <f>AR2</f>
         <v>14</v>
       </c>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="73">
+      <c r="AV2" s="64"/>
+      <c r="AW2" s="67">
         <f>AU2+AU4</f>
         <v>16</v>
       </c>
-      <c r="AZ2" s="69">
+      <c r="AZ2" s="63">
         <f>AW2</f>
         <v>16</v>
       </c>
-      <c r="BA2" s="70"/>
-      <c r="BB2" s="73">
+      <c r="BA2" s="64"/>
+      <c r="BB2" s="67">
         <f>AZ2+AZ4</f>
         <v>18</v>
       </c>
-      <c r="BE2" s="69">
+      <c r="BE2" s="63">
         <f>BB2</f>
         <v>18</v>
       </c>
-      <c r="BF2" s="70"/>
-      <c r="BG2" s="73">
+      <c r="BF2" s="64"/>
+      <c r="BG2" s="67">
         <f>BE2+BE4</f>
         <v>19</v>
       </c>
-      <c r="BJ2" s="69">
+      <c r="BJ2" s="63">
         <f>BG2</f>
         <v>19</v>
       </c>
-      <c r="BK2" s="70"/>
-      <c r="BL2" s="73">
+      <c r="BK2" s="64"/>
+      <c r="BL2" s="67">
         <f>BJ2+BJ4</f>
         <v>22</v>
       </c>
-      <c r="BO2" s="69">
+      <c r="BO2" s="63">
         <f>MAX(BL2,AC14)</f>
-        <v>25</v>
-      </c>
-      <c r="BP2" s="70"/>
-      <c r="BQ2" s="73">
+        <v>27</v>
+      </c>
+      <c r="BP2" s="64"/>
+      <c r="BQ2" s="67">
         <f>BO2+BO4</f>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="20" t="s">
         <v>16</v>
       </c>
@@ -2844,7 +2780,7 @@
       <c r="G3" s="21">
         <v>1</v>
       </c>
-      <c r="H3" s="101">
+      <c r="H3" s="73">
         <v>2</v>
       </c>
       <c r="I3" s="22">
@@ -2854,96 +2790,96 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L3" s="97" t="s">
+      <c r="L3" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="97" t="s">
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="97" t="s">
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="97" t="s">
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="AG3" s="97"/>
-      <c r="AH3" s="97"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="97" t="s">
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="AL3" s="97"/>
-      <c r="AM3" s="97"/>
-      <c r="AN3" s="60"/>
-      <c r="AO3" s="61"/>
-      <c r="AP3" s="97" t="s">
+      <c r="AL3" s="94"/>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="AQ3" s="97"/>
-      <c r="AR3" s="97"/>
-      <c r="AS3" s="60"/>
-      <c r="AT3" s="61"/>
-      <c r="AU3" s="97" t="s">
+      <c r="AQ3" s="94"/>
+      <c r="AR3" s="94"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="55"/>
+      <c r="AU3" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="AV3" s="97"/>
-      <c r="AW3" s="97"/>
-      <c r="AX3" s="60"/>
-      <c r="AY3" s="61"/>
-      <c r="AZ3" s="97" t="s">
+      <c r="AV3" s="94"/>
+      <c r="AW3" s="94"/>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="55"/>
+      <c r="AZ3" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="BA3" s="97"/>
-      <c r="BB3" s="97"/>
-      <c r="BC3" s="60"/>
-      <c r="BD3" s="61"/>
-      <c r="BE3" s="97" t="s">
+      <c r="BA3" s="94"/>
+      <c r="BB3" s="94"/>
+      <c r="BC3" s="54"/>
+      <c r="BD3" s="55"/>
+      <c r="BE3" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="BF3" s="97"/>
-      <c r="BG3" s="97"/>
-      <c r="BH3" s="60"/>
-      <c r="BI3" s="61"/>
-      <c r="BJ3" s="97" t="s">
+      <c r="BF3" s="94"/>
+      <c r="BG3" s="94"/>
+      <c r="BH3" s="54"/>
+      <c r="BI3" s="55"/>
+      <c r="BJ3" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="BK3" s="97"/>
-      <c r="BL3" s="97"/>
-      <c r="BM3" s="60"/>
-      <c r="BN3" s="61"/>
-      <c r="BO3" s="97" t="s">
+      <c r="BK3" s="94"/>
+      <c r="BL3" s="94"/>
+      <c r="BM3" s="54"/>
+      <c r="BN3" s="55"/>
+      <c r="BO3" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="BP3" s="97"/>
-      <c r="BQ3" s="97"/>
+      <c r="BP3" s="94"/>
+      <c r="BQ3" s="94"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="20" t="s">
         <v>15</v>
       </c>
@@ -2953,7 +2889,7 @@
       <c r="G4" s="21">
         <v>4</v>
       </c>
-      <c r="H4" s="101" t="s">
+      <c r="H4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="I4" s="22">
@@ -2963,149 +2899,149 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L4" s="74">
+      <c r="L4" s="68">
         <f>J2</f>
         <v>2</v>
       </c>
-      <c r="M4" s="75">
+      <c r="M4" s="69">
         <f>N5-N2</f>
         <v>0</v>
       </c>
-      <c r="N4" s="76">
+      <c r="N4" s="70">
         <f>MIN(Q2,Q14)-N2</f>
         <v>0</v>
       </c>
-      <c r="O4" s="43"/>
-      <c r="Q4" s="74">
+      <c r="O4" s="37"/>
+      <c r="Q4" s="68">
         <f>J3</f>
         <v>1</v>
       </c>
-      <c r="R4" s="75">
+      <c r="R4" s="69">
         <f>S5-S2</f>
-        <v>3</v>
-      </c>
-      <c r="S4" s="76">
+        <v>5</v>
+      </c>
+      <c r="S4" s="70">
         <f>MIN(V2,V8)-S2</f>
         <v>0</v>
       </c>
-      <c r="T4" s="43"/>
-      <c r="V4" s="74">
+      <c r="T4" s="37"/>
+      <c r="V4" s="68">
         <f>J4</f>
         <v>4</v>
       </c>
-      <c r="W4" s="75">
+      <c r="W4" s="69">
         <f>X5-X2</f>
-        <v>7</v>
-      </c>
-      <c r="X4" s="76">
+        <v>9</v>
+      </c>
+      <c r="X4" s="70">
         <f>AF2-X2</f>
         <v>4</v>
       </c>
-      <c r="AE4" s="67"/>
-      <c r="AF4" s="74">
+      <c r="AE4" s="61"/>
+      <c r="AF4" s="68">
         <f>J9</f>
         <v>1</v>
       </c>
-      <c r="AG4" s="75">
+      <c r="AG4" s="69">
         <f>AH5-AH2</f>
-        <v>3</v>
-      </c>
-      <c r="AH4" s="76">
+        <v>5</v>
+      </c>
+      <c r="AH4" s="70">
         <f>AK2-AH2</f>
         <v>0</v>
       </c>
-      <c r="AK4" s="74">
+      <c r="AK4" s="68">
         <f>J10</f>
         <v>1</v>
       </c>
-      <c r="AL4" s="75">
+      <c r="AL4" s="69">
         <f>AM5-AM2</f>
-        <v>3</v>
-      </c>
-      <c r="AM4" s="76">
+        <v>5</v>
+      </c>
+      <c r="AM4" s="70">
         <f>AP2-AM2</f>
         <v>0</v>
       </c>
-      <c r="AP4" s="74">
+      <c r="AP4" s="68">
         <f>J11</f>
         <v>1</v>
       </c>
-      <c r="AQ4" s="75">
+      <c r="AQ4" s="69">
         <f>AR5-AR2</f>
-        <v>3</v>
-      </c>
-      <c r="AR4" s="76">
+        <v>5</v>
+      </c>
+      <c r="AR4" s="70">
         <f>AU2-AR2</f>
         <v>0</v>
       </c>
-      <c r="AU4" s="74">
+      <c r="AU4" s="68">
         <f>J13</f>
         <v>2</v>
       </c>
-      <c r="AV4" s="75">
+      <c r="AV4" s="69">
         <f>AW5-AW2</f>
-        <v>3</v>
-      </c>
-      <c r="AW4" s="76">
+        <v>5</v>
+      </c>
+      <c r="AW4" s="70">
         <f>AZ2-AW2</f>
         <v>0</v>
       </c>
-      <c r="AZ4" s="74">
+      <c r="AZ4" s="68">
         <f>J14</f>
         <v>2</v>
       </c>
-      <c r="BA4" s="75">
+      <c r="BA4" s="69">
         <f>BB5-BB2</f>
-        <v>3</v>
-      </c>
-      <c r="BB4" s="76">
+        <v>5</v>
+      </c>
+      <c r="BB4" s="70">
         <f>BE2-BB2</f>
         <v>0</v>
       </c>
-      <c r="BE4" s="74">
+      <c r="BE4" s="68">
         <f>J15</f>
         <v>1</v>
       </c>
-      <c r="BF4" s="75">
+      <c r="BF4" s="69">
         <f>BG5-BG2</f>
-        <v>3</v>
-      </c>
-      <c r="BG4" s="76">
+        <v>5</v>
+      </c>
+      <c r="BG4" s="70">
         <f>BJ2-BG2</f>
         <v>0</v>
       </c>
-      <c r="BJ4" s="74">
+      <c r="BJ4" s="68">
         <f>J16</f>
         <v>3</v>
       </c>
-      <c r="BK4" s="75">
+      <c r="BK4" s="69">
         <f>BL5-BL2</f>
-        <v>3</v>
-      </c>
-      <c r="BL4" s="76">
+        <v>5</v>
+      </c>
+      <c r="BL4" s="70">
         <f>BO2-BL2</f>
-        <v>3</v>
-      </c>
-      <c r="BN4" s="61"/>
-      <c r="BO4" s="74">
+        <v>5</v>
+      </c>
+      <c r="BN4" s="55"/>
+      <c r="BO4" s="68">
         <f>J17</f>
         <v>1</v>
       </c>
-      <c r="BP4" s="75">
+      <c r="BP4" s="69">
         <f>BQ5-BQ2</f>
         <v>0</v>
       </c>
-      <c r="BQ4" s="76"/>
+      <c r="BQ4" s="70"/>
     </row>
     <row r="5" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="20" t="s">
         <v>15</v>
       </c>
@@ -3115,129 +3051,130 @@
       <c r="G5" s="21">
         <v>3</v>
       </c>
-      <c r="H5" s="101" t="s">
-        <v>53</v>
+      <c r="H5" s="73">
+        <v>2</v>
       </c>
       <c r="I5" s="22">
-        <v>1</v>
+        <f>120%/2</f>
+        <v>0.6</v>
       </c>
       <c r="J5" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L5" s="71">
+      <c r="L5" s="65">
         <f>N5-L4</f>
         <v>0</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="72">
+      <c r="M5" s="64"/>
+      <c r="N5" s="66">
         <f>MIN(Q5,Q17)</f>
         <v>2</v>
       </c>
-      <c r="O5" s="62"/>
-      <c r="Q5" s="71">
+      <c r="O5" s="56"/>
+      <c r="Q5" s="65">
         <f>S5-Q4</f>
-        <v>5</v>
-      </c>
-      <c r="R5" s="70"/>
-      <c r="S5" s="72">
+        <v>7</v>
+      </c>
+      <c r="R5" s="64"/>
+      <c r="S5" s="66">
         <f>MIN(V5,V11)</f>
-        <v>6</v>
-      </c>
-      <c r="T5" s="62"/>
-      <c r="V5" s="71">
+        <v>8</v>
+      </c>
+      <c r="T5" s="56"/>
+      <c r="V5" s="65">
         <f>X5-V4</f>
-        <v>10</v>
-      </c>
-      <c r="W5" s="70"/>
-      <c r="X5" s="72">
+        <v>12</v>
+      </c>
+      <c r="W5" s="64"/>
+      <c r="X5" s="66">
         <f>AF5</f>
-        <v>14</v>
-      </c>
-      <c r="AD5" s="62"/>
-      <c r="AF5" s="71">
+        <v>16</v>
+      </c>
+      <c r="AD5" s="56"/>
+      <c r="AF5" s="65">
         <f>AH5-AF4</f>
-        <v>14</v>
-      </c>
-      <c r="AG5" s="70"/>
-      <c r="AH5" s="72">
+        <v>16</v>
+      </c>
+      <c r="AG5" s="64"/>
+      <c r="AH5" s="66">
         <f>AK5</f>
-        <v>15</v>
-      </c>
-      <c r="AK5" s="71">
+        <v>17</v>
+      </c>
+      <c r="AK5" s="65">
         <f>AM5-AK4</f>
-        <v>15</v>
-      </c>
-      <c r="AL5" s="70"/>
-      <c r="AM5" s="72">
+        <v>17</v>
+      </c>
+      <c r="AL5" s="64"/>
+      <c r="AM5" s="66">
         <f>AP5</f>
-        <v>16</v>
-      </c>
-      <c r="AP5" s="71">
+        <v>18</v>
+      </c>
+      <c r="AP5" s="65">
         <f>AR5-AP4</f>
-        <v>16</v>
-      </c>
-      <c r="AQ5" s="70"/>
-      <c r="AR5" s="72">
+        <v>18</v>
+      </c>
+      <c r="AQ5" s="64"/>
+      <c r="AR5" s="66">
         <f>AU5</f>
-        <v>17</v>
-      </c>
-      <c r="AU5" s="71">
+        <v>19</v>
+      </c>
+      <c r="AU5" s="65">
         <f>AW5-AU4</f>
-        <v>17</v>
-      </c>
-      <c r="AV5" s="70"/>
-      <c r="AW5" s="72">
+        <v>19</v>
+      </c>
+      <c r="AV5" s="64"/>
+      <c r="AW5" s="66">
         <f>AZ5</f>
-        <v>19</v>
-      </c>
-      <c r="AZ5" s="71">
+        <v>21</v>
+      </c>
+      <c r="AZ5" s="65">
         <f>BB5-AZ4</f>
-        <v>19</v>
-      </c>
-      <c r="BA5" s="70"/>
-      <c r="BB5" s="72">
+        <v>21</v>
+      </c>
+      <c r="BA5" s="64"/>
+      <c r="BB5" s="66">
         <f>BE5</f>
-        <v>21</v>
-      </c>
-      <c r="BE5" s="71">
+        <v>23</v>
+      </c>
+      <c r="BE5" s="65">
         <f>BG5-BE4</f>
-        <v>21</v>
-      </c>
-      <c r="BF5" s="70"/>
-      <c r="BG5" s="72">
+        <v>23</v>
+      </c>
+      <c r="BF5" s="64"/>
+      <c r="BG5" s="66">
         <f>BJ5</f>
-        <v>22</v>
-      </c>
-      <c r="BJ5" s="71">
+        <v>24</v>
+      </c>
+      <c r="BJ5" s="65">
         <f>BL5-BJ4</f>
-        <v>22</v>
-      </c>
-      <c r="BK5" s="70"/>
-      <c r="BL5" s="72">
+        <v>24</v>
+      </c>
+      <c r="BK5" s="64"/>
+      <c r="BL5" s="66">
         <f>BO5</f>
-        <v>25</v>
-      </c>
-      <c r="BM5" s="62"/>
-      <c r="BO5" s="71">
+        <v>27</v>
+      </c>
+      <c r="BM5" s="56"/>
+      <c r="BO5" s="65">
         <f>BQ5-BO4</f>
-        <v>25</v>
-      </c>
-      <c r="BP5" s="70"/>
-      <c r="BQ5" s="72">
+        <v>27</v>
+      </c>
+      <c r="BP5" s="64"/>
+      <c r="BQ5" s="66">
         <f>BQ2</f>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="23" t="s">
         <v>27</v>
       </c>
@@ -3247,32 +3184,32 @@
       <c r="G6" s="1">
         <v>7</v>
       </c>
-      <c r="H6" s="101">
-        <v>2</v>
+      <c r="H6" s="73">
+        <v>1</v>
       </c>
       <c r="I6" s="22">
-        <f>150%/2</f>
-        <v>0.75</v>
+        <f>100%+(100%-$I$12)</f>
+        <v>1.5</v>
       </c>
       <c r="J6" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="BM6" s="62"/>
+      <c r="O6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="56"/>
+      <c r="BM6" s="56"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="20" t="s">
         <v>16</v>
       </c>
@@ -3282,31 +3219,31 @@
       <c r="G7" s="21">
         <v>1</v>
       </c>
-      <c r="H7" s="101">
-        <v>2</v>
+      <c r="H7" s="73" t="s">
+        <v>53</v>
       </c>
       <c r="I7" s="22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J7" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="AD7" s="62"/>
-      <c r="AE7" s="62"/>
-      <c r="BM7" s="62"/>
+      <c r="O7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
+      <c r="BM7" s="56"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="23" t="s">
         <v>22</v>
       </c>
@@ -3316,49 +3253,49 @@
       <c r="G8" s="1">
         <v>3</v>
       </c>
-      <c r="H8" s="101">
-        <v>2</v>
+      <c r="H8" s="73" t="s">
+        <v>53</v>
       </c>
       <c r="I8" s="22">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="J8" s="21">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="V8" s="69">
+        <v>4</v>
+      </c>
+      <c r="O8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="V8" s="63">
         <f>S2</f>
         <v>3</v>
       </c>
-      <c r="W8" s="70"/>
-      <c r="X8" s="73">
+      <c r="W8" s="64"/>
+      <c r="X8" s="67">
         <f>V8+V10</f>
         <v>6</v>
       </c>
-      <c r="AA8" s="69">
+      <c r="AA8" s="63">
         <f>X8</f>
         <v>6</v>
       </c>
-      <c r="AB8" s="70"/>
-      <c r="AC8" s="73">
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="67">
         <f>AA8+AA10</f>
         <v>11</v>
       </c>
-      <c r="AD8" s="62"/>
-      <c r="AE8" s="62"/>
-      <c r="BM8" s="62"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="BM8" s="56"/>
     </row>
     <row r="9" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
       <c r="E9" s="23" t="s">
         <v>56</v>
       </c>
@@ -3368,43 +3305,44 @@
       <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="H9" s="101">
-        <v>2</v>
+      <c r="H9" s="73" t="s">
+        <v>53</v>
       </c>
       <c r="I9" s="22">
-        <v>0.75</v>
+        <f>100%+(100%-$I$12)</f>
+        <v>1.5</v>
       </c>
       <c r="J9" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="V9" s="97" t="s">
+      <c r="O9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="V9" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="W9" s="97"/>
-      <c r="X9" s="97"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="61"/>
-      <c r="AA9" s="97" t="s">
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="AB9" s="97"/>
-      <c r="AC9" s="97"/>
-      <c r="AD9" s="66"/>
-      <c r="AE9" s="62"/>
-      <c r="BM9" s="62"/>
+      <c r="AB9" s="94"/>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="56"/>
+      <c r="BM9" s="56"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
       <c r="E10" s="23" t="s">
         <v>33</v>
       </c>
@@ -3414,54 +3352,55 @@
       <c r="G10" s="1">
         <v>2</v>
       </c>
-      <c r="H10" s="101">
-        <v>2</v>
+      <c r="H10" s="73" t="s">
+        <v>53</v>
       </c>
       <c r="I10" s="22">
-        <v>0.75</v>
+        <f>100%+(100%-$I$12)</f>
+        <v>1.5</v>
       </c>
       <c r="J10" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O10" s="62"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="74">
+      <c r="O10" s="56"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="68">
         <f>J5</f>
         <v>3</v>
       </c>
-      <c r="W10" s="75">
+      <c r="W10" s="69">
         <f>X11-X8</f>
-        <v>3</v>
-      </c>
-      <c r="X10" s="76">
+        <v>5</v>
+      </c>
+      <c r="X10" s="70">
         <f>AA8-X8</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="74">
+      <c r="AA10" s="68">
         <f>J6</f>
         <v>5</v>
       </c>
-      <c r="AB10" s="75">
+      <c r="AB10" s="69">
         <f>AC11-AC8</f>
-        <v>3</v>
-      </c>
-      <c r="AC10" s="76">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="70">
         <f>AF2-AC8</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="62"/>
-      <c r="BM10" s="62"/>
+      <c r="AE10" s="56"/>
+      <c r="BM10" s="56"/>
     </row>
     <row r="11" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
       <c r="E11" s="23" t="s">
         <v>35</v>
       </c>
@@ -3471,47 +3410,48 @@
       <c r="G11" s="1">
         <v>2</v>
       </c>
-      <c r="H11" s="101">
-        <v>2</v>
+      <c r="H11" s="73" t="s">
+        <v>53</v>
       </c>
       <c r="I11" s="22">
-        <v>0.75</v>
+        <f>100%+(100%-$I$12)</f>
+        <v>1.5</v>
       </c>
       <c r="J11" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O11" s="62"/>
-      <c r="V11" s="71">
+      <c r="O11" s="56"/>
+      <c r="V11" s="65">
         <f>X11-V10</f>
-        <v>6</v>
-      </c>
-      <c r="W11" s="70"/>
-      <c r="X11" s="72">
+        <v>8</v>
+      </c>
+      <c r="W11" s="64"/>
+      <c r="X11" s="66">
         <f>AA11</f>
-        <v>9</v>
-      </c>
-      <c r="AA11" s="71">
+        <v>11</v>
+      </c>
+      <c r="AA11" s="65">
         <f>AC11-AA10</f>
-        <v>9</v>
-      </c>
-      <c r="AB11" s="70"/>
-      <c r="AC11" s="72">
+        <v>11</v>
+      </c>
+      <c r="AB11" s="64"/>
+      <c r="AC11" s="66">
         <f>AF5</f>
-        <v>14</v>
-      </c>
-      <c r="AE11" s="62"/>
-      <c r="BM11" s="62"/>
+        <v>16</v>
+      </c>
+      <c r="AE11" s="56"/>
+      <c r="BM11" s="56"/>
     </row>
     <row r="12" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
       <c r="E12" s="23" t="s">
         <v>28</v>
       </c>
@@ -3521,7 +3461,7 @@
       <c r="G12" s="1">
         <v>10</v>
       </c>
-      <c r="H12" s="101">
+      <c r="H12" s="73">
         <v>1</v>
       </c>
       <c r="I12" s="22">
@@ -3531,24 +3471,24 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="O12" s="62"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="68"/>
-      <c r="BM12" s="62"/>
+      <c r="O12" s="56"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="62"/>
+      <c r="BM12" s="56"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
       <c r="E13" s="23" t="s">
         <v>37</v>
       </c>
@@ -3558,29 +3498,30 @@
       <c r="G13" s="1">
         <v>3</v>
       </c>
-      <c r="H13" s="101">
-        <v>2</v>
+      <c r="H13" s="73" t="s">
+        <v>53</v>
       </c>
       <c r="I13" s="22">
-        <v>0.75</v>
+        <f>100%+(100%-$I$12)</f>
+        <v>1.5</v>
       </c>
       <c r="J13" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="BM13" s="62"/>
+      <c r="O13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="BM13" s="56"/>
     </row>
     <row r="14" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="23" t="s">
         <v>23</v>
       </c>
@@ -3590,56 +3531,57 @@
       <c r="G14" s="1">
         <v>3</v>
       </c>
-      <c r="H14" s="101">
-        <v>2</v>
+      <c r="H14" s="73" t="s">
+        <v>53</v>
       </c>
       <c r="I14" s="22">
-        <v>0.75</v>
+        <f>100%+(100%-$I$12)</f>
+        <v>1.5</v>
       </c>
       <c r="J14" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O14" s="62"/>
-      <c r="Q14" s="69">
+      <c r="O14" s="56"/>
+      <c r="Q14" s="63">
         <f>N2</f>
         <v>2</v>
       </c>
-      <c r="R14" s="70"/>
-      <c r="S14" s="73">
+      <c r="R14" s="64"/>
+      <c r="S14" s="67">
         <f>Q14+Q16</f>
         <v>3</v>
       </c>
-      <c r="V14" s="69">
+      <c r="V14" s="63">
         <f>S14</f>
         <v>3</v>
       </c>
-      <c r="W14" s="70"/>
-      <c r="X14" s="73">
+      <c r="W14" s="64"/>
+      <c r="X14" s="67">
         <f>V14+V16</f>
-        <v>5</v>
-      </c>
-      <c r="Y14" s="66"/>
-      <c r="AA14" s="69">
+        <v>7</v>
+      </c>
+      <c r="Y14" s="60"/>
+      <c r="AA14" s="63">
         <f>X14</f>
-        <v>5</v>
-      </c>
-      <c r="AB14" s="70"/>
-      <c r="AC14" s="73">
+        <v>7</v>
+      </c>
+      <c r="AB14" s="64"/>
+      <c r="AC14" s="67">
         <f>AA14+AA16</f>
-        <v>25</v>
-      </c>
-      <c r="BM14" s="62"/>
+        <v>27</v>
+      </c>
+      <c r="BM14" s="56"/>
     </row>
     <row r="15" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="23" t="s">
         <v>41</v>
       </c>
@@ -3649,83 +3591,84 @@
       <c r="G15" s="1">
         <v>1</v>
       </c>
-      <c r="H15" s="101" t="s">
+      <c r="H15" s="73" t="s">
         <v>53</v>
       </c>
       <c r="I15" s="22">
-        <v>1</v>
+        <f>100%+(100%-$I$12)</f>
+        <v>1.5</v>
       </c>
       <c r="J15" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O15" s="62"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="97" t="s">
+      <c r="O15" s="56"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="97"/>
-      <c r="S15" s="97"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="61"/>
-      <c r="V15" s="97" t="s">
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="W15" s="97"/>
-      <c r="X15" s="97"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="97" t="s">
+      <c r="W15" s="94"/>
+      <c r="X15" s="94"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="55"/>
+      <c r="AA15" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="AB15" s="97"/>
-      <c r="AC15" s="97"/>
-      <c r="AD15" s="60"/>
-      <c r="AE15" s="65"/>
-      <c r="AF15" s="65"/>
-      <c r="AG15" s="65"/>
-      <c r="AH15" s="65"/>
-      <c r="AI15" s="65"/>
-      <c r="AJ15" s="65"/>
-      <c r="AK15" s="65"/>
-      <c r="AL15" s="65"/>
-      <c r="AM15" s="65"/>
-      <c r="AN15" s="65"/>
-      <c r="AO15" s="65"/>
-      <c r="AP15" s="65"/>
-      <c r="AQ15" s="65"/>
-      <c r="AR15" s="65"/>
-      <c r="AS15" s="65"/>
-      <c r="AT15" s="65"/>
-      <c r="AU15" s="65"/>
-      <c r="AV15" s="65"/>
-      <c r="AW15" s="65"/>
-      <c r="AX15" s="65"/>
-      <c r="AY15" s="65"/>
-      <c r="AZ15" s="65"/>
-      <c r="BA15" s="65"/>
-      <c r="BB15" s="65"/>
-      <c r="BC15" s="65"/>
-      <c r="BD15" s="65"/>
-      <c r="BE15" s="65"/>
-      <c r="BF15" s="65"/>
-      <c r="BG15" s="65"/>
-      <c r="BH15" s="65"/>
-      <c r="BI15" s="65"/>
-      <c r="BJ15" s="65"/>
-      <c r="BK15" s="65"/>
-      <c r="BL15" s="65"/>
-      <c r="BM15" s="68"/>
+      <c r="AB15" s="94"/>
+      <c r="AC15" s="94"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="59"/>
+      <c r="AF15" s="59"/>
+      <c r="AG15" s="59"/>
+      <c r="AH15" s="59"/>
+      <c r="AI15" s="59"/>
+      <c r="AJ15" s="59"/>
+      <c r="AK15" s="59"/>
+      <c r="AL15" s="59"/>
+      <c r="AM15" s="59"/>
+      <c r="AN15" s="59"/>
+      <c r="AO15" s="59"/>
+      <c r="AP15" s="59"/>
+      <c r="AQ15" s="59"/>
+      <c r="AR15" s="59"/>
+      <c r="AS15" s="59"/>
+      <c r="AT15" s="59"/>
+      <c r="AU15" s="59"/>
+      <c r="AV15" s="59"/>
+      <c r="AW15" s="59"/>
+      <c r="AX15" s="59"/>
+      <c r="AY15" s="59"/>
+      <c r="AZ15" s="59"/>
+      <c r="BA15" s="59"/>
+      <c r="BB15" s="59"/>
+      <c r="BC15" s="59"/>
+      <c r="BD15" s="59"/>
+      <c r="BE15" s="59"/>
+      <c r="BF15" s="59"/>
+      <c r="BG15" s="59"/>
+      <c r="BH15" s="59"/>
+      <c r="BI15" s="59"/>
+      <c r="BJ15" s="59"/>
+      <c r="BK15" s="59"/>
+      <c r="BL15" s="59"/>
+      <c r="BM15" s="62"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
       <c r="E16" s="23" t="s">
         <v>29</v>
       </c>
@@ -3735,49 +3678,50 @@
       <c r="G16" s="1">
         <v>5</v>
       </c>
-      <c r="H16" s="101">
-        <v>2</v>
+      <c r="H16" s="73" t="s">
+        <v>53</v>
       </c>
       <c r="I16" s="22">
-        <v>0.75</v>
+        <f>100%+(100%-$I$12)</f>
+        <v>1.5</v>
       </c>
       <c r="J16" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="Q16" s="74">
+      <c r="Q16" s="68">
         <f>J7</f>
         <v>1</v>
       </c>
-      <c r="R16" s="75">
+      <c r="R16" s="69">
         <f>S17-S14</f>
         <v>0</v>
       </c>
-      <c r="S16" s="76">
+      <c r="S16" s="70">
         <f>V14-S14</f>
         <v>0</v>
       </c>
-      <c r="V16" s="74">
+      <c r="V16" s="68">
         <f>J8</f>
-        <v>2</v>
-      </c>
-      <c r="W16" s="75">
+        <v>4</v>
+      </c>
+      <c r="W16" s="69">
         <f>X17-X14</f>
         <v>0</v>
       </c>
-      <c r="X16" s="76">
+      <c r="X16" s="70">
         <f>MIN(AA14,AF2)-X14</f>
         <v>0</v>
       </c>
-      <c r="AA16" s="74">
+      <c r="AA16" s="68">
         <f>J12</f>
         <v>20</v>
       </c>
-      <c r="AB16" s="75">
+      <c r="AB16" s="69">
         <f>AC17-AC14</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="76">
+      <c r="AC16" s="70">
         <f>BO2-AC14</f>
         <v>0</v>
       </c>
@@ -3786,11 +3730,11 @@
       <c r="A17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
       <c r="E17" s="24" t="s">
         <v>58</v>
       </c>
@@ -3798,7 +3742,7 @@
       <c r="G17" s="26">
         <v>1</v>
       </c>
-      <c r="H17" s="102" t="s">
+      <c r="H17" s="74" t="s">
         <v>53</v>
       </c>
       <c r="I17" s="22">
@@ -3808,114 +3752,99 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q17" s="71">
+      <c r="Q17" s="65">
         <f>S17-Q16</f>
         <v>2</v>
       </c>
-      <c r="R17" s="70"/>
-      <c r="S17" s="72">
+      <c r="R17" s="64"/>
+      <c r="S17" s="66">
         <f>V17</f>
         <v>3</v>
       </c>
-      <c r="V17" s="71">
+      <c r="V17" s="65">
         <f>X17-V16</f>
         <v>3</v>
       </c>
-      <c r="W17" s="70"/>
-      <c r="X17" s="72">
+      <c r="W17" s="64"/>
+      <c r="X17" s="66">
         <f>MIN(AA17,AF5)</f>
-        <v>5</v>
-      </c>
-      <c r="AA17" s="71">
+        <v>7</v>
+      </c>
+      <c r="AA17" s="65">
         <f>AC17-AA16</f>
-        <v>5</v>
-      </c>
-      <c r="AB17" s="70"/>
-      <c r="AC17" s="72">
+        <v>7</v>
+      </c>
+      <c r="AB17" s="64"/>
+      <c r="AC17" s="66">
         <f>BO5</f>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A19" s="77" t="s">
-        <v>78</v>
+      <c r="A19" s="71" t="s">
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="64"/>
+      <c r="C20" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="73" t="s">
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A21" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A22" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A23" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="64"/>
+      <c r="C23" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
         <v>69</v>
-      </c>
-      <c r="D20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A21" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A22" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A23" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="Q3:S3"/>
     <mergeCell ref="AZ3:BB3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="BJ3:BL3"/>
@@ -3926,94 +3855,109 @@
     <mergeCell ref="AK3:AM3"/>
     <mergeCell ref="AP3:AR3"/>
     <mergeCell ref="AU3:AW3"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <conditionalFormatting sqref="B22">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10">
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W16">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB16">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG4">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL4">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ4">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV4">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA4">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF4">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK4">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP4">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4029,21 +3973,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BN20"/>
+  <dimension ref="A1:BN17"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="11" topLeftCell="AU1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB14" sqref="BB14"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="11" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="16.140625" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="11.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="9" width="11.5703125" customWidth="1" outlineLevel="2"/>
-    <col min="11" max="11" width="3.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="3.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="65" width="3.5703125" customWidth="1"/>
+    <col min="7" max="9" width="11.5703125" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="10" max="10" width="11.5703125" collapsed="1"/>
+    <col min="11" max="11" width="3.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="65" width="3.5703125" customWidth="1"/>
     <col min="66" max="66" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4051,11 +3995,11 @@
       <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="14" t="s">
         <v>46</v>
       </c>
@@ -4076,166 +4020,166 @@
       </c>
       <c r="K1" s="27"/>
       <c r="L1" s="29">
-        <v>44515</v>
+        <v>45208</v>
       </c>
       <c r="M1" s="29">
-        <v>44516</v>
+        <v>45209</v>
       </c>
       <c r="N1" s="29">
-        <v>44517</v>
+        <v>45210</v>
       </c>
       <c r="O1" s="29">
-        <v>44518</v>
+        <v>45211</v>
       </c>
       <c r="P1" s="29">
-        <v>44519</v>
+        <v>45212</v>
       </c>
       <c r="Q1" s="29">
-        <v>44520</v>
+        <v>45213</v>
       </c>
       <c r="R1" s="29">
-        <v>44521</v>
+        <v>45214</v>
       </c>
       <c r="S1" s="29">
-        <v>44522</v>
+        <v>45215</v>
       </c>
       <c r="T1" s="29">
-        <v>44523</v>
+        <v>45216</v>
       </c>
       <c r="U1" s="29">
-        <v>44524</v>
+        <v>45217</v>
       </c>
       <c r="V1" s="29">
-        <v>44525</v>
+        <v>45218</v>
       </c>
       <c r="W1" s="29">
-        <v>44526</v>
+        <v>45219</v>
       </c>
       <c r="X1" s="29">
-        <v>44527</v>
+        <v>45220</v>
       </c>
       <c r="Y1" s="29">
-        <v>44528</v>
+        <v>45221</v>
       </c>
       <c r="Z1" s="29">
-        <v>44529</v>
+        <v>45222</v>
       </c>
       <c r="AA1" s="29">
-        <v>44530</v>
+        <v>45223</v>
       </c>
       <c r="AB1" s="29">
-        <v>44531</v>
+        <v>45224</v>
       </c>
       <c r="AC1" s="29">
-        <v>44532</v>
+        <v>45225</v>
       </c>
       <c r="AD1" s="29">
-        <v>44533</v>
+        <v>45226</v>
       </c>
       <c r="AE1" s="29">
-        <v>44534</v>
+        <v>45227</v>
       </c>
       <c r="AF1" s="29">
-        <v>44535</v>
+        <v>45228</v>
       </c>
       <c r="AG1" s="29">
-        <v>44536</v>
+        <v>45229</v>
       </c>
       <c r="AH1" s="29">
-        <v>44537</v>
+        <v>45230</v>
       </c>
       <c r="AI1" s="29">
-        <v>44538</v>
+        <v>45231</v>
       </c>
       <c r="AJ1" s="29">
-        <v>44539</v>
+        <v>45232</v>
       </c>
       <c r="AK1" s="29">
-        <v>44540</v>
+        <v>45233</v>
       </c>
       <c r="AL1" s="29">
-        <v>44541</v>
+        <v>45234</v>
       </c>
       <c r="AM1" s="29">
-        <v>44542</v>
+        <v>45235</v>
       </c>
       <c r="AN1" s="29">
-        <v>44543</v>
+        <v>45236</v>
       </c>
       <c r="AO1" s="29">
-        <v>44544</v>
+        <v>45237</v>
       </c>
       <c r="AP1" s="29">
-        <v>44545</v>
+        <v>45238</v>
       </c>
       <c r="AQ1" s="29">
-        <v>44546</v>
+        <v>45239</v>
       </c>
       <c r="AR1" s="29">
-        <v>44547</v>
+        <v>45240</v>
       </c>
       <c r="AS1" s="29">
-        <v>44548</v>
+        <v>45241</v>
       </c>
       <c r="AT1" s="29">
-        <v>44549</v>
+        <v>45242</v>
       </c>
       <c r="AU1" s="29">
-        <v>44550</v>
+        <v>45243</v>
       </c>
       <c r="AV1" s="29">
-        <v>44551</v>
+        <v>45244</v>
       </c>
       <c r="AW1" s="29">
-        <v>44552</v>
+        <v>45245</v>
       </c>
       <c r="AX1" s="29">
-        <v>44553</v>
-      </c>
-      <c r="AY1" s="30">
-        <v>44554</v>
+        <v>45246</v>
+      </c>
+      <c r="AY1" s="29">
+        <v>45247</v>
       </c>
       <c r="AZ1" s="29">
-        <v>44555</v>
+        <v>45248</v>
       </c>
       <c r="BA1" s="29">
-        <v>44556</v>
+        <v>45249</v>
       </c>
       <c r="BB1" s="29">
-        <v>44557</v>
+        <v>45250</v>
       </c>
       <c r="BC1" s="29">
-        <v>44558</v>
+        <v>45251</v>
       </c>
       <c r="BD1" s="29">
-        <v>44559</v>
+        <v>45252</v>
       </c>
       <c r="BE1" s="29">
-        <v>44560</v>
-      </c>
-      <c r="BF1" s="30">
-        <v>44561</v>
+        <v>45253</v>
+      </c>
+      <c r="BF1" s="29">
+        <v>45254</v>
       </c>
       <c r="BG1" s="29">
-        <v>44562</v>
+        <v>45255</v>
       </c>
       <c r="BH1" s="29">
-        <v>44563</v>
+        <v>45256</v>
       </c>
       <c r="BI1" s="29">
-        <v>44564</v>
+        <v>45257</v>
       </c>
       <c r="BJ1" s="29">
-        <v>44565</v>
+        <v>45258</v>
       </c>
       <c r="BK1" s="29">
-        <v>44566</v>
-      </c>
-      <c r="BL1" s="30">
-        <v>44567</v>
+        <v>45259</v>
+      </c>
+      <c r="BL1" s="29">
+        <v>45260</v>
       </c>
       <c r="BM1" s="29">
-        <v>44568</v>
+        <v>45261</v>
       </c>
       <c r="BN1" t="s">
         <v>59</v>
@@ -4245,11 +4189,11 @@
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
       <c r="E2" s="16"/>
       <c r="F2" s="17" t="s">
         <v>52</v>
@@ -4266,91 +4210,79 @@
         <f>Netzplan!I2</f>
         <v>1</v>
       </c>
-      <c r="J2" s="31">
+      <c r="J2" s="30">
         <f>Netzplan!J2</f>
         <v>2</v>
       </c>
-      <c r="K2" s="32">
+      <c r="K2" s="31">
         <f t="shared" ref="K2:K8" si="0">SUM(L2:BM2)</f>
-        <v>5</v>
-      </c>
-      <c r="L2" s="33">
-        <v>1</v>
-      </c>
-      <c r="M2" s="33">
-        <v>1</v>
-      </c>
-      <c r="N2" s="33">
-        <v>1</v>
-      </c>
-      <c r="O2" s="33">
-        <v>1</v>
-      </c>
-      <c r="P2" s="33">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10"/>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="10"/>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="10"/>
-      <c r="AW2" s="10"/>
-      <c r="AX2" s="10"/>
-      <c r="AY2" s="34"/>
-      <c r="AZ2" s="10"/>
-      <c r="BA2" s="10"/>
-      <c r="BB2" s="10"/>
-      <c r="BC2" s="10"/>
-      <c r="BD2" s="10"/>
-      <c r="BE2" s="10"/>
-      <c r="BF2" s="34"/>
-      <c r="BG2" s="10"/>
-      <c r="BH2" s="10"/>
-      <c r="BI2" s="10"/>
-      <c r="BJ2" s="10"/>
-      <c r="BK2" s="10"/>
-      <c r="BL2" s="34"/>
-      <c r="BM2" s="10"/>
-      <c r="BN2" t="s">
-        <v>60</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
+      <c r="AM2" s="97"/>
+      <c r="AN2" s="97"/>
+      <c r="AO2" s="97"/>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="97"/>
+      <c r="AT2" s="97"/>
+      <c r="AU2" s="97"/>
+      <c r="AV2" s="97"/>
+      <c r="AW2" s="97"/>
+      <c r="AX2" s="97"/>
+      <c r="AY2" s="98"/>
+      <c r="AZ2" s="97"/>
+      <c r="BA2" s="97"/>
+      <c r="BB2" s="97"/>
+      <c r="BC2" s="97"/>
+      <c r="BD2" s="97"/>
+      <c r="BE2" s="97"/>
+      <c r="BF2" s="98"/>
+      <c r="BG2" s="97"/>
+      <c r="BH2" s="97"/>
+      <c r="BI2" s="97"/>
+      <c r="BJ2" s="97"/>
+      <c r="BK2" s="97"/>
+      <c r="BL2" s="98"/>
+      <c r="BM2" s="97"/>
+      <c r="BN2" s="99"/>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="20" t="s">
         <v>16</v>
       </c>
@@ -4369,83 +4301,79 @@
         <f>Netzplan!I3</f>
         <v>1</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="30">
         <f>Netzplan!J3</f>
         <v>1</v>
       </c>
-      <c r="K3" s="32">
+      <c r="K3" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="33">
-        <v>1</v>
-      </c>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="10"/>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10"/>
-      <c r="AU3" s="10"/>
-      <c r="AV3" s="10"/>
-      <c r="AW3" s="10"/>
-      <c r="AX3" s="10"/>
-      <c r="AY3" s="34"/>
-      <c r="AZ3" s="10"/>
-      <c r="BA3" s="10"/>
-      <c r="BB3" s="10"/>
-      <c r="BC3" s="10"/>
-      <c r="BD3" s="10"/>
-      <c r="BE3" s="10"/>
-      <c r="BF3" s="34"/>
-      <c r="BG3" s="10"/>
-      <c r="BH3" s="10"/>
-      <c r="BI3" s="10"/>
-      <c r="BJ3" s="10"/>
-      <c r="BK3" s="10"/>
-      <c r="BL3" s="34"/>
-      <c r="BM3" s="10"/>
-      <c r="BN3" t="s">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="97"/>
+      <c r="AO3" s="97"/>
+      <c r="AP3" s="97"/>
+      <c r="AQ3" s="97"/>
+      <c r="AR3" s="97"/>
+      <c r="AS3" s="97"/>
+      <c r="AT3" s="97"/>
+      <c r="AU3" s="97"/>
+      <c r="AV3" s="97"/>
+      <c r="AW3" s="97"/>
+      <c r="AX3" s="97"/>
+      <c r="AY3" s="98"/>
+      <c r="AZ3" s="97"/>
+      <c r="BA3" s="97"/>
+      <c r="BB3" s="97"/>
+      <c r="BC3" s="97"/>
+      <c r="BD3" s="97"/>
+      <c r="BE3" s="97"/>
+      <c r="BF3" s="98"/>
+      <c r="BG3" s="97"/>
+      <c r="BH3" s="97"/>
+      <c r="BI3" s="97"/>
+      <c r="BJ3" s="97"/>
+      <c r="BK3" s="97"/>
+      <c r="BL3" s="98"/>
+      <c r="BM3" s="97"/>
+      <c r="BN3" s="99"/>
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="20" t="s">
         <v>15</v>
       </c>
@@ -4464,89 +4392,79 @@
         <f>Netzplan!I4</f>
         <v>1</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="30">
         <f>Netzplan!J4</f>
         <v>4</v>
       </c>
-      <c r="K4" s="32">
+      <c r="K4" s="31">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="33">
-        <v>1</v>
-      </c>
-      <c r="U4" s="33">
-        <v>1</v>
-      </c>
-      <c r="V4" s="33">
-        <v>1</v>
-      </c>
-      <c r="W4" s="33">
-        <v>1</v>
-      </c>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="10"/>
-      <c r="AO4" s="10"/>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10"/>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="10"/>
-      <c r="AU4" s="10"/>
-      <c r="AV4" s="10"/>
-      <c r="AW4" s="10"/>
-      <c r="AX4" s="10"/>
-      <c r="AY4" s="34"/>
-      <c r="AZ4" s="10"/>
-      <c r="BA4" s="10"/>
-      <c r="BB4" s="10"/>
-      <c r="BC4" s="10"/>
-      <c r="BD4" s="10"/>
-      <c r="BE4" s="10"/>
-      <c r="BF4" s="34"/>
-      <c r="BG4" s="10"/>
-      <c r="BH4" s="10"/>
-      <c r="BI4" s="10"/>
-      <c r="BJ4" s="10"/>
-      <c r="BK4" s="10"/>
-      <c r="BL4" s="34"/>
-      <c r="BM4" s="10"/>
-      <c r="BN4" t="s">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="96"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="97"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="97"/>
+      <c r="AH4" s="97"/>
+      <c r="AI4" s="97"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="97"/>
+      <c r="AL4" s="97"/>
+      <c r="AM4" s="97"/>
+      <c r="AN4" s="97"/>
+      <c r="AO4" s="97"/>
+      <c r="AP4" s="97"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="97"/>
+      <c r="AS4" s="97"/>
+      <c r="AT4" s="97"/>
+      <c r="AU4" s="97"/>
+      <c r="AV4" s="97"/>
+      <c r="AW4" s="97"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="98"/>
+      <c r="AZ4" s="97"/>
+      <c r="BA4" s="97"/>
+      <c r="BB4" s="97"/>
+      <c r="BC4" s="97"/>
+      <c r="BD4" s="97"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="98"/>
+      <c r="BG4" s="97"/>
+      <c r="BH4" s="97"/>
+      <c r="BI4" s="97"/>
+      <c r="BJ4" s="97"/>
+      <c r="BK4" s="97"/>
+      <c r="BL4" s="98"/>
+      <c r="BM4" s="97"/>
+      <c r="BN4" s="99"/>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="20" t="s">
         <v>15</v>
       </c>
@@ -4557,95 +4475,87 @@
         <f>Netzplan!G5</f>
         <v>3</v>
       </c>
-      <c r="H5" s="21" t="str">
+      <c r="H5" s="21">
         <f>Netzplan!H5</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="22">
         <f>Netzplan!I5</f>
-        <v>1</v>
-      </c>
-      <c r="J5" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="J5" s="30">
         <f>Netzplan!J5</f>
         <v>3</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="31">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="33">
-        <v>1</v>
-      </c>
-      <c r="U5" s="33">
-        <v>1</v>
-      </c>
-      <c r="V5" s="33">
-        <v>1</v>
-      </c>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="10"/>
-      <c r="AP5" s="10"/>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="10"/>
-      <c r="AS5" s="10"/>
-      <c r="AT5" s="10"/>
-      <c r="AU5" s="10"/>
-      <c r="AV5" s="10"/>
-      <c r="AW5" s="10"/>
-      <c r="AX5" s="10"/>
-      <c r="AY5" s="34"/>
-      <c r="AZ5" s="10"/>
-      <c r="BA5" s="10"/>
-      <c r="BB5" s="10"/>
-      <c r="BC5" s="10"/>
-      <c r="BD5" s="10"/>
-      <c r="BE5" s="10"/>
-      <c r="BF5" s="34"/>
-      <c r="BG5" s="10"/>
-      <c r="BH5" s="10"/>
-      <c r="BI5" s="10"/>
-      <c r="BJ5" s="10"/>
-      <c r="BK5" s="10"/>
-      <c r="BL5" s="34"/>
-      <c r="BM5" s="10"/>
-      <c r="BN5" t="s">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="97"/>
+      <c r="AA5" s="97"/>
+      <c r="AB5" s="97"/>
+      <c r="AC5" s="97"/>
+      <c r="AD5" s="97"/>
+      <c r="AE5" s="97"/>
+      <c r="AF5" s="97"/>
+      <c r="AG5" s="97"/>
+      <c r="AH5" s="97"/>
+      <c r="AI5" s="97"/>
+      <c r="AJ5" s="97"/>
+      <c r="AK5" s="97"/>
+      <c r="AL5" s="97"/>
+      <c r="AM5" s="97"/>
+      <c r="AN5" s="97"/>
+      <c r="AO5" s="97"/>
+      <c r="AP5" s="97"/>
+      <c r="AQ5" s="97"/>
+      <c r="AR5" s="97"/>
+      <c r="AS5" s="97"/>
+      <c r="AT5" s="97"/>
+      <c r="AU5" s="97"/>
+      <c r="AV5" s="97"/>
+      <c r="AW5" s="97"/>
+      <c r="AX5" s="97"/>
+      <c r="AY5" s="98"/>
+      <c r="AZ5" s="97"/>
+      <c r="BA5" s="97"/>
+      <c r="BB5" s="97"/>
+      <c r="BC5" s="97"/>
+      <c r="BD5" s="97"/>
+      <c r="BE5" s="97"/>
+      <c r="BF5" s="98"/>
+      <c r="BG5" s="97"/>
+      <c r="BH5" s="97"/>
+      <c r="BI5" s="97"/>
+      <c r="BJ5" s="97"/>
+      <c r="BK5" s="97"/>
+      <c r="BL5" s="98"/>
+      <c r="BM5" s="97"/>
+      <c r="BN5" s="99"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="23" t="s">
         <v>27</v>
       </c>
@@ -4658,97 +4568,85 @@
       </c>
       <c r="H6" s="21">
         <f>Netzplan!H6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="22">
         <f>Netzplan!I6</f>
-        <v>0.75</v>
-      </c>
-      <c r="J6" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="J6" s="30">
         <f>Netzplan!J6</f>
         <v>5</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="31">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="33">
-        <v>1</v>
-      </c>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="33">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="33">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="33">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="33">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10"/>
-      <c r="AS6" s="10"/>
-      <c r="AT6" s="10"/>
-      <c r="AU6" s="10"/>
-      <c r="AV6" s="10"/>
-      <c r="AW6" s="10"/>
-      <c r="AX6" s="10"/>
-      <c r="AY6" s="34"/>
-      <c r="AZ6" s="10"/>
-      <c r="BA6" s="10"/>
-      <c r="BB6" s="10"/>
-      <c r="BC6" s="10"/>
-      <c r="BD6" s="10"/>
-      <c r="BE6" s="10"/>
-      <c r="BF6" s="34"/>
-      <c r="BG6" s="10"/>
-      <c r="BH6" s="10"/>
-      <c r="BI6" s="10"/>
-      <c r="BJ6" s="10"/>
-      <c r="BK6" s="10"/>
-      <c r="BL6" s="34"/>
-      <c r="BM6" s="10"/>
-      <c r="BN6" t="s">
-        <v>62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="97"/>
+      <c r="V6" s="97"/>
+      <c r="W6" s="96"/>
+      <c r="X6" s="97"/>
+      <c r="Y6" s="97"/>
+      <c r="Z6" s="96"/>
+      <c r="AA6" s="96"/>
+      <c r="AB6" s="96"/>
+      <c r="AC6" s="96"/>
+      <c r="AD6" s="97"/>
+      <c r="AE6" s="97"/>
+      <c r="AF6" s="97"/>
+      <c r="AG6" s="97"/>
+      <c r="AH6" s="97"/>
+      <c r="AI6" s="97"/>
+      <c r="AJ6" s="97"/>
+      <c r="AK6" s="97"/>
+      <c r="AL6" s="97"/>
+      <c r="AM6" s="97"/>
+      <c r="AN6" s="97"/>
+      <c r="AO6" s="97"/>
+      <c r="AP6" s="97"/>
+      <c r="AQ6" s="97"/>
+      <c r="AR6" s="97"/>
+      <c r="AS6" s="97"/>
+      <c r="AT6" s="97"/>
+      <c r="AU6" s="97"/>
+      <c r="AV6" s="97"/>
+      <c r="AW6" s="97"/>
+      <c r="AX6" s="97"/>
+      <c r="AY6" s="98"/>
+      <c r="AZ6" s="97"/>
+      <c r="BA6" s="97"/>
+      <c r="BB6" s="97"/>
+      <c r="BC6" s="97"/>
+      <c r="BD6" s="97"/>
+      <c r="BE6" s="97"/>
+      <c r="BF6" s="98"/>
+      <c r="BG6" s="97"/>
+      <c r="BH6" s="97"/>
+      <c r="BI6" s="97"/>
+      <c r="BJ6" s="97"/>
+      <c r="BK6" s="97"/>
+      <c r="BL6" s="98"/>
+      <c r="BM6" s="97"/>
+      <c r="BN6" s="99"/>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="20" t="s">
         <v>16</v>
       </c>
@@ -4759,91 +4657,87 @@
         <f>Netzplan!G7</f>
         <v>1</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="21" t="str">
         <f>Netzplan!H7</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="22">
         <f>Netzplan!I7</f>
-        <v>0.75</v>
-      </c>
-      <c r="J7" s="31">
+        <v>1</v>
+      </c>
+      <c r="J7" s="30">
         <f>Netzplan!J7</f>
         <v>1</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="10">
-        <v>1</v>
-      </c>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="10"/>
-      <c r="AP7" s="10"/>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="10"/>
-      <c r="AS7" s="10"/>
-      <c r="AT7" s="10"/>
-      <c r="AU7" s="10"/>
-      <c r="AV7" s="10"/>
-      <c r="AW7" s="10"/>
-      <c r="AX7" s="10"/>
-      <c r="AY7" s="34"/>
-      <c r="AZ7" s="10"/>
-      <c r="BA7" s="10"/>
-      <c r="BB7" s="36"/>
-      <c r="BC7" s="36"/>
-      <c r="BD7" s="36"/>
-      <c r="BE7" s="36"/>
-      <c r="BF7" s="34"/>
-      <c r="BG7" s="10"/>
-      <c r="BH7" s="10"/>
-      <c r="BI7" s="10"/>
-      <c r="BJ7" s="10"/>
-      <c r="BK7" s="10"/>
-      <c r="BL7" s="34"/>
-      <c r="BM7" s="10"/>
-      <c r="BN7" t="s">
-        <v>60</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="96"/>
+      <c r="T7" s="97"/>
+      <c r="U7" s="97"/>
+      <c r="V7" s="97"/>
+      <c r="W7" s="97"/>
+      <c r="X7" s="97"/>
+      <c r="Y7" s="97"/>
+      <c r="Z7" s="97"/>
+      <c r="AA7" s="97"/>
+      <c r="AB7" s="97"/>
+      <c r="AC7" s="97"/>
+      <c r="AD7" s="97"/>
+      <c r="AE7" s="97"/>
+      <c r="AF7" s="97"/>
+      <c r="AG7" s="97"/>
+      <c r="AH7" s="97"/>
+      <c r="AI7" s="97"/>
+      <c r="AJ7" s="97"/>
+      <c r="AK7" s="97"/>
+      <c r="AL7" s="97"/>
+      <c r="AM7" s="97"/>
+      <c r="AN7" s="97"/>
+      <c r="AO7" s="97"/>
+      <c r="AP7" s="97"/>
+      <c r="AQ7" s="97"/>
+      <c r="AR7" s="97"/>
+      <c r="AS7" s="97"/>
+      <c r="AT7" s="97"/>
+      <c r="AU7" s="97"/>
+      <c r="AV7" s="97"/>
+      <c r="AW7" s="97"/>
+      <c r="AX7" s="97"/>
+      <c r="AY7" s="98"/>
+      <c r="AZ7" s="97"/>
+      <c r="BA7" s="97"/>
+      <c r="BB7" s="97"/>
+      <c r="BC7" s="97"/>
+      <c r="BD7" s="97"/>
+      <c r="BE7" s="97"/>
+      <c r="BF7" s="98"/>
+      <c r="BG7" s="97"/>
+      <c r="BH7" s="97"/>
+      <c r="BI7" s="97"/>
+      <c r="BJ7" s="97"/>
+      <c r="BK7" s="97"/>
+      <c r="BL7" s="98"/>
+      <c r="BM7" s="97"/>
+      <c r="BN7" s="99"/>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="23" t="s">
         <v>22</v>
       </c>
@@ -4854,1239 +4748,927 @@
         <f>Netzplan!G8</f>
         <v>3</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="21" t="str">
         <f>Netzplan!H8</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="22">
         <f>Netzplan!I8</f>
-        <v>0.75</v>
-      </c>
-      <c r="J8" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="J8" s="30">
         <f>Netzplan!J8</f>
+        <v>4</v>
+      </c>
+      <c r="K8" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="97"/>
+      <c r="S8" s="97"/>
+      <c r="T8" s="96"/>
+      <c r="U8" s="96"/>
+      <c r="V8" s="96"/>
+      <c r="W8" s="97"/>
+      <c r="X8" s="97"/>
+      <c r="Y8" s="97"/>
+      <c r="Z8" s="97"/>
+      <c r="AA8" s="97"/>
+      <c r="AB8" s="97"/>
+      <c r="AC8" s="97"/>
+      <c r="AD8" s="97"/>
+      <c r="AE8" s="97"/>
+      <c r="AF8" s="97"/>
+      <c r="AG8" s="97"/>
+      <c r="AH8" s="97"/>
+      <c r="AI8" s="97"/>
+      <c r="AJ8" s="97"/>
+      <c r="AK8" s="97"/>
+      <c r="AL8" s="97"/>
+      <c r="AM8" s="97"/>
+      <c r="AN8" s="97"/>
+      <c r="AO8" s="97"/>
+      <c r="AP8" s="97"/>
+      <c r="AQ8" s="97"/>
+      <c r="AR8" s="97"/>
+      <c r="AS8" s="97"/>
+      <c r="AT8" s="97"/>
+      <c r="AU8" s="97"/>
+      <c r="AV8" s="97"/>
+      <c r="AW8" s="97"/>
+      <c r="AX8" s="97"/>
+      <c r="AY8" s="98"/>
+      <c r="AZ8" s="97"/>
+      <c r="BA8" s="97"/>
+      <c r="BB8" s="97"/>
+      <c r="BC8" s="97"/>
+      <c r="BD8" s="97"/>
+      <c r="BE8" s="97"/>
+      <c r="BF8" s="98"/>
+      <c r="BG8" s="97"/>
+      <c r="BH8" s="97"/>
+      <c r="BI8" s="97"/>
+      <c r="BJ8" s="97"/>
+      <c r="BK8" s="97"/>
+      <c r="BL8" s="98"/>
+      <c r="BM8" s="97"/>
+      <c r="BN8" s="99"/>
+    </row>
+    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="21">
+        <f>Netzplan!G9</f>
         <v>2</v>
       </c>
-      <c r="K8" s="32">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33">
+      <c r="H9" s="21" t="str">
+        <f>Netzplan!H9</f>
         <v>1</v>
       </c>
-      <c r="V8" s="33">
+      <c r="I9" s="22">
+        <f>Netzplan!I9</f>
+        <v>1.5</v>
+      </c>
+      <c r="J9" s="30">
+        <f>Netzplan!J9</f>
         <v>1</v>
       </c>
-      <c r="W8" s="10">
-        <v>1</v>
-      </c>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="10"/>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="10"/>
-      <c r="AP8" s="10"/>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="10"/>
-      <c r="AS8" s="10"/>
-      <c r="AT8" s="10"/>
-      <c r="AU8" s="10"/>
-      <c r="AV8" s="10"/>
-      <c r="AW8" s="10"/>
-      <c r="AX8" s="10"/>
-      <c r="AY8" s="34"/>
-      <c r="AZ8" s="10"/>
-      <c r="BA8" s="10"/>
-      <c r="BB8" s="10"/>
-      <c r="BC8" s="10"/>
-      <c r="BD8" s="10"/>
-      <c r="BE8" s="10"/>
-      <c r="BF8" s="34"/>
-      <c r="BG8" s="10"/>
-      <c r="BH8" s="10"/>
-      <c r="BI8" s="10"/>
-      <c r="BJ8" s="10"/>
-      <c r="BK8" s="10"/>
-      <c r="BL8" s="34"/>
-      <c r="BM8" s="10"/>
-      <c r="BN8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="10"/>
-      <c r="AO9" s="10"/>
-      <c r="AP9" s="10"/>
-      <c r="AQ9" s="10"/>
-      <c r="AR9" s="10"/>
-      <c r="AS9" s="10"/>
-      <c r="AT9" s="10"/>
-      <c r="AU9" s="10"/>
-      <c r="AV9" s="10"/>
-      <c r="AW9" s="10"/>
-      <c r="AX9" s="10"/>
-      <c r="AY9" s="34"/>
-      <c r="AZ9" s="10"/>
-      <c r="BA9" s="10"/>
-      <c r="BB9" s="10"/>
-      <c r="BC9" s="10"/>
-      <c r="BD9" s="10"/>
-      <c r="BE9" s="10"/>
-      <c r="BF9" s="34"/>
-      <c r="BG9" s="10"/>
-      <c r="BH9" s="10"/>
-      <c r="BI9" s="10"/>
-      <c r="BJ9" s="10"/>
-      <c r="BK9" s="10"/>
-      <c r="BL9" s="34"/>
-      <c r="BM9" s="10"/>
-      <c r="BN9" t="s">
-        <v>64</v>
-      </c>
+      <c r="K9" s="31">
+        <f>SUM(L9:BM9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="97"/>
+      <c r="U9" s="97"/>
+      <c r="V9" s="97"/>
+      <c r="W9" s="97"/>
+      <c r="X9" s="97"/>
+      <c r="Y9" s="97"/>
+      <c r="Z9" s="97"/>
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="97"/>
+      <c r="AD9" s="96"/>
+      <c r="AE9" s="97"/>
+      <c r="AF9" s="97"/>
+      <c r="AG9" s="96"/>
+      <c r="AH9" s="97"/>
+      <c r="AI9" s="97"/>
+      <c r="AJ9" s="97"/>
+      <c r="AK9" s="97"/>
+      <c r="AL9" s="97"/>
+      <c r="AM9" s="97"/>
+      <c r="AN9" s="97"/>
+      <c r="AO9" s="97"/>
+      <c r="AP9" s="97"/>
+      <c r="AQ9" s="97"/>
+      <c r="AR9" s="97"/>
+      <c r="AS9" s="97"/>
+      <c r="AT9" s="97"/>
+      <c r="AU9" s="97"/>
+      <c r="AV9" s="97"/>
+      <c r="AW9" s="97"/>
+      <c r="AX9" s="97"/>
+      <c r="AY9" s="98"/>
+      <c r="AZ9" s="97"/>
+      <c r="BA9" s="97"/>
+      <c r="BB9" s="97"/>
+      <c r="BC9" s="97"/>
+      <c r="BD9" s="97"/>
+      <c r="BE9" s="97"/>
+      <c r="BF9" s="98"/>
+      <c r="BG9" s="97"/>
+      <c r="BH9" s="97"/>
+      <c r="BI9" s="97"/>
+      <c r="BJ9" s="97"/>
+      <c r="BK9" s="97"/>
+      <c r="BL9" s="98"/>
+      <c r="BM9" s="97"/>
+      <c r="BN9" s="99"/>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="95" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="23" t="s">
-        <v>56</v>
-      </c>
       <c r="F10" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G10" s="21">
-        <f>Netzplan!G9</f>
+        <f>Netzplan!G10</f>
         <v>2</v>
       </c>
-      <c r="H10" s="21">
-        <f>Netzplan!H9</f>
-        <v>2</v>
+      <c r="H10" s="21" t="str">
+        <f>Netzplan!H10</f>
+        <v>1</v>
       </c>
       <c r="I10" s="22">
-        <f>Netzplan!I9</f>
-        <v>0.75</v>
-      </c>
-      <c r="J10" s="31">
-        <f>Netzplan!J9</f>
+        <f>Netzplan!I10</f>
+        <v>1.5</v>
+      </c>
+      <c r="J10" s="30">
+        <f>Netzplan!J10</f>
         <v>1</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="31">
         <f>SUM(L10:BM10)</f>
-        <v>2</v>
-      </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="33">
-        <v>1</v>
-      </c>
-      <c r="AH10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="10"/>
-      <c r="AN10" s="10"/>
-      <c r="AO10" s="10"/>
-      <c r="AP10" s="10"/>
-      <c r="AQ10" s="10"/>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="10"/>
-      <c r="AT10" s="10"/>
-      <c r="AU10" s="10"/>
-      <c r="AV10" s="10"/>
-      <c r="AW10" s="10"/>
-      <c r="AX10" s="10"/>
-      <c r="AY10" s="34"/>
-      <c r="AZ10" s="10"/>
-      <c r="BA10" s="10"/>
-      <c r="BB10" s="10"/>
-      <c r="BC10" s="10"/>
-      <c r="BD10" s="10"/>
-      <c r="BE10" s="10"/>
-      <c r="BF10" s="34"/>
-      <c r="BG10" s="10"/>
-      <c r="BH10" s="10"/>
-      <c r="BI10" s="10"/>
-      <c r="BJ10" s="10"/>
-      <c r="BK10" s="10"/>
-      <c r="BL10" s="34"/>
-      <c r="BM10" s="10"/>
-      <c r="BN10" t="s">
-        <v>64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="97"/>
+      <c r="S10" s="97"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="97"/>
+      <c r="V10" s="97"/>
+      <c r="W10" s="97"/>
+      <c r="X10" s="97"/>
+      <c r="Y10" s="97"/>
+      <c r="Z10" s="97"/>
+      <c r="AA10" s="97"/>
+      <c r="AB10" s="97"/>
+      <c r="AC10" s="97"/>
+      <c r="AD10" s="97"/>
+      <c r="AE10" s="97"/>
+      <c r="AF10" s="97"/>
+      <c r="AG10" s="97"/>
+      <c r="AH10" s="96"/>
+      <c r="AI10" s="96"/>
+      <c r="AJ10" s="97"/>
+      <c r="AK10" s="97"/>
+      <c r="AL10" s="97"/>
+      <c r="AM10" s="97"/>
+      <c r="AN10" s="97"/>
+      <c r="AO10" s="97"/>
+      <c r="AP10" s="97"/>
+      <c r="AQ10" s="97"/>
+      <c r="AR10" s="97"/>
+      <c r="AS10" s="97"/>
+      <c r="AT10" s="97"/>
+      <c r="AU10" s="97"/>
+      <c r="AV10" s="97"/>
+      <c r="AW10" s="97"/>
+      <c r="AX10" s="97"/>
+      <c r="AY10" s="98"/>
+      <c r="AZ10" s="97"/>
+      <c r="BA10" s="97"/>
+      <c r="BB10" s="97"/>
+      <c r="BC10" s="97"/>
+      <c r="BD10" s="97"/>
+      <c r="BE10" s="97"/>
+      <c r="BF10" s="98"/>
+      <c r="BG10" s="97"/>
+      <c r="BH10" s="97"/>
+      <c r="BI10" s="97"/>
+      <c r="BJ10" s="97"/>
+      <c r="BK10" s="97"/>
+      <c r="BL10" s="98"/>
+      <c r="BM10" s="97"/>
+      <c r="BN10" s="99"/>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="23" t="s">
-        <v>33</v>
-      </c>
       <c r="F11" s="23" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G11" s="21">
-        <f>Netzplan!G10</f>
+        <f>Netzplan!G11</f>
         <v>2</v>
       </c>
-      <c r="H11" s="21">
-        <f>Netzplan!H10</f>
-        <v>2</v>
+      <c r="H11" s="21" t="str">
+        <f>Netzplan!H11</f>
+        <v>1</v>
       </c>
       <c r="I11" s="22">
-        <f>Netzplan!I10</f>
-        <v>0.75</v>
-      </c>
-      <c r="J11" s="31">
-        <f>Netzplan!J10</f>
+        <f>Netzplan!I11</f>
+        <v>1.5</v>
+      </c>
+      <c r="J11" s="30">
+        <f>Netzplan!J11</f>
         <v>1</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="31">
         <f>SUM(L11:BM11)</f>
-        <v>2</v>
-      </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="33"/>
-      <c r="AI11" s="33">
-        <v>1</v>
-      </c>
-      <c r="AJ11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
-      <c r="AM11" s="10"/>
-      <c r="AN11" s="10"/>
-      <c r="AO11" s="10"/>
-      <c r="AP11" s="10"/>
-      <c r="AQ11" s="10"/>
-      <c r="AR11" s="10"/>
-      <c r="AS11" s="10"/>
-      <c r="AT11" s="10"/>
-      <c r="AU11" s="10"/>
-      <c r="AV11" s="10"/>
-      <c r="AW11" s="10"/>
-      <c r="AX11" s="10"/>
-      <c r="AY11" s="34"/>
-      <c r="AZ11" s="10"/>
-      <c r="BA11" s="10"/>
-      <c r="BB11" s="10"/>
-      <c r="BC11" s="10"/>
-      <c r="BD11" s="10"/>
-      <c r="BE11" s="10"/>
-      <c r="BF11" s="34"/>
-      <c r="BG11" s="10"/>
-      <c r="BH11" s="10"/>
-      <c r="BI11" s="10"/>
-      <c r="BJ11" s="10"/>
-      <c r="BK11" s="10"/>
-      <c r="BL11" s="34"/>
-      <c r="BM11" s="10"/>
-      <c r="BN11" t="s">
-        <v>60</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="97"/>
+      <c r="S11" s="97"/>
+      <c r="T11" s="97"/>
+      <c r="U11" s="97"/>
+      <c r="V11" s="97"/>
+      <c r="W11" s="97"/>
+      <c r="X11" s="97"/>
+      <c r="Y11" s="97"/>
+      <c r="Z11" s="97"/>
+      <c r="AA11" s="97"/>
+      <c r="AB11" s="97"/>
+      <c r="AC11" s="97"/>
+      <c r="AD11" s="97"/>
+      <c r="AE11" s="97"/>
+      <c r="AF11" s="97"/>
+      <c r="AG11" s="97"/>
+      <c r="AH11" s="97"/>
+      <c r="AI11" s="99"/>
+      <c r="AJ11" s="96"/>
+      <c r="AK11" s="96"/>
+      <c r="AL11" s="97"/>
+      <c r="AM11" s="97"/>
+      <c r="AN11" s="97"/>
+      <c r="AO11" s="97"/>
+      <c r="AP11" s="97"/>
+      <c r="AQ11" s="97"/>
+      <c r="AR11" s="97"/>
+      <c r="AS11" s="97"/>
+      <c r="AT11" s="97"/>
+      <c r="AU11" s="97"/>
+      <c r="AV11" s="97"/>
+      <c r="AW11" s="97"/>
+      <c r="AX11" s="97"/>
+      <c r="AY11" s="98"/>
+      <c r="AZ11" s="97"/>
+      <c r="BA11" s="97"/>
+      <c r="BB11" s="97"/>
+      <c r="BC11" s="97"/>
+      <c r="BD11" s="97"/>
+      <c r="BE11" s="97"/>
+      <c r="BF11" s="98"/>
+      <c r="BG11" s="97"/>
+      <c r="BH11" s="97"/>
+      <c r="BI11" s="97"/>
+      <c r="BJ11" s="97"/>
+      <c r="BK11" s="97"/>
+      <c r="BL11" s="98"/>
+      <c r="BM11" s="97"/>
+      <c r="BN11" s="99"/>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="95" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
+        <v>17</v>
+      </c>
+      <c r="B12" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
       <c r="E12" s="23" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="G12" s="21">
-        <f>Netzplan!G11</f>
-        <v>2</v>
+        <f>Netzplan!G12</f>
+        <v>10</v>
       </c>
       <c r="H12" s="21">
-        <f>Netzplan!H11</f>
-        <v>2</v>
+        <f>Netzplan!H12</f>
+        <v>1</v>
       </c>
       <c r="I12" s="22">
-        <f>Netzplan!I11</f>
-        <v>0.75</v>
-      </c>
-      <c r="J12" s="31">
-        <f>Netzplan!J11</f>
-        <v>1</v>
-      </c>
-      <c r="K12" s="32">
+        <f>Netzplan!I12</f>
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="30">
+        <f>Netzplan!J12</f>
+        <v>20</v>
+      </c>
+      <c r="K12" s="31">
         <f>SUM(L12:BM12)</f>
-        <v>2</v>
-      </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="33">
-        <v>1</v>
-      </c>
-      <c r="AL12" s="10"/>
-      <c r="AM12" s="10"/>
-      <c r="AN12" s="10">
-        <v>1</v>
-      </c>
-      <c r="AO12" s="10"/>
-      <c r="AP12" s="10"/>
-      <c r="AQ12" s="10"/>
-      <c r="AR12" s="10"/>
-      <c r="AS12" s="10"/>
-      <c r="AT12" s="10"/>
-      <c r="AU12" s="10"/>
-      <c r="AV12" s="10"/>
-      <c r="AW12" s="10"/>
-      <c r="AX12" s="10"/>
-      <c r="AY12" s="34"/>
-      <c r="AZ12" s="10"/>
-      <c r="BA12" s="10"/>
-      <c r="BB12" s="10"/>
-      <c r="BC12" s="10"/>
-      <c r="BD12" s="10"/>
-      <c r="BE12" s="10"/>
-      <c r="BF12" s="34"/>
-      <c r="BG12" s="10"/>
-      <c r="BH12" s="10"/>
-      <c r="BI12" s="10"/>
-      <c r="BJ12" s="10"/>
-      <c r="BK12" s="10"/>
-      <c r="BL12" s="34"/>
-      <c r="BM12" s="10"/>
-      <c r="BN12" t="s">
-        <v>60</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="97"/>
+      <c r="T12" s="97"/>
+      <c r="U12" s="97"/>
+      <c r="V12" s="97"/>
+      <c r="W12" s="96"/>
+      <c r="X12" s="97"/>
+      <c r="Y12" s="97"/>
+      <c r="Z12" s="96"/>
+      <c r="AA12" s="96"/>
+      <c r="AB12" s="96"/>
+      <c r="AC12" s="96"/>
+      <c r="AD12" s="96"/>
+      <c r="AE12" s="97"/>
+      <c r="AF12" s="97"/>
+      <c r="AG12" s="96"/>
+      <c r="AH12" s="96"/>
+      <c r="AI12" s="96"/>
+      <c r="AJ12" s="96"/>
+      <c r="AK12" s="96"/>
+      <c r="AL12" s="97"/>
+      <c r="AM12" s="97"/>
+      <c r="AN12" s="96"/>
+      <c r="AO12" s="96"/>
+      <c r="AP12" s="96"/>
+      <c r="AQ12" s="96"/>
+      <c r="AR12" s="96"/>
+      <c r="AS12" s="97"/>
+      <c r="AT12" s="97"/>
+      <c r="AU12" s="96"/>
+      <c r="AV12" s="96"/>
+      <c r="AW12" s="96"/>
+      <c r="AX12" s="96"/>
+      <c r="AY12" s="98"/>
+      <c r="AZ12" s="97"/>
+      <c r="BA12" s="97"/>
+      <c r="BB12" s="97"/>
+      <c r="BC12" s="97"/>
+      <c r="BD12" s="97"/>
+      <c r="BE12" s="97"/>
+      <c r="BF12" s="98"/>
+      <c r="BG12" s="97"/>
+      <c r="BH12" s="97"/>
+      <c r="BI12" s="99"/>
+      <c r="BJ12" s="97"/>
+      <c r="BK12" s="97"/>
+      <c r="BL12" s="98"/>
+      <c r="BM12" s="97"/>
+      <c r="BN12" s="99"/>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
+        <v>23</v>
+      </c>
+      <c r="B13" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
       <c r="E13" s="23" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G13" s="21">
-        <f>Netzplan!G12</f>
-        <v>10</v>
-      </c>
-      <c r="H13" s="21">
-        <f>Netzplan!H12</f>
+        <f>Netzplan!G13</f>
+        <v>3</v>
+      </c>
+      <c r="H13" s="21" t="str">
+        <f>Netzplan!H13</f>
         <v>1</v>
       </c>
       <c r="I13" s="22">
-        <f>Netzplan!I12</f>
-        <v>0.5</v>
-      </c>
-      <c r="J13" s="31">
-        <f>Netzplan!J12</f>
-        <v>20</v>
-      </c>
-      <c r="K13" s="32">
+        <f>Netzplan!I13</f>
+        <v>1.5</v>
+      </c>
+      <c r="J13" s="30">
+        <f>Netzplan!J13</f>
+        <v>2</v>
+      </c>
+      <c r="K13" s="31">
         <f>SUM(L13:BM13)</f>
-        <v>20</v>
-      </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="33">
+        <v>0</v>
+      </c>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="97"/>
+      <c r="W13" s="97"/>
+      <c r="X13" s="97"/>
+      <c r="Y13" s="97"/>
+      <c r="Z13" s="97"/>
+      <c r="AA13" s="97"/>
+      <c r="AB13" s="97"/>
+      <c r="AC13" s="97"/>
+      <c r="AD13" s="97"/>
+      <c r="AE13" s="97"/>
+      <c r="AF13" s="97"/>
+      <c r="AG13" s="97"/>
+      <c r="AH13" s="97"/>
+      <c r="AI13" s="97"/>
+      <c r="AJ13" s="97"/>
+      <c r="AK13" s="99"/>
+      <c r="AL13" s="97"/>
+      <c r="AM13" s="97"/>
+      <c r="AN13" s="96"/>
+      <c r="AO13" s="96"/>
+      <c r="AP13" s="96"/>
+      <c r="AQ13" s="97"/>
+      <c r="AR13" s="97"/>
+      <c r="AS13" s="97"/>
+      <c r="AT13" s="97"/>
+      <c r="AU13" s="97"/>
+      <c r="AV13" s="97"/>
+      <c r="AW13" s="97"/>
+      <c r="AX13" s="97"/>
+      <c r="AY13" s="98"/>
+      <c r="AZ13" s="97"/>
+      <c r="BA13" s="97"/>
+      <c r="BB13" s="97"/>
+      <c r="BC13" s="97"/>
+      <c r="BD13" s="97"/>
+      <c r="BE13" s="97"/>
+      <c r="BF13" s="98"/>
+      <c r="BG13" s="97"/>
+      <c r="BH13" s="97"/>
+      <c r="BI13" s="97"/>
+      <c r="BJ13" s="97"/>
+      <c r="BK13" s="97"/>
+      <c r="BL13" s="98"/>
+      <c r="BM13" s="97"/>
+      <c r="BN13" s="99"/>
+    </row>
+    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="21">
+        <f>Netzplan!G14</f>
+        <v>3</v>
+      </c>
+      <c r="H14" s="21" t="str">
+        <f>Netzplan!H14</f>
         <v>1</v>
       </c>
-      <c r="AA13" s="33">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="33">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="33">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="33">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="33">
-        <v>1</v>
-      </c>
-      <c r="AH13" s="33">
-        <v>1</v>
-      </c>
-      <c r="AI13" s="33">
-        <v>1</v>
-      </c>
-      <c r="AJ13" s="33">
-        <v>1</v>
-      </c>
-      <c r="AK13" s="33">
-        <v>1</v>
-      </c>
-      <c r="AL13" s="10"/>
-      <c r="AM13" s="10"/>
-      <c r="AN13" s="33">
-        <v>1</v>
-      </c>
-      <c r="AO13" s="33">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="33">
-        <v>1</v>
-      </c>
-      <c r="AQ13" s="33">
-        <v>1</v>
-      </c>
-      <c r="AR13" s="33">
-        <v>1</v>
-      </c>
-      <c r="AS13" s="10"/>
-      <c r="AT13" s="10"/>
-      <c r="AU13" s="33">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="33">
-        <v>1</v>
-      </c>
-      <c r="AW13" s="33">
-        <v>1</v>
-      </c>
-      <c r="AX13" s="33">
-        <v>1</v>
-      </c>
-      <c r="AY13" s="34"/>
-      <c r="AZ13" s="10"/>
-      <c r="BA13" s="10"/>
-      <c r="BB13" s="10">
-        <v>1</v>
-      </c>
-      <c r="BC13" s="10"/>
-      <c r="BD13" s="10"/>
-      <c r="BE13" s="10"/>
-      <c r="BF13" s="34"/>
-      <c r="BG13" s="10"/>
-      <c r="BH13" s="10"/>
-      <c r="BJ13" s="10"/>
-      <c r="BK13" s="10"/>
-      <c r="BL13" s="34"/>
-      <c r="BM13" s="10"/>
-      <c r="BN13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="99" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="33"/>
-      <c r="AH14" s="33"/>
-      <c r="AI14" s="33"/>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="33"/>
-      <c r="AL14" s="10"/>
-      <c r="AM14" s="10"/>
-      <c r="AN14" s="33"/>
-      <c r="AO14" s="33"/>
-      <c r="AP14" s="33"/>
-      <c r="AQ14" s="33"/>
-      <c r="AR14" s="33"/>
-      <c r="AS14" s="10"/>
-      <c r="AT14" s="10"/>
-      <c r="AU14" s="33"/>
-      <c r="AV14" s="33"/>
-      <c r="AW14" s="33"/>
-      <c r="AX14" s="33"/>
-      <c r="AY14" s="34"/>
-      <c r="AZ14" s="10"/>
-      <c r="BA14" s="10"/>
-      <c r="BB14" s="10"/>
-      <c r="BC14" s="10"/>
-      <c r="BD14" s="10"/>
-      <c r="BE14" s="10"/>
-      <c r="BF14" s="34"/>
-      <c r="BG14" s="10"/>
-      <c r="BH14" s="10"/>
-      <c r="BJ14" s="10"/>
-      <c r="BK14" s="10"/>
-      <c r="BL14" s="34"/>
-      <c r="BM14" s="10"/>
-      <c r="BN14" t="s">
-        <v>60</v>
-      </c>
+      <c r="I14" s="22">
+        <f>Netzplan!I14</f>
+        <v>1.5</v>
+      </c>
+      <c r="J14" s="30">
+        <f>Netzplan!J14</f>
+        <v>2</v>
+      </c>
+      <c r="K14" s="31">
+        <f>SUM(L14:BM14)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="97"/>
+      <c r="S14" s="97"/>
+      <c r="T14" s="97"/>
+      <c r="U14" s="97"/>
+      <c r="V14" s="97"/>
+      <c r="W14" s="97"/>
+      <c r="X14" s="97"/>
+      <c r="Y14" s="97"/>
+      <c r="Z14" s="97"/>
+      <c r="AA14" s="97"/>
+      <c r="AB14" s="97"/>
+      <c r="AC14" s="97"/>
+      <c r="AD14" s="97"/>
+      <c r="AE14" s="97"/>
+      <c r="AF14" s="97"/>
+      <c r="AG14" s="97"/>
+      <c r="AH14" s="97"/>
+      <c r="AI14" s="97"/>
+      <c r="AJ14" s="97"/>
+      <c r="AK14" s="97"/>
+      <c r="AL14" s="97"/>
+      <c r="AM14" s="97"/>
+      <c r="AN14" s="97"/>
+      <c r="AO14" s="97"/>
+      <c r="AP14" s="99"/>
+      <c r="AQ14" s="96"/>
+      <c r="AR14" s="96"/>
+      <c r="AS14" s="97"/>
+      <c r="AT14" s="97"/>
+      <c r="AU14" s="96"/>
+      <c r="AV14" s="97"/>
+      <c r="AW14" s="97"/>
+      <c r="AX14" s="97"/>
+      <c r="AY14" s="98"/>
+      <c r="AZ14" s="97"/>
+      <c r="BA14" s="97"/>
+      <c r="BB14" s="97"/>
+      <c r="BC14" s="97"/>
+      <c r="BD14" s="97"/>
+      <c r="BE14" s="97"/>
+      <c r="BF14" s="98"/>
+      <c r="BG14" s="97"/>
+      <c r="BH14" s="97"/>
+      <c r="BI14" s="97"/>
+      <c r="BJ14" s="97"/>
+      <c r="BK14" s="97"/>
+      <c r="BL14" s="98"/>
+      <c r="BM14" s="97"/>
+      <c r="BN14" s="99"/>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="95" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
+        <v>29</v>
+      </c>
+      <c r="B15" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="23" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G15" s="21">
-        <f>Netzplan!G13</f>
-        <v>3</v>
-      </c>
-      <c r="H15" s="21">
-        <f>Netzplan!H13</f>
-        <v>2</v>
+        <f>Netzplan!G15</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="21" t="str">
+        <f>Netzplan!H15</f>
+        <v>1</v>
       </c>
       <c r="I15" s="22">
-        <f>Netzplan!I13</f>
-        <v>0.75</v>
-      </c>
-      <c r="J15" s="31">
-        <f>Netzplan!J13</f>
-        <v>2</v>
-      </c>
-      <c r="K15" s="32">
+        <f>Netzplan!I15</f>
+        <v>1.5</v>
+      </c>
+      <c r="J15" s="30">
+        <f>Netzplan!J15</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="31">
         <f>SUM(L15:BM15)</f>
-        <v>3</v>
-      </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="10"/>
-      <c r="AJ15" s="10"/>
-      <c r="AL15" s="10"/>
-      <c r="AM15" s="10"/>
-      <c r="AN15" s="33"/>
-      <c r="AO15" s="33">
-        <v>1</v>
-      </c>
-      <c r="AP15" s="33">
-        <v>1</v>
-      </c>
-      <c r="AQ15" s="10">
-        <v>1</v>
-      </c>
-      <c r="AR15" s="10"/>
-      <c r="AS15" s="10"/>
-      <c r="AT15" s="10"/>
-      <c r="AU15" s="10"/>
-      <c r="AV15" s="10"/>
-      <c r="AW15" s="10"/>
-      <c r="AX15" s="10"/>
-      <c r="AY15" s="34"/>
-      <c r="AZ15" s="10"/>
-      <c r="BA15" s="10"/>
-      <c r="BB15" s="10"/>
-      <c r="BC15" s="10"/>
-      <c r="BD15" s="10"/>
-      <c r="BE15" s="10"/>
-      <c r="BF15" s="34"/>
-      <c r="BG15" s="10"/>
-      <c r="BH15" s="10"/>
-      <c r="BI15" s="10"/>
-      <c r="BJ15" s="10"/>
-      <c r="BK15" s="10"/>
-      <c r="BL15" s="34"/>
-      <c r="BM15" s="10"/>
-      <c r="BN15" t="s">
-        <v>64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="97"/>
+      <c r="S15" s="97"/>
+      <c r="T15" s="97"/>
+      <c r="U15" s="97"/>
+      <c r="V15" s="97"/>
+      <c r="W15" s="97"/>
+      <c r="X15" s="97"/>
+      <c r="Y15" s="97"/>
+      <c r="Z15" s="97"/>
+      <c r="AA15" s="97"/>
+      <c r="AB15" s="97"/>
+      <c r="AC15" s="97"/>
+      <c r="AD15" s="97"/>
+      <c r="AE15" s="97"/>
+      <c r="AF15" s="97"/>
+      <c r="AG15" s="97"/>
+      <c r="AH15" s="97"/>
+      <c r="AI15" s="97"/>
+      <c r="AJ15" s="97"/>
+      <c r="AK15" s="97"/>
+      <c r="AL15" s="97"/>
+      <c r="AM15" s="97"/>
+      <c r="AN15" s="97"/>
+      <c r="AO15" s="97"/>
+      <c r="AP15" s="97"/>
+      <c r="AQ15" s="97"/>
+      <c r="AR15" s="97"/>
+      <c r="AS15" s="97"/>
+      <c r="AT15" s="97"/>
+      <c r="AU15" s="97"/>
+      <c r="AV15" s="96"/>
+      <c r="AW15" s="97"/>
+      <c r="AX15" s="97"/>
+      <c r="AY15" s="98"/>
+      <c r="AZ15" s="97"/>
+      <c r="BA15" s="97"/>
+      <c r="BB15" s="97"/>
+      <c r="BC15" s="97"/>
+      <c r="BD15" s="97"/>
+      <c r="BE15" s="97"/>
+      <c r="BF15" s="98"/>
+      <c r="BG15" s="97"/>
+      <c r="BH15" s="97"/>
+      <c r="BI15" s="97"/>
+      <c r="BJ15" s="97"/>
+      <c r="BK15" s="97"/>
+      <c r="BL15" s="98"/>
+      <c r="BM15" s="97"/>
+      <c r="BN15" s="99"/>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="95" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
+        <v>43</v>
+      </c>
+      <c r="B16" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
       <c r="E16" s="23" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G16" s="21">
-        <f>Netzplan!G14</f>
-        <v>3</v>
-      </c>
-      <c r="H16" s="21">
-        <f>Netzplan!H14</f>
-        <v>2</v>
-      </c>
-      <c r="I16" s="22">
-        <f>Netzplan!I14</f>
-        <v>0.75</v>
-      </c>
-      <c r="J16" s="31">
-        <f>Netzplan!J14</f>
-        <v>2</v>
-      </c>
-      <c r="K16" s="32">
-        <f>SUM(L16:BM16)</f>
-        <v>3</v>
-      </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
-      <c r="AK16" s="10"/>
-      <c r="AL16" s="10"/>
-      <c r="AM16" s="10"/>
-      <c r="AN16" s="10"/>
-      <c r="AO16" s="10"/>
-      <c r="AQ16" s="33"/>
-      <c r="AR16" s="33">
-        <v>1</v>
-      </c>
-      <c r="AS16" s="10"/>
-      <c r="AT16" s="10"/>
-      <c r="AU16" s="33">
-        <v>1</v>
-      </c>
-      <c r="AV16" s="10">
-        <v>1</v>
-      </c>
-      <c r="AW16" s="10"/>
-      <c r="AX16" s="10"/>
-      <c r="AY16" s="34"/>
-      <c r="AZ16" s="10"/>
-      <c r="BA16" s="10"/>
-      <c r="BB16" s="10"/>
-      <c r="BC16" s="10"/>
-      <c r="BD16" s="10"/>
-      <c r="BE16" s="10"/>
-      <c r="BF16" s="34"/>
-      <c r="BG16" s="10"/>
-      <c r="BH16" s="10"/>
-      <c r="BI16" s="10"/>
-      <c r="BJ16" s="10"/>
-      <c r="BK16" s="10"/>
-      <c r="BL16" s="34"/>
-      <c r="BM16" s="10"/>
-      <c r="BN16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="99" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="10"/>
-      <c r="AJ17" s="10"/>
-      <c r="AK17" s="10"/>
-      <c r="AL17" s="10"/>
-      <c r="AM17" s="10"/>
-      <c r="AN17" s="10"/>
-      <c r="AO17" s="10"/>
-      <c r="AQ17" s="33"/>
-      <c r="AR17" s="33"/>
-      <c r="AS17" s="10"/>
-      <c r="AT17" s="10"/>
-      <c r="AU17" s="33"/>
-      <c r="AV17" s="10"/>
-      <c r="AW17" s="10"/>
-      <c r="AX17" s="10"/>
-      <c r="AY17" s="34"/>
-      <c r="AZ17" s="10"/>
-      <c r="BA17" s="10"/>
-      <c r="BB17" s="10"/>
-      <c r="BC17" s="10"/>
-      <c r="BD17" s="10"/>
-      <c r="BE17" s="10"/>
-      <c r="BF17" s="34"/>
-      <c r="BG17" s="10"/>
-      <c r="BH17" s="10"/>
-      <c r="BI17" s="10"/>
-      <c r="BJ17" s="10"/>
-      <c r="BK17" s="10"/>
-      <c r="BL17" s="34"/>
-      <c r="BM17" s="10"/>
-      <c r="BN17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="95" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="21">
-        <f>Netzplan!G15</f>
-        <v>1</v>
-      </c>
-      <c r="H18" s="21" t="str">
-        <f>Netzplan!H15</f>
-        <v>1</v>
-      </c>
-      <c r="I18" s="22">
-        <f>Netzplan!I15</f>
-        <v>1</v>
-      </c>
-      <c r="J18" s="31">
-        <f>Netzplan!J15</f>
-        <v>1</v>
-      </c>
-      <c r="K18" s="32">
-        <f>SUM(L18:BM18)</f>
-        <v>1</v>
-      </c>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="10"/>
-      <c r="AJ18" s="10"/>
-      <c r="AK18" s="10"/>
-      <c r="AL18" s="10"/>
-      <c r="AM18" s="10"/>
-      <c r="AN18" s="10"/>
-      <c r="AO18" s="10"/>
-      <c r="AP18" s="10"/>
-      <c r="AQ18" s="10"/>
-      <c r="AR18" s="10"/>
-      <c r="AS18" s="10"/>
-      <c r="AT18" s="10"/>
-      <c r="AU18" s="10"/>
-      <c r="AV18" s="33"/>
-      <c r="AW18" s="10"/>
-      <c r="AX18" s="10"/>
-      <c r="AY18" s="34"/>
-      <c r="AZ18" s="10"/>
-      <c r="BA18" s="10"/>
-      <c r="BB18" s="10">
-        <v>1</v>
-      </c>
-      <c r="BC18" s="10"/>
-      <c r="BD18" s="10"/>
-      <c r="BE18" s="10"/>
-      <c r="BF18" s="34"/>
-      <c r="BG18" s="10"/>
-      <c r="BH18" s="10"/>
-      <c r="BI18" s="10"/>
-      <c r="BJ18" s="10"/>
-      <c r="BK18" s="10"/>
-      <c r="BL18" s="34"/>
-      <c r="BM18" s="10"/>
-      <c r="BN18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="21">
         <f>Netzplan!G16</f>
         <v>5</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H16" s="21" t="str">
         <f>Netzplan!H16</f>
-        <v>2</v>
-      </c>
-      <c r="I19" s="22">
+        <v>1</v>
+      </c>
+      <c r="I16" s="22">
         <f>Netzplan!I16</f>
-        <v>0.75</v>
-      </c>
-      <c r="J19" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="J16" s="30">
         <f>Netzplan!J16</f>
         <v>3</v>
       </c>
-      <c r="K19" s="32">
-        <f>SUM(L19:BM19)</f>
-        <v>3</v>
-      </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="10"/>
-      <c r="AI19" s="10"/>
-      <c r="AJ19" s="10"/>
-      <c r="AK19" s="10"/>
-      <c r="AL19" s="10"/>
-      <c r="AM19" s="10"/>
-      <c r="AN19" s="10"/>
-      <c r="AO19" s="10"/>
-      <c r="AP19" s="10"/>
-      <c r="AQ19" s="10"/>
-      <c r="AR19" s="10"/>
-      <c r="AS19" s="10"/>
-      <c r="AT19" s="10"/>
-      <c r="AU19" s="10"/>
-      <c r="AV19" s="10"/>
-      <c r="AW19" s="33"/>
-      <c r="AX19" s="33"/>
-      <c r="AY19" s="34"/>
-      <c r="AZ19" s="10"/>
-      <c r="BA19" s="10"/>
-      <c r="BB19" s="33"/>
-      <c r="BC19" s="10">
-        <v>1</v>
-      </c>
-      <c r="BD19" s="10">
-        <v>1</v>
-      </c>
-      <c r="BE19" s="10">
-        <v>1</v>
-      </c>
-      <c r="BF19" s="34"/>
-      <c r="BG19" s="10"/>
-      <c r="BH19" s="10"/>
-      <c r="BI19" s="10"/>
-      <c r="BK19" s="10"/>
-      <c r="BL19" s="34"/>
-      <c r="BM19" s="10"/>
-      <c r="BN19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="K16" s="31">
+        <f>SUM(L16:BM16)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="97"/>
+      <c r="S16" s="97"/>
+      <c r="T16" s="97"/>
+      <c r="U16" s="97"/>
+      <c r="V16" s="97"/>
+      <c r="W16" s="97"/>
+      <c r="X16" s="97"/>
+      <c r="Y16" s="97"/>
+      <c r="Z16" s="97"/>
+      <c r="AA16" s="97"/>
+      <c r="AB16" s="97"/>
+      <c r="AC16" s="97"/>
+      <c r="AD16" s="97"/>
+      <c r="AE16" s="97"/>
+      <c r="AF16" s="97"/>
+      <c r="AG16" s="97"/>
+      <c r="AH16" s="97"/>
+      <c r="AI16" s="97"/>
+      <c r="AJ16" s="97"/>
+      <c r="AK16" s="97"/>
+      <c r="AL16" s="97"/>
+      <c r="AM16" s="97"/>
+      <c r="AN16" s="97"/>
+      <c r="AO16" s="97"/>
+      <c r="AP16" s="97"/>
+      <c r="AQ16" s="97"/>
+      <c r="AR16" s="97"/>
+      <c r="AS16" s="97"/>
+      <c r="AT16" s="97"/>
+      <c r="AU16" s="97"/>
+      <c r="AV16" s="97"/>
+      <c r="AW16" s="96"/>
+      <c r="AX16" s="96"/>
+      <c r="AY16" s="98"/>
+      <c r="AZ16" s="97"/>
+      <c r="BA16" s="97"/>
+      <c r="BB16" s="96"/>
+      <c r="BC16" s="97"/>
+      <c r="BD16" s="97"/>
+      <c r="BE16" s="97"/>
+      <c r="BF16" s="98"/>
+      <c r="BG16" s="97"/>
+      <c r="BH16" s="97"/>
+      <c r="BI16" s="97"/>
+      <c r="BJ16" s="99"/>
+      <c r="BK16" s="97"/>
+      <c r="BL16" s="98"/>
+      <c r="BM16" s="97"/>
+      <c r="BN16" s="99"/>
+    </row>
+    <row r="17" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="96" t="s">
+      <c r="B17" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="24" t="s">
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26">
+      <c r="F17" s="25"/>
+      <c r="G17" s="26">
         <f>Netzplan!G17</f>
         <v>1</v>
       </c>
-      <c r="H20" s="26" t="str">
+      <c r="H17" s="26" t="str">
         <f>Netzplan!H17</f>
         <v>1</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I17" s="32">
         <f>Netzplan!I17</f>
         <v>1</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J17" s="33">
         <f>Netzplan!J17</f>
         <v>1</v>
       </c>
-      <c r="K20" s="32">
-        <f>SUM(L20:BM20)</f>
-        <v>1</v>
-      </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="12"/>
-      <c r="AI20" s="12"/>
-      <c r="AJ20" s="12"/>
-      <c r="AK20" s="12"/>
-      <c r="AL20" s="12"/>
-      <c r="AM20" s="12"/>
-      <c r="AN20" s="12"/>
-      <c r="AO20" s="12"/>
-      <c r="AP20" s="12"/>
-      <c r="AQ20" s="12"/>
-      <c r="AR20" s="12"/>
-      <c r="AS20" s="12"/>
-      <c r="AT20" s="12"/>
-      <c r="AU20" s="12"/>
-      <c r="AV20" s="12"/>
-      <c r="AW20" s="12"/>
-      <c r="AX20" s="12"/>
-      <c r="AY20" s="39"/>
-      <c r="AZ20" s="12"/>
-      <c r="BA20" s="12"/>
-      <c r="BB20" s="12"/>
-      <c r="BC20" s="33"/>
-      <c r="BD20" s="12"/>
-      <c r="BE20" s="12"/>
-      <c r="BF20" s="39"/>
-      <c r="BG20" s="12"/>
-      <c r="BH20" s="12"/>
-      <c r="BI20" s="12">
-        <v>1</v>
-      </c>
-      <c r="BJ20" s="12"/>
-      <c r="BK20" s="12"/>
-      <c r="BL20" s="39"/>
-      <c r="BM20" s="12"/>
-      <c r="BN20" t="s">
-        <v>60</v>
-      </c>
+      <c r="K17" s="31">
+        <f>SUM(L17:BM17)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="100"/>
+      <c r="M17" s="100"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="100"/>
+      <c r="R17" s="100"/>
+      <c r="S17" s="100"/>
+      <c r="T17" s="100"/>
+      <c r="U17" s="100"/>
+      <c r="V17" s="100"/>
+      <c r="W17" s="100"/>
+      <c r="X17" s="100"/>
+      <c r="Y17" s="100"/>
+      <c r="Z17" s="100"/>
+      <c r="AA17" s="100"/>
+      <c r="AB17" s="100"/>
+      <c r="AC17" s="100"/>
+      <c r="AD17" s="100"/>
+      <c r="AE17" s="100"/>
+      <c r="AF17" s="100"/>
+      <c r="AG17" s="100"/>
+      <c r="AH17" s="100"/>
+      <c r="AI17" s="100"/>
+      <c r="AJ17" s="100"/>
+      <c r="AK17" s="100"/>
+      <c r="AL17" s="100"/>
+      <c r="AM17" s="100"/>
+      <c r="AN17" s="100"/>
+      <c r="AO17" s="100"/>
+      <c r="AP17" s="100"/>
+      <c r="AQ17" s="100"/>
+      <c r="AR17" s="100"/>
+      <c r="AS17" s="100"/>
+      <c r="AT17" s="100"/>
+      <c r="AU17" s="100"/>
+      <c r="AV17" s="100"/>
+      <c r="AW17" s="100"/>
+      <c r="AX17" s="100"/>
+      <c r="AY17" s="101"/>
+      <c r="AZ17" s="100"/>
+      <c r="BA17" s="100"/>
+      <c r="BB17" s="100"/>
+      <c r="BC17" s="96"/>
+      <c r="BD17" s="100"/>
+      <c r="BE17" s="100"/>
+      <c r="BF17" s="101"/>
+      <c r="BG17" s="100"/>
+      <c r="BH17" s="100"/>
+      <c r="BI17" s="100"/>
+      <c r="BJ17" s="100"/>
+      <c r="BK17" s="100"/>
+      <c r="BL17" s="101"/>
+      <c r="BM17" s="100"/>
+      <c r="BN17" s="99"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
+  <mergeCells count="17">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:K20">
-    <cfRule type="expression" dxfId="2" priority="4">
+  <conditionalFormatting sqref="K2:K17">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>IF(K2&lt;&gt;J2,TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:BM10 AI11:BM11 L11:AH14 AJ12:BM12 AI13:BA14 BF13:BH14 BJ13:BM14 L15:AJ15 AL15:BM15 L16:AO17 AQ16:BM17 L18:AT18 AV18:BM18 L19:AU19 AW19:BI19 BK19:BM19 L20:BA20 BC20:BM20">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>IF(OR(WEEKDAY(L$1)=7,WEEKDAY(L$1)=1),1,0)</formula>
+  <conditionalFormatting sqref="L1:BM17">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>IF(OR(WEEKDAY(M$1)=7,WEEKDAY(M$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:BM20">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+  <conditionalFormatting sqref="L2:BM17">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6096,6 +5678,160 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="3" id="{00000000-000E-0000-0200-000002000000}">
+            <xm:f>ISNUMBER(_xlfn.XMATCH(M$1,FeiertageMV!$A$1:$A$30,0))</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="0"/>
+                <name val="Arial"/>
+                <family val="2"/>
+                <charset val="1"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L1:BM17</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3AE887-1A90-4F51-AA66-95DBB75BA655}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" style="102" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="102">
+        <v>44927</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="102">
+        <v>45022</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="102">
+        <v>45023</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="102">
+        <v>45025</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="102">
+        <v>45026</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="102">
+        <v>45047</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="102">
+        <v>45071</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="102">
+        <v>45081</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="102">
+        <v>45082</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="102">
+        <v>45202</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="102">
+        <v>45230</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="102">
+        <v>45285</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="102">
+        <v>45286</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FISIB_Übungen/Online_Shop.Projekt.xlsx
+++ b/FISIB_Übungen/Online_Shop.Projekt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\QM_PM\FIAED Übungen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8226ABB3-9744-4F4E-985D-0B5E09A773D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA06086-619B-4289-B095-81BE22BC818E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="89">
   <si>
     <t>Beispiel: Funktionsorientierter Projektstrukturplan</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>2. Weihnachtsfeiertag</t>
+  </si>
+  <si>
+    <t>Datenbank vorbereitet</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -776,6 +779,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -783,7 +795,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -977,78 +989,81 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Gantt-Balken" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1059,14 +1074,14 @@
   <dxfs count="31">
     <dxf>
       <font>
-        <color rgb="FFFFBF00"/>
+        <color theme="0"/>
         <name val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFBF00"/>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1095,30 +1110,24 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
         <name val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1147,30 +1156,11 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFBF00"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFBF00"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1189,43 +1179,47 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
         <name val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFCC0000"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFBF00"/>
+        <color theme="0"/>
         <name val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFBF00"/>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF666666"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1726,6 +1720,191 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>210910</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>156483</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Raute 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{984F8099-F3C0-480B-FA43-EB83302ED148}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7497536" y="1694090"/>
+          <a:ext cx="129267" cy="156482"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>102053</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>231320</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>156483</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Raute 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD7067F1-A3EA-4302-ADE0-146FF6BC1FFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10851696" y="2837090"/>
+          <a:ext cx="129267" cy="156482"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>149677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>197302</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Raute 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4B3ACD4-8FD7-43C2-B0FB-F7A65F8D2D7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12960803" y="3313338"/>
+          <a:ext cx="129267" cy="156482"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -2035,20 +2214,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="87"/>
+      <c r="I1" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="80"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -2088,20 +2267,20 @@
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="24.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="88" t="s">
+      <c r="F5" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="89"/>
+      <c r="G5" s="82"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="90" t="s">
+      <c r="I5" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="92" t="s">
+      <c r="L5" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="93"/>
+      <c r="M5" s="86"/>
     </row>
     <row r="6" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F6" s="42" t="s">
@@ -2131,18 +2310,18 @@
       <c r="L7" s="36"/>
     </row>
     <row r="8" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="81" t="s">
+      <c r="F8" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="82"/>
-      <c r="I8" s="77" t="s">
+      <c r="G8" s="88"/>
+      <c r="I8" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="78"/>
-      <c r="L8" s="83" t="s">
+      <c r="J8" s="90"/>
+      <c r="L8" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="84"/>
+      <c r="M8" s="92"/>
     </row>
     <row r="9" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F9" s="44" t="s">
@@ -2170,18 +2349,18 @@
       <c r="L10" s="36"/>
     </row>
     <row r="11" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="81" t="s">
+      <c r="F11" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="82"/>
-      <c r="I11" s="77" t="s">
+      <c r="G11" s="88"/>
+      <c r="I11" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="78"/>
-      <c r="L11" s="83" t="s">
+      <c r="J11" s="90"/>
+      <c r="L11" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="84"/>
+      <c r="M11" s="92"/>
     </row>
     <row r="12" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F12" s="44" t="s">
@@ -2209,18 +2388,18 @@
       <c r="L13" s="36"/>
     </row>
     <row r="14" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F14" s="81" t="s">
+      <c r="F14" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="82"/>
-      <c r="I14" s="77" t="s">
+      <c r="G14" s="88"/>
+      <c r="I14" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="78"/>
-      <c r="L14" s="83" t="s">
+      <c r="J14" s="90"/>
+      <c r="L14" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="84"/>
+      <c r="M14" s="92"/>
     </row>
     <row r="15" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F15" s="44" t="s">
@@ -2247,14 +2426,14 @@
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="81" t="s">
+      <c r="F17" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="82"/>
-      <c r="I17" s="77" t="s">
+      <c r="G17" s="88"/>
+      <c r="I17" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="78"/>
+      <c r="J17" s="90"/>
     </row>
     <row r="18" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F18" s="44" t="s">
@@ -2274,10 +2453,10 @@
       <c r="I19" s="36"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I20" s="77" t="s">
+      <c r="I20" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="78"/>
+      <c r="J20" s="90"/>
     </row>
     <row r="21" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I21" s="48" t="s">
@@ -2291,10 +2470,10 @@
       <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I23" s="77" t="s">
+      <c r="I23" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="J23" s="78"/>
+      <c r="J23" s="90"/>
     </row>
     <row r="24" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I24" s="48" t="s">
@@ -2308,11 +2487,11 @@
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="I25" s="36"/>
@@ -2321,27 +2500,27 @@
       <c r="A26" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="80" t="s">
+      <c r="B26" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="I26" s="77" t="s">
+      <c r="I26" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="78"/>
+      <c r="J26" s="90"/>
     </row>
     <row r="27" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="I27" s="48" t="s">
@@ -2355,11 +2534,11 @@
       <c r="A28" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="I28" s="36"/>
@@ -2368,27 +2547,27 @@
       <c r="A29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="I29" s="77" t="s">
+      <c r="I29" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="78"/>
+      <c r="J29" s="90"/>
     </row>
     <row r="30" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="I30" s="48" t="s">
@@ -2402,11 +2581,11 @@
       <c r="A31" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="I31" s="36"/>
@@ -2415,27 +2594,27 @@
       <c r="A32" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="I32" s="77" t="s">
+      <c r="I32" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="J32" s="78"/>
+      <c r="J32" s="90"/>
     </row>
     <row r="33" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="I33" s="48" t="s">
@@ -2449,11 +2628,11 @@
       <c r="A34" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
@@ -2461,11 +2640,11 @@
       <c r="A35" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
@@ -2473,11 +2652,11 @@
       <c r="A36" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="75" t="s">
+      <c r="B36" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
@@ -2485,11 +2664,11 @@
       <c r="A37" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
@@ -2497,11 +2676,11 @@
       <c r="A38" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
@@ -2509,11 +2688,11 @@
       <c r="A39" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
@@ -2521,11 +2700,11 @@
       <c r="A40" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="75" t="s">
+      <c r="B40" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
@@ -2533,47 +2712,16 @@
       <c r="A41" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="76" t="s">
+      <c r="B41" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B35:D35"/>
@@ -2581,6 +2729,37 @@
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -2595,8 +2774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BQ23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="AA1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3:AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2613,11 +2792,11 @@
       <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
       <c r="E1" s="14" t="s">
         <v>46</v>
       </c>
@@ -2641,11 +2820,11 @@
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
       <c r="E2" s="16"/>
       <c r="F2" s="17" t="s">
         <v>52</v>
@@ -2766,11 +2945,11 @@
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="20" t="s">
         <v>16</v>
       </c>
@@ -2790,25 +2969,25 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L3" s="94" t="s">
+      <c r="L3" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
       <c r="O3" s="54"/>
       <c r="P3" s="55"/>
-      <c r="Q3" s="94" t="s">
+      <c r="Q3" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
       <c r="T3" s="54"/>
       <c r="U3" s="55"/>
-      <c r="V3" s="94" t="s">
+      <c r="V3" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
       <c r="Y3" s="54"/>
       <c r="Z3" s="59"/>
       <c r="AA3" s="59"/>
@@ -2816,70 +2995,70 @@
       <c r="AC3" s="59"/>
       <c r="AD3" s="59"/>
       <c r="AE3" s="55"/>
-      <c r="AF3" s="94" t="s">
+      <c r="AF3" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
       <c r="AI3" s="54"/>
       <c r="AJ3" s="55"/>
-      <c r="AK3" s="94" t="s">
+      <c r="AK3" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="94"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
       <c r="AN3" s="54"/>
       <c r="AO3" s="55"/>
-      <c r="AP3" s="94" t="s">
+      <c r="AP3" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="AQ3" s="94"/>
-      <c r="AR3" s="94"/>
+      <c r="AQ3" s="97"/>
+      <c r="AR3" s="97"/>
       <c r="AS3" s="54"/>
       <c r="AT3" s="55"/>
-      <c r="AU3" s="94" t="s">
+      <c r="AU3" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="AV3" s="94"/>
-      <c r="AW3" s="94"/>
+      <c r="AV3" s="97"/>
+      <c r="AW3" s="97"/>
       <c r="AX3" s="54"/>
       <c r="AY3" s="55"/>
-      <c r="AZ3" s="94" t="s">
+      <c r="AZ3" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="BA3" s="94"/>
-      <c r="BB3" s="94"/>
+      <c r="BA3" s="97"/>
+      <c r="BB3" s="97"/>
       <c r="BC3" s="54"/>
       <c r="BD3" s="55"/>
-      <c r="BE3" s="94" t="s">
+      <c r="BE3" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="BF3" s="94"/>
-      <c r="BG3" s="94"/>
+      <c r="BF3" s="97"/>
+      <c r="BG3" s="97"/>
       <c r="BH3" s="54"/>
       <c r="BI3" s="55"/>
-      <c r="BJ3" s="94" t="s">
+      <c r="BJ3" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="BK3" s="94"/>
-      <c r="BL3" s="94"/>
+      <c r="BK3" s="97"/>
+      <c r="BL3" s="97"/>
       <c r="BM3" s="54"/>
       <c r="BN3" s="55"/>
-      <c r="BO3" s="94" t="s">
+      <c r="BO3" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="BP3" s="94"/>
-      <c r="BQ3" s="94"/>
+      <c r="BP3" s="97"/>
+      <c r="BQ3" s="97"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="20" t="s">
         <v>15</v>
       </c>
@@ -3037,11 +3216,11 @@
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="20" t="s">
         <v>15</v>
       </c>
@@ -3170,11 +3349,11 @@
       <c r="A6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="23" t="s">
         <v>27</v>
       </c>
@@ -3205,11 +3384,11 @@
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="20" t="s">
         <v>16</v>
       </c>
@@ -3239,11 +3418,11 @@
       <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="23" t="s">
         <v>22</v>
       </c>
@@ -3291,11 +3470,11 @@
       <c r="A9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="23" t="s">
         <v>56</v>
       </c>
@@ -3318,18 +3497,18 @@
       </c>
       <c r="O9" s="56"/>
       <c r="T9" s="56"/>
-      <c r="V9" s="94" t="s">
+      <c r="V9" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="W9" s="94"/>
-      <c r="X9" s="94"/>
+      <c r="W9" s="97"/>
+      <c r="X9" s="97"/>
       <c r="Y9" s="54"/>
       <c r="Z9" s="55"/>
-      <c r="AA9" s="94" t="s">
+      <c r="AA9" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="AB9" s="94"/>
-      <c r="AC9" s="94"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="97"/>
       <c r="AD9" s="60"/>
       <c r="AE9" s="56"/>
       <c r="BM9" s="56"/>
@@ -3338,11 +3517,11 @@
       <c r="A10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="23" t="s">
         <v>33</v>
       </c>
@@ -3396,11 +3575,11 @@
       <c r="A11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="23" t="s">
         <v>35</v>
       </c>
@@ -3447,11 +3626,11 @@
       <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="23" t="s">
         <v>28</v>
       </c>
@@ -3484,11 +3663,11 @@
       <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="23" t="s">
         <v>37</v>
       </c>
@@ -3517,11 +3696,11 @@
       <c r="A14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
       <c r="E14" s="23" t="s">
         <v>23</v>
       </c>
@@ -3577,11 +3756,11 @@
       <c r="A15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="23" t="s">
         <v>41</v>
       </c>
@@ -3604,25 +3783,25 @@
       </c>
       <c r="O15" s="56"/>
       <c r="P15" s="57"/>
-      <c r="Q15" s="94" t="s">
+      <c r="Q15" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
+      <c r="R15" s="97"/>
+      <c r="S15" s="97"/>
       <c r="T15" s="54"/>
       <c r="U15" s="55"/>
-      <c r="V15" s="94" t="s">
+      <c r="V15" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="W15" s="94"/>
-      <c r="X15" s="94"/>
+      <c r="W15" s="97"/>
+      <c r="X15" s="97"/>
       <c r="Y15" s="54"/>
       <c r="Z15" s="55"/>
-      <c r="AA15" s="94" t="s">
+      <c r="AA15" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="AB15" s="94"/>
-      <c r="AC15" s="94"/>
+      <c r="AB15" s="97"/>
+      <c r="AC15" s="97"/>
       <c r="AD15" s="54"/>
       <c r="AE15" s="59"/>
       <c r="AF15" s="59"/>
@@ -3664,11 +3843,11 @@
       <c r="A16" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="23" t="s">
         <v>29</v>
       </c>
@@ -3730,11 +3909,11 @@
       <c r="A17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
       <c r="E17" s="24" t="s">
         <v>58</v>
       </c>
@@ -3781,9 +3960,9 @@
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="71" t="s">
@@ -3806,11 +3985,11 @@
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="68" t="s">
@@ -3840,11 +4019,26 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="AZ3:BB3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="BJ3:BL3"/>
@@ -3855,26 +4049,11 @@
     <mergeCell ref="AK3:AM3"/>
     <mergeCell ref="AP3:AR3"/>
     <mergeCell ref="AU3:AW3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="Q3:S3"/>
   </mergeCells>
   <conditionalFormatting sqref="B22">
     <cfRule type="cellIs" dxfId="30" priority="17" operator="equal">
@@ -3973,11 +4152,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BN17"/>
+  <dimension ref="A1:BN20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="11" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L3" sqref="L3"/>
+      <pane xSplit="11" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BB20" sqref="BB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
@@ -3995,11 +4174,11 @@
       <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
       <c r="E1" s="14" t="s">
         <v>46</v>
       </c>
@@ -4189,11 +4368,11 @@
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
       <c r="E2" s="16"/>
       <c r="F2" s="17" t="s">
         <v>52</v>
@@ -4216,73 +4395,76 @@
       </c>
       <c r="K2" s="31">
         <f t="shared" ref="K2:K8" si="0">SUM(L2:BM2)</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97"/>
-      <c r="Z2" s="97"/>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="97"/>
-      <c r="AH2" s="97"/>
-      <c r="AI2" s="97"/>
-      <c r="AJ2" s="97"/>
-      <c r="AK2" s="97"/>
-      <c r="AL2" s="97"/>
-      <c r="AM2" s="97"/>
-      <c r="AN2" s="97"/>
-      <c r="AO2" s="97"/>
-      <c r="AP2" s="97"/>
-      <c r="AQ2" s="97"/>
-      <c r="AR2" s="97"/>
-      <c r="AS2" s="97"/>
-      <c r="AT2" s="97"/>
-      <c r="AU2" s="97"/>
-      <c r="AV2" s="97"/>
-      <c r="AW2" s="97"/>
-      <c r="AX2" s="97"/>
-      <c r="AY2" s="98"/>
-      <c r="AZ2" s="97"/>
-      <c r="BA2" s="97"/>
-      <c r="BB2" s="97"/>
-      <c r="BC2" s="97"/>
-      <c r="BD2" s="97"/>
-      <c r="BE2" s="97"/>
-      <c r="BF2" s="98"/>
-      <c r="BG2" s="97"/>
-      <c r="BH2" s="97"/>
-      <c r="BI2" s="97"/>
-      <c r="BJ2" s="97"/>
-      <c r="BK2" s="97"/>
-      <c r="BL2" s="98"/>
-      <c r="BM2" s="97"/>
-      <c r="BN2" s="99"/>
+        <v>2</v>
+      </c>
+      <c r="L2" s="21">
+        <v>1</v>
+      </c>
+      <c r="M2" s="21">
+        <v>1</v>
+      </c>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="75"/>
+      <c r="AZ2" s="10"/>
+      <c r="BA2" s="10"/>
+      <c r="BB2" s="10"/>
+      <c r="BC2" s="10"/>
+      <c r="BD2" s="10"/>
+      <c r="BE2" s="10"/>
+      <c r="BF2" s="75"/>
+      <c r="BG2" s="10"/>
+      <c r="BH2" s="10"/>
+      <c r="BI2" s="10"/>
+      <c r="BJ2" s="10"/>
+      <c r="BK2" s="10"/>
+      <c r="BL2" s="75"/>
+      <c r="BM2" s="10"/>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="20" t="s">
         <v>16</v>
       </c>
@@ -4307,73 +4489,74 @@
       </c>
       <c r="K3" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="97"/>
-      <c r="Z3" s="97"/>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="97"/>
-      <c r="AC3" s="97"/>
-      <c r="AD3" s="97"/>
-      <c r="AE3" s="97"/>
-      <c r="AF3" s="97"/>
-      <c r="AG3" s="97"/>
-      <c r="AH3" s="97"/>
-      <c r="AI3" s="97"/>
-      <c r="AJ3" s="97"/>
-      <c r="AK3" s="97"/>
-      <c r="AL3" s="97"/>
-      <c r="AM3" s="97"/>
-      <c r="AN3" s="97"/>
-      <c r="AO3" s="97"/>
-      <c r="AP3" s="97"/>
-      <c r="AQ3" s="97"/>
-      <c r="AR3" s="97"/>
-      <c r="AS3" s="97"/>
-      <c r="AT3" s="97"/>
-      <c r="AU3" s="97"/>
-      <c r="AV3" s="97"/>
-      <c r="AW3" s="97"/>
-      <c r="AX3" s="97"/>
-      <c r="AY3" s="98"/>
-      <c r="AZ3" s="97"/>
-      <c r="BA3" s="97"/>
-      <c r="BB3" s="97"/>
-      <c r="BC3" s="97"/>
-      <c r="BD3" s="97"/>
-      <c r="BE3" s="97"/>
-      <c r="BF3" s="98"/>
-      <c r="BG3" s="97"/>
-      <c r="BH3" s="97"/>
-      <c r="BI3" s="97"/>
-      <c r="BJ3" s="97"/>
-      <c r="BK3" s="97"/>
-      <c r="BL3" s="98"/>
-      <c r="BM3" s="97"/>
-      <c r="BN3" s="99"/>
+        <v>1</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10">
+        <v>1</v>
+      </c>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="10"/>
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="75"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="10"/>
+      <c r="BD3" s="10"/>
+      <c r="BE3" s="10"/>
+      <c r="BF3" s="75"/>
+      <c r="BG3" s="10"/>
+      <c r="BH3" s="10"/>
+      <c r="BI3" s="10"/>
+      <c r="BJ3" s="10"/>
+      <c r="BK3" s="10"/>
+      <c r="BL3" s="75"/>
+      <c r="BM3" s="10"/>
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="20" t="s">
         <v>15</v>
       </c>
@@ -4398,73 +4581,80 @@
       </c>
       <c r="K4" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="96"/>
-      <c r="X4" s="97"/>
-      <c r="Y4" s="97"/>
-      <c r="Z4" s="97"/>
-      <c r="AA4" s="97"/>
-      <c r="AB4" s="97"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="97"/>
-      <c r="AE4" s="97"/>
-      <c r="AF4" s="97"/>
-      <c r="AG4" s="97"/>
-      <c r="AH4" s="97"/>
-      <c r="AI4" s="97"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="97"/>
-      <c r="AL4" s="97"/>
-      <c r="AM4" s="97"/>
-      <c r="AN4" s="97"/>
-      <c r="AO4" s="97"/>
-      <c r="AP4" s="97"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="97"/>
-      <c r="AS4" s="97"/>
-      <c r="AT4" s="97"/>
-      <c r="AU4" s="97"/>
-      <c r="AV4" s="97"/>
-      <c r="AW4" s="97"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="98"/>
-      <c r="AZ4" s="97"/>
-      <c r="BA4" s="97"/>
-      <c r="BB4" s="97"/>
-      <c r="BC4" s="97"/>
-      <c r="BD4" s="97"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="98"/>
-      <c r="BG4" s="97"/>
-      <c r="BH4" s="97"/>
-      <c r="BI4" s="97"/>
-      <c r="BJ4" s="97"/>
-      <c r="BK4" s="97"/>
-      <c r="BL4" s="98"/>
-      <c r="BM4" s="97"/>
-      <c r="BN4" s="99"/>
+        <v>4</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10">
+        <v>1</v>
+      </c>
+      <c r="P4" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10">
+        <v>1</v>
+      </c>
+      <c r="T4" s="21">
+        <v>1</v>
+      </c>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="75"/>
+      <c r="AZ4" s="10"/>
+      <c r="BA4" s="10"/>
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="10"/>
+      <c r="BD4" s="10"/>
+      <c r="BE4" s="10"/>
+      <c r="BF4" s="75"/>
+      <c r="BG4" s="10"/>
+      <c r="BH4" s="10"/>
+      <c r="BI4" s="10"/>
+      <c r="BJ4" s="10"/>
+      <c r="BK4" s="10"/>
+      <c r="BL4" s="75"/>
+      <c r="BM4" s="10"/>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="20" t="s">
         <v>15</v>
       </c>
@@ -4489,73 +4679,78 @@
       </c>
       <c r="K5" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="96"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="97"/>
-      <c r="X5" s="97"/>
-      <c r="Y5" s="97"/>
-      <c r="Z5" s="97"/>
-      <c r="AA5" s="97"/>
-      <c r="AB5" s="97"/>
-      <c r="AC5" s="97"/>
-      <c r="AD5" s="97"/>
-      <c r="AE5" s="97"/>
-      <c r="AF5" s="97"/>
-      <c r="AG5" s="97"/>
-      <c r="AH5" s="97"/>
-      <c r="AI5" s="97"/>
-      <c r="AJ5" s="97"/>
-      <c r="AK5" s="97"/>
-      <c r="AL5" s="97"/>
-      <c r="AM5" s="97"/>
-      <c r="AN5" s="97"/>
-      <c r="AO5" s="97"/>
-      <c r="AP5" s="97"/>
-      <c r="AQ5" s="97"/>
-      <c r="AR5" s="97"/>
-      <c r="AS5" s="97"/>
-      <c r="AT5" s="97"/>
-      <c r="AU5" s="97"/>
-      <c r="AV5" s="97"/>
-      <c r="AW5" s="97"/>
-      <c r="AX5" s="97"/>
-      <c r="AY5" s="98"/>
-      <c r="AZ5" s="97"/>
-      <c r="BA5" s="97"/>
-      <c r="BB5" s="97"/>
-      <c r="BC5" s="97"/>
-      <c r="BD5" s="97"/>
-      <c r="BE5" s="97"/>
-      <c r="BF5" s="98"/>
-      <c r="BG5" s="97"/>
-      <c r="BH5" s="97"/>
-      <c r="BI5" s="97"/>
-      <c r="BJ5" s="97"/>
-      <c r="BK5" s="97"/>
-      <c r="BL5" s="98"/>
-      <c r="BM5" s="97"/>
-      <c r="BN5" s="99"/>
+        <v>3</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10">
+        <v>1</v>
+      </c>
+      <c r="P5" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10">
+        <v>1</v>
+      </c>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="75"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="10"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="10"/>
+      <c r="BE5" s="10"/>
+      <c r="BF5" s="75"/>
+      <c r="BG5" s="10"/>
+      <c r="BH5" s="10"/>
+      <c r="BI5" s="10"/>
+      <c r="BJ5" s="10"/>
+      <c r="BK5" s="10"/>
+      <c r="BL5" s="75"/>
+      <c r="BM5" s="10"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="23" t="s">
         <v>27</v>
       </c>
@@ -4580,73 +4775,82 @@
       </c>
       <c r="K6" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="97"/>
-      <c r="T6" s="97"/>
-      <c r="U6" s="97"/>
-      <c r="V6" s="97"/>
-      <c r="W6" s="96"/>
-      <c r="X6" s="97"/>
-      <c r="Y6" s="97"/>
-      <c r="Z6" s="96"/>
-      <c r="AA6" s="96"/>
-      <c r="AB6" s="96"/>
-      <c r="AC6" s="96"/>
-      <c r="AD6" s="97"/>
-      <c r="AE6" s="97"/>
-      <c r="AF6" s="97"/>
-      <c r="AG6" s="97"/>
-      <c r="AH6" s="97"/>
-      <c r="AI6" s="97"/>
-      <c r="AJ6" s="97"/>
-      <c r="AK6" s="97"/>
-      <c r="AL6" s="97"/>
-      <c r="AM6" s="97"/>
-      <c r="AN6" s="97"/>
-      <c r="AO6" s="97"/>
-      <c r="AP6" s="97"/>
-      <c r="AQ6" s="97"/>
-      <c r="AR6" s="97"/>
-      <c r="AS6" s="97"/>
-      <c r="AT6" s="97"/>
-      <c r="AU6" s="97"/>
-      <c r="AV6" s="97"/>
-      <c r="AW6" s="97"/>
-      <c r="AX6" s="97"/>
-      <c r="AY6" s="98"/>
-      <c r="AZ6" s="97"/>
-      <c r="BA6" s="97"/>
-      <c r="BB6" s="97"/>
-      <c r="BC6" s="97"/>
-      <c r="BD6" s="97"/>
-      <c r="BE6" s="97"/>
-      <c r="BF6" s="98"/>
-      <c r="BG6" s="97"/>
-      <c r="BH6" s="97"/>
-      <c r="BI6" s="97"/>
-      <c r="BJ6" s="97"/>
-      <c r="BK6" s="97"/>
-      <c r="BL6" s="98"/>
-      <c r="BM6" s="97"/>
-      <c r="BN6" s="99"/>
+        <v>5</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10">
+        <v>1</v>
+      </c>
+      <c r="U6" s="10">
+        <v>1</v>
+      </c>
+      <c r="V6" s="10">
+        <v>1</v>
+      </c>
+      <c r="W6" s="10">
+        <v>1</v>
+      </c>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="75"/>
+      <c r="AZ6" s="10"/>
+      <c r="BA6" s="10"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="10"/>
+      <c r="BE6" s="10"/>
+      <c r="BF6" s="75"/>
+      <c r="BG6" s="10"/>
+      <c r="BH6" s="10"/>
+      <c r="BI6" s="10"/>
+      <c r="BJ6" s="10"/>
+      <c r="BK6" s="10"/>
+      <c r="BL6" s="75"/>
+      <c r="BM6" s="10"/>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="20" t="s">
         <v>16</v>
       </c>
@@ -4671,73 +4875,74 @@
       </c>
       <c r="K7" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="97"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="97"/>
-      <c r="U7" s="97"/>
-      <c r="V7" s="97"/>
-      <c r="W7" s="97"/>
-      <c r="X7" s="97"/>
-      <c r="Y7" s="97"/>
-      <c r="Z7" s="97"/>
-      <c r="AA7" s="97"/>
-      <c r="AB7" s="97"/>
-      <c r="AC7" s="97"/>
-      <c r="AD7" s="97"/>
-      <c r="AE7" s="97"/>
-      <c r="AF7" s="97"/>
-      <c r="AG7" s="97"/>
-      <c r="AH7" s="97"/>
-      <c r="AI7" s="97"/>
-      <c r="AJ7" s="97"/>
-      <c r="AK7" s="97"/>
-      <c r="AL7" s="97"/>
-      <c r="AM7" s="97"/>
-      <c r="AN7" s="97"/>
-      <c r="AO7" s="97"/>
-      <c r="AP7" s="97"/>
-      <c r="AQ7" s="97"/>
-      <c r="AR7" s="97"/>
-      <c r="AS7" s="97"/>
-      <c r="AT7" s="97"/>
-      <c r="AU7" s="97"/>
-      <c r="AV7" s="97"/>
-      <c r="AW7" s="97"/>
-      <c r="AX7" s="97"/>
-      <c r="AY7" s="98"/>
-      <c r="AZ7" s="97"/>
-      <c r="BA7" s="97"/>
-      <c r="BB7" s="97"/>
-      <c r="BC7" s="97"/>
-      <c r="BD7" s="97"/>
-      <c r="BE7" s="97"/>
-      <c r="BF7" s="98"/>
-      <c r="BG7" s="97"/>
-      <c r="BH7" s="97"/>
-      <c r="BI7" s="97"/>
-      <c r="BJ7" s="97"/>
-      <c r="BK7" s="97"/>
-      <c r="BL7" s="98"/>
-      <c r="BM7" s="97"/>
-      <c r="BN7" s="99"/>
+        <v>1</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10">
+        <v>1</v>
+      </c>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="10"/>
+      <c r="AY7" s="75"/>
+      <c r="AZ7" s="10"/>
+      <c r="BA7" s="10"/>
+      <c r="BB7" s="10"/>
+      <c r="BC7" s="10"/>
+      <c r="BD7" s="10"/>
+      <c r="BE7" s="10"/>
+      <c r="BF7" s="75"/>
+      <c r="BG7" s="10"/>
+      <c r="BH7" s="10"/>
+      <c r="BI7" s="10"/>
+      <c r="BJ7" s="10"/>
+      <c r="BK7" s="10"/>
+      <c r="BL7" s="75"/>
+      <c r="BM7" s="10"/>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="23" t="s">
         <v>22</v>
       </c>
@@ -4762,914 +4967,1185 @@
       </c>
       <c r="K8" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="97"/>
-      <c r="S8" s="97"/>
-      <c r="T8" s="96"/>
-      <c r="U8" s="96"/>
-      <c r="V8" s="96"/>
-      <c r="W8" s="97"/>
-      <c r="X8" s="97"/>
-      <c r="Y8" s="97"/>
-      <c r="Z8" s="97"/>
-      <c r="AA8" s="97"/>
-      <c r="AB8" s="97"/>
-      <c r="AC8" s="97"/>
-      <c r="AD8" s="97"/>
-      <c r="AE8" s="97"/>
-      <c r="AF8" s="97"/>
-      <c r="AG8" s="97"/>
-      <c r="AH8" s="97"/>
-      <c r="AI8" s="97"/>
-      <c r="AJ8" s="97"/>
-      <c r="AK8" s="97"/>
-      <c r="AL8" s="97"/>
-      <c r="AM8" s="97"/>
-      <c r="AN8" s="97"/>
-      <c r="AO8" s="97"/>
-      <c r="AP8" s="97"/>
-      <c r="AQ8" s="97"/>
-      <c r="AR8" s="97"/>
-      <c r="AS8" s="97"/>
-      <c r="AT8" s="97"/>
-      <c r="AU8" s="97"/>
-      <c r="AV8" s="97"/>
-      <c r="AW8" s="97"/>
-      <c r="AX8" s="97"/>
-      <c r="AY8" s="98"/>
-      <c r="AZ8" s="97"/>
-      <c r="BA8" s="97"/>
-      <c r="BB8" s="97"/>
-      <c r="BC8" s="97"/>
-      <c r="BD8" s="97"/>
-      <c r="BE8" s="97"/>
-      <c r="BF8" s="98"/>
-      <c r="BG8" s="97"/>
-      <c r="BH8" s="97"/>
-      <c r="BI8" s="97"/>
-      <c r="BJ8" s="97"/>
-      <c r="BK8" s="97"/>
-      <c r="BL8" s="98"/>
-      <c r="BM8" s="97"/>
-      <c r="BN8" s="99"/>
+        <v>4</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10">
+        <v>1</v>
+      </c>
+      <c r="P8" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10">
+        <v>1</v>
+      </c>
+      <c r="T8" s="21">
+        <v>1</v>
+      </c>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="10"/>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="10"/>
+      <c r="AV8" s="10"/>
+      <c r="AW8" s="10"/>
+      <c r="AX8" s="10"/>
+      <c r="AY8" s="75"/>
+      <c r="AZ8" s="10"/>
+      <c r="BA8" s="10"/>
+      <c r="BB8" s="10"/>
+      <c r="BC8" s="10"/>
+      <c r="BD8" s="10"/>
+      <c r="BE8" s="10"/>
+      <c r="BF8" s="75"/>
+      <c r="BG8" s="10"/>
+      <c r="BH8" s="10"/>
+      <c r="BI8" s="10"/>
+      <c r="BJ8" s="10"/>
+      <c r="BK8" s="10"/>
+      <c r="BL8" s="75"/>
+      <c r="BM8" s="10"/>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="100"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="10"/>
+      <c r="AV9" s="10"/>
+      <c r="AW9" s="10"/>
+      <c r="AX9" s="10"/>
+      <c r="AY9" s="75"/>
+      <c r="AZ9" s="10"/>
+      <c r="BA9" s="10"/>
+      <c r="BB9" s="10"/>
+      <c r="BC9" s="10"/>
+      <c r="BD9" s="10"/>
+      <c r="BE9" s="10"/>
+      <c r="BF9" s="75"/>
+      <c r="BG9" s="10"/>
+      <c r="BH9" s="10"/>
+      <c r="BI9" s="10"/>
+      <c r="BJ9" s="10"/>
+      <c r="BK9" s="10"/>
+      <c r="BL9" s="75"/>
+      <c r="BM9" s="10"/>
+    </row>
+    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B10" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="23" t="s">
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G10" s="21">
         <f>Netzplan!G9</f>
         <v>2</v>
       </c>
-      <c r="H9" s="21" t="str">
+      <c r="H10" s="21" t="str">
         <f>Netzplan!H9</f>
         <v>1</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I10" s="22">
         <f>Netzplan!I9</f>
         <v>1.5</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J10" s="30">
         <f>Netzplan!J9</f>
         <v>1</v>
       </c>
-      <c r="K9" s="31">
-        <f>SUM(L9:BM9)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="97"/>
-      <c r="S9" s="97"/>
-      <c r="T9" s="97"/>
-      <c r="U9" s="97"/>
-      <c r="V9" s="97"/>
-      <c r="W9" s="97"/>
-      <c r="X9" s="97"/>
-      <c r="Y9" s="97"/>
-      <c r="Z9" s="97"/>
-      <c r="AA9" s="97"/>
-      <c r="AB9" s="97"/>
-      <c r="AC9" s="97"/>
-      <c r="AD9" s="96"/>
-      <c r="AE9" s="97"/>
-      <c r="AF9" s="97"/>
-      <c r="AG9" s="96"/>
-      <c r="AH9" s="97"/>
-      <c r="AI9" s="97"/>
-      <c r="AJ9" s="97"/>
-      <c r="AK9" s="97"/>
-      <c r="AL9" s="97"/>
-      <c r="AM9" s="97"/>
-      <c r="AN9" s="97"/>
-      <c r="AO9" s="97"/>
-      <c r="AP9" s="97"/>
-      <c r="AQ9" s="97"/>
-      <c r="AR9" s="97"/>
-      <c r="AS9" s="97"/>
-      <c r="AT9" s="97"/>
-      <c r="AU9" s="97"/>
-      <c r="AV9" s="97"/>
-      <c r="AW9" s="97"/>
-      <c r="AX9" s="97"/>
-      <c r="AY9" s="98"/>
-      <c r="AZ9" s="97"/>
-      <c r="BA9" s="97"/>
-      <c r="BB9" s="97"/>
-      <c r="BC9" s="97"/>
-      <c r="BD9" s="97"/>
-      <c r="BE9" s="97"/>
-      <c r="BF9" s="98"/>
-      <c r="BG9" s="97"/>
-      <c r="BH9" s="97"/>
-      <c r="BI9" s="97"/>
-      <c r="BJ9" s="97"/>
-      <c r="BK9" s="97"/>
-      <c r="BL9" s="98"/>
-      <c r="BM9" s="97"/>
-      <c r="BN9" s="99"/>
-    </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="K10" s="31">
+        <f t="shared" ref="K10:K20" si="1">SUM(L10:BM10)</f>
+        <v>1</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AC10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="10"/>
+      <c r="AY10" s="75"/>
+      <c r="AZ10" s="10"/>
+      <c r="BA10" s="10"/>
+      <c r="BB10" s="10"/>
+      <c r="BC10" s="10"/>
+      <c r="BD10" s="10"/>
+      <c r="BE10" s="10"/>
+      <c r="BF10" s="75"/>
+      <c r="BG10" s="10"/>
+      <c r="BH10" s="10"/>
+      <c r="BI10" s="10"/>
+      <c r="BJ10" s="10"/>
+      <c r="BK10" s="10"/>
+      <c r="BL10" s="75"/>
+      <c r="BM10" s="10"/>
+    </row>
+    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B11" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="23" t="s">
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F11" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G11" s="21">
         <f>Netzplan!G10</f>
         <v>2</v>
       </c>
-      <c r="H10" s="21" t="str">
+      <c r="H11" s="21" t="str">
         <f>Netzplan!H10</f>
         <v>1</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I11" s="22">
         <f>Netzplan!I10</f>
         <v>1.5</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J11" s="30">
         <f>Netzplan!J10</f>
         <v>1</v>
       </c>
-      <c r="K10" s="31">
-        <f>SUM(L10:BM10)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="97"/>
-      <c r="P10" s="97"/>
-      <c r="Q10" s="97"/>
-      <c r="R10" s="97"/>
-      <c r="S10" s="97"/>
-      <c r="T10" s="97"/>
-      <c r="U10" s="97"/>
-      <c r="V10" s="97"/>
-      <c r="W10" s="97"/>
-      <c r="X10" s="97"/>
-      <c r="Y10" s="97"/>
-      <c r="Z10" s="97"/>
-      <c r="AA10" s="97"/>
-      <c r="AB10" s="97"/>
-      <c r="AC10" s="97"/>
-      <c r="AD10" s="97"/>
-      <c r="AE10" s="97"/>
-      <c r="AF10" s="97"/>
-      <c r="AG10" s="97"/>
-      <c r="AH10" s="96"/>
-      <c r="AI10" s="96"/>
-      <c r="AJ10" s="97"/>
-      <c r="AK10" s="97"/>
-      <c r="AL10" s="97"/>
-      <c r="AM10" s="97"/>
-      <c r="AN10" s="97"/>
-      <c r="AO10" s="97"/>
-      <c r="AP10" s="97"/>
-      <c r="AQ10" s="97"/>
-      <c r="AR10" s="97"/>
-      <c r="AS10" s="97"/>
-      <c r="AT10" s="97"/>
-      <c r="AU10" s="97"/>
-      <c r="AV10" s="97"/>
-      <c r="AW10" s="97"/>
-      <c r="AX10" s="97"/>
-      <c r="AY10" s="98"/>
-      <c r="AZ10" s="97"/>
-      <c r="BA10" s="97"/>
-      <c r="BB10" s="97"/>
-      <c r="BC10" s="97"/>
-      <c r="BD10" s="97"/>
-      <c r="BE10" s="97"/>
-      <c r="BF10" s="98"/>
-      <c r="BG10" s="97"/>
-      <c r="BH10" s="97"/>
-      <c r="BI10" s="97"/>
-      <c r="BJ10" s="97"/>
-      <c r="BK10" s="97"/>
-      <c r="BL10" s="98"/>
-      <c r="BM10" s="97"/>
-      <c r="BN10" s="99"/>
-    </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="K11" s="31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="10"/>
+      <c r="AW11" s="10"/>
+      <c r="AX11" s="10"/>
+      <c r="AY11" s="75"/>
+      <c r="AZ11" s="10"/>
+      <c r="BA11" s="10"/>
+      <c r="BB11" s="10"/>
+      <c r="BC11" s="10"/>
+      <c r="BD11" s="10"/>
+      <c r="BE11" s="10"/>
+      <c r="BF11" s="75"/>
+      <c r="BG11" s="10"/>
+      <c r="BH11" s="10"/>
+      <c r="BI11" s="10"/>
+      <c r="BJ11" s="10"/>
+      <c r="BK11" s="10"/>
+      <c r="BL11" s="75"/>
+      <c r="BM11" s="10"/>
+    </row>
+    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B12" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="23" t="s">
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G12" s="21">
         <f>Netzplan!G11</f>
         <v>2</v>
       </c>
-      <c r="H11" s="21" t="str">
+      <c r="H12" s="21" t="str">
         <f>Netzplan!H11</f>
         <v>1</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I12" s="22">
         <f>Netzplan!I11</f>
         <v>1.5</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J12" s="30">
         <f>Netzplan!J11</f>
         <v>1</v>
       </c>
-      <c r="K11" s="31">
-        <f>SUM(L11:BM11)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="97"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="97"/>
-      <c r="R11" s="97"/>
-      <c r="S11" s="97"/>
-      <c r="T11" s="97"/>
-      <c r="U11" s="97"/>
-      <c r="V11" s="97"/>
-      <c r="W11" s="97"/>
-      <c r="X11" s="97"/>
-      <c r="Y11" s="97"/>
-      <c r="Z11" s="97"/>
-      <c r="AA11" s="97"/>
-      <c r="AB11" s="97"/>
-      <c r="AC11" s="97"/>
-      <c r="AD11" s="97"/>
-      <c r="AE11" s="97"/>
-      <c r="AF11" s="97"/>
-      <c r="AG11" s="97"/>
-      <c r="AH11" s="97"/>
-      <c r="AI11" s="99"/>
-      <c r="AJ11" s="96"/>
-      <c r="AK11" s="96"/>
-      <c r="AL11" s="97"/>
-      <c r="AM11" s="97"/>
-      <c r="AN11" s="97"/>
-      <c r="AO11" s="97"/>
-      <c r="AP11" s="97"/>
-      <c r="AQ11" s="97"/>
-      <c r="AR11" s="97"/>
-      <c r="AS11" s="97"/>
-      <c r="AT11" s="97"/>
-      <c r="AU11" s="97"/>
-      <c r="AV11" s="97"/>
-      <c r="AW11" s="97"/>
-      <c r="AX11" s="97"/>
-      <c r="AY11" s="98"/>
-      <c r="AZ11" s="97"/>
-      <c r="BA11" s="97"/>
-      <c r="BB11" s="97"/>
-      <c r="BC11" s="97"/>
-      <c r="BD11" s="97"/>
-      <c r="BE11" s="97"/>
-      <c r="BF11" s="98"/>
-      <c r="BG11" s="97"/>
-      <c r="BH11" s="97"/>
-      <c r="BI11" s="97"/>
-      <c r="BJ11" s="97"/>
-      <c r="BK11" s="97"/>
-      <c r="BL11" s="98"/>
-      <c r="BM11" s="97"/>
-      <c r="BN11" s="99"/>
-    </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="K12" s="31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="10"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="10"/>
+      <c r="AU12" s="10"/>
+      <c r="AV12" s="10"/>
+      <c r="AW12" s="10"/>
+      <c r="AX12" s="10"/>
+      <c r="AY12" s="75"/>
+      <c r="AZ12" s="10"/>
+      <c r="BA12" s="10"/>
+      <c r="BB12" s="10"/>
+      <c r="BC12" s="10"/>
+      <c r="BD12" s="10"/>
+      <c r="BE12" s="10"/>
+      <c r="BF12" s="75"/>
+      <c r="BG12" s="10"/>
+      <c r="BH12" s="10"/>
+      <c r="BI12" s="10"/>
+      <c r="BJ12" s="10"/>
+      <c r="BK12" s="10"/>
+      <c r="BL12" s="75"/>
+      <c r="BM12" s="10"/>
+    </row>
+    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B13" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="23" t="s">
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F13" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G13" s="21">
         <f>Netzplan!G12</f>
         <v>10</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H13" s="21">
         <f>Netzplan!H12</f>
         <v>1</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I13" s="22">
         <f>Netzplan!I12</f>
         <v>0.5</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J13" s="30">
         <f>Netzplan!J12</f>
         <v>20</v>
       </c>
-      <c r="K12" s="31">
-        <f>SUM(L12:BM12)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="97"/>
-      <c r="T12" s="97"/>
-      <c r="U12" s="97"/>
-      <c r="V12" s="97"/>
-      <c r="W12" s="96"/>
-      <c r="X12" s="97"/>
-      <c r="Y12" s="97"/>
-      <c r="Z12" s="96"/>
-      <c r="AA12" s="96"/>
-      <c r="AB12" s="96"/>
-      <c r="AC12" s="96"/>
-      <c r="AD12" s="96"/>
-      <c r="AE12" s="97"/>
-      <c r="AF12" s="97"/>
-      <c r="AG12" s="96"/>
-      <c r="AH12" s="96"/>
-      <c r="AI12" s="96"/>
-      <c r="AJ12" s="96"/>
-      <c r="AK12" s="96"/>
-      <c r="AL12" s="97"/>
-      <c r="AM12" s="97"/>
-      <c r="AN12" s="96"/>
-      <c r="AO12" s="96"/>
-      <c r="AP12" s="96"/>
-      <c r="AQ12" s="96"/>
-      <c r="AR12" s="96"/>
-      <c r="AS12" s="97"/>
-      <c r="AT12" s="97"/>
-      <c r="AU12" s="96"/>
-      <c r="AV12" s="96"/>
-      <c r="AW12" s="96"/>
-      <c r="AX12" s="96"/>
-      <c r="AY12" s="98"/>
-      <c r="AZ12" s="97"/>
-      <c r="BA12" s="97"/>
-      <c r="BB12" s="97"/>
-      <c r="BC12" s="97"/>
-      <c r="BD12" s="97"/>
-      <c r="BE12" s="97"/>
-      <c r="BF12" s="98"/>
-      <c r="BG12" s="97"/>
-      <c r="BH12" s="97"/>
-      <c r="BI12" s="99"/>
-      <c r="BJ12" s="97"/>
-      <c r="BK12" s="97"/>
-      <c r="BL12" s="98"/>
-      <c r="BM12" s="97"/>
-      <c r="BN12" s="99"/>
-    </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="K13" s="31">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10">
+        <v>1</v>
+      </c>
+      <c r="V13" s="10">
+        <v>1</v>
+      </c>
+      <c r="W13" s="21">
+        <v>1</v>
+      </c>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="21"/>
+      <c r="AY13" s="75"/>
+      <c r="AZ13" s="10"/>
+      <c r="BA13" s="10"/>
+      <c r="BB13" s="10"/>
+      <c r="BC13" s="10"/>
+      <c r="BD13" s="10"/>
+      <c r="BE13" s="10"/>
+      <c r="BF13" s="75"/>
+      <c r="BG13" s="10"/>
+      <c r="BH13" s="10"/>
+      <c r="BJ13" s="10"/>
+      <c r="BK13" s="10"/>
+      <c r="BL13" s="75"/>
+      <c r="BM13" s="10"/>
+    </row>
+    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B14" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="23" t="s">
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F14" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G14" s="21">
         <f>Netzplan!G13</f>
         <v>3</v>
       </c>
-      <c r="H13" s="21" t="str">
+      <c r="H14" s="21" t="str">
         <f>Netzplan!H13</f>
         <v>1</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I14" s="22">
         <f>Netzplan!I13</f>
         <v>1.5</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J14" s="30">
         <f>Netzplan!J13</f>
         <v>2</v>
       </c>
-      <c r="K13" s="31">
-        <f>SUM(L13:BM13)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="97"/>
-      <c r="V13" s="97"/>
-      <c r="W13" s="97"/>
-      <c r="X13" s="97"/>
-      <c r="Y13" s="97"/>
-      <c r="Z13" s="97"/>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="97"/>
-      <c r="AC13" s="97"/>
-      <c r="AD13" s="97"/>
-      <c r="AE13" s="97"/>
-      <c r="AF13" s="97"/>
-      <c r="AG13" s="97"/>
-      <c r="AH13" s="97"/>
-      <c r="AI13" s="97"/>
-      <c r="AJ13" s="97"/>
-      <c r="AK13" s="99"/>
-      <c r="AL13" s="97"/>
-      <c r="AM13" s="97"/>
-      <c r="AN13" s="96"/>
-      <c r="AO13" s="96"/>
-      <c r="AP13" s="96"/>
-      <c r="AQ13" s="97"/>
-      <c r="AR13" s="97"/>
-      <c r="AS13" s="97"/>
-      <c r="AT13" s="97"/>
-      <c r="AU13" s="97"/>
-      <c r="AV13" s="97"/>
-      <c r="AW13" s="97"/>
-      <c r="AX13" s="97"/>
-      <c r="AY13" s="98"/>
-      <c r="AZ13" s="97"/>
-      <c r="BA13" s="97"/>
-      <c r="BB13" s="97"/>
-      <c r="BC13" s="97"/>
-      <c r="BD13" s="97"/>
-      <c r="BE13" s="97"/>
-      <c r="BF13" s="98"/>
-      <c r="BG13" s="97"/>
-      <c r="BH13" s="97"/>
-      <c r="BI13" s="97"/>
-      <c r="BJ13" s="97"/>
-      <c r="BK13" s="97"/>
-      <c r="BL13" s="98"/>
-      <c r="BM13" s="97"/>
-      <c r="BN13" s="99"/>
-    </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="K14" s="31">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="21"/>
+      <c r="AO14" s="21"/>
+      <c r="AP14" s="21"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="10"/>
+      <c r="AT14" s="10"/>
+      <c r="AU14" s="10"/>
+      <c r="AV14" s="10"/>
+      <c r="AW14" s="10"/>
+      <c r="AX14" s="10"/>
+      <c r="AY14" s="75"/>
+      <c r="AZ14" s="10"/>
+      <c r="BA14" s="10"/>
+      <c r="BB14" s="10"/>
+      <c r="BC14" s="10"/>
+      <c r="BD14" s="10"/>
+      <c r="BE14" s="10"/>
+      <c r="BF14" s="75"/>
+      <c r="BG14" s="10"/>
+      <c r="BH14" s="10"/>
+      <c r="BI14" s="10"/>
+      <c r="BJ14" s="10"/>
+      <c r="BK14" s="10"/>
+      <c r="BL14" s="75"/>
+      <c r="BM14" s="10"/>
+    </row>
+    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="B15" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="23" t="s">
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F15" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G15" s="21">
         <f>Netzplan!G14</f>
         <v>3</v>
       </c>
-      <c r="H14" s="21" t="str">
+      <c r="H15" s="21" t="str">
         <f>Netzplan!H14</f>
         <v>1</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I15" s="22">
         <f>Netzplan!I14</f>
         <v>1.5</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J15" s="30">
         <f>Netzplan!J14</f>
         <v>2</v>
       </c>
-      <c r="K14" s="31">
-        <f>SUM(L14:BM14)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="97"/>
-      <c r="S14" s="97"/>
-      <c r="T14" s="97"/>
-      <c r="U14" s="97"/>
-      <c r="V14" s="97"/>
-      <c r="W14" s="97"/>
-      <c r="X14" s="97"/>
-      <c r="Y14" s="97"/>
-      <c r="Z14" s="97"/>
-      <c r="AA14" s="97"/>
-      <c r="AB14" s="97"/>
-      <c r="AC14" s="97"/>
-      <c r="AD14" s="97"/>
-      <c r="AE14" s="97"/>
-      <c r="AF14" s="97"/>
-      <c r="AG14" s="97"/>
-      <c r="AH14" s="97"/>
-      <c r="AI14" s="97"/>
-      <c r="AJ14" s="97"/>
-      <c r="AK14" s="97"/>
-      <c r="AL14" s="97"/>
-      <c r="AM14" s="97"/>
-      <c r="AN14" s="97"/>
-      <c r="AO14" s="97"/>
-      <c r="AP14" s="99"/>
-      <c r="AQ14" s="96"/>
-      <c r="AR14" s="96"/>
-      <c r="AS14" s="97"/>
-      <c r="AT14" s="97"/>
-      <c r="AU14" s="96"/>
-      <c r="AV14" s="97"/>
-      <c r="AW14" s="97"/>
-      <c r="AX14" s="97"/>
-      <c r="AY14" s="98"/>
-      <c r="AZ14" s="97"/>
-      <c r="BA14" s="97"/>
-      <c r="BB14" s="97"/>
-      <c r="BC14" s="97"/>
-      <c r="BD14" s="97"/>
-      <c r="BE14" s="97"/>
-      <c r="BF14" s="98"/>
-      <c r="BG14" s="97"/>
-      <c r="BH14" s="97"/>
-      <c r="BI14" s="97"/>
-      <c r="BJ14" s="97"/>
-      <c r="BK14" s="97"/>
-      <c r="BL14" s="98"/>
-      <c r="BM14" s="97"/>
-      <c r="BN14" s="99"/>
-    </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="K15" s="31">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="10"/>
+      <c r="AQ15" s="21"/>
+      <c r="AR15" s="21"/>
+      <c r="AS15" s="10"/>
+      <c r="AT15" s="10"/>
+      <c r="AU15" s="21"/>
+      <c r="AV15" s="10"/>
+      <c r="AW15" s="10"/>
+      <c r="AX15" s="10"/>
+      <c r="AY15" s="75"/>
+      <c r="AZ15" s="10"/>
+      <c r="BA15" s="10"/>
+      <c r="BB15" s="10"/>
+      <c r="BC15" s="10"/>
+      <c r="BD15" s="10"/>
+      <c r="BE15" s="10"/>
+      <c r="BF15" s="75"/>
+      <c r="BG15" s="10"/>
+      <c r="BH15" s="10"/>
+      <c r="BI15" s="10"/>
+      <c r="BJ15" s="10"/>
+      <c r="BK15" s="10"/>
+      <c r="BL15" s="75"/>
+      <c r="BM15" s="10"/>
+    </row>
+    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AQ16" s="21"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="21"/>
+      <c r="AV16" s="10"/>
+      <c r="AW16" s="10"/>
+      <c r="AX16" s="10"/>
+      <c r="AY16" s="75"/>
+      <c r="AZ16" s="10"/>
+      <c r="BA16" s="10"/>
+      <c r="BB16" s="10"/>
+      <c r="BC16" s="10"/>
+      <c r="BD16" s="10"/>
+      <c r="BE16" s="10"/>
+      <c r="BF16" s="75"/>
+      <c r="BG16" s="10"/>
+      <c r="BH16" s="10"/>
+      <c r="BI16" s="10"/>
+      <c r="BJ16" s="10"/>
+      <c r="BK16" s="10"/>
+      <c r="BL16" s="75"/>
+      <c r="BM16" s="10"/>
+    </row>
+    <row r="17" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B17" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="23" t="s">
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F17" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G17" s="21">
         <f>Netzplan!G15</f>
         <v>1</v>
       </c>
-      <c r="H15" s="21" t="str">
+      <c r="H17" s="21" t="str">
         <f>Netzplan!H15</f>
         <v>1</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I17" s="22">
         <f>Netzplan!I15</f>
         <v>1.5</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J17" s="30">
         <f>Netzplan!J15</f>
         <v>1</v>
       </c>
-      <c r="K15" s="31">
-        <f>SUM(L15:BM15)</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="97"/>
-      <c r="S15" s="97"/>
-      <c r="T15" s="97"/>
-      <c r="U15" s="97"/>
-      <c r="V15" s="97"/>
-      <c r="W15" s="97"/>
-      <c r="X15" s="97"/>
-      <c r="Y15" s="97"/>
-      <c r="Z15" s="97"/>
-      <c r="AA15" s="97"/>
-      <c r="AB15" s="97"/>
-      <c r="AC15" s="97"/>
-      <c r="AD15" s="97"/>
-      <c r="AE15" s="97"/>
-      <c r="AF15" s="97"/>
-      <c r="AG15" s="97"/>
-      <c r="AH15" s="97"/>
-      <c r="AI15" s="97"/>
-      <c r="AJ15" s="97"/>
-      <c r="AK15" s="97"/>
-      <c r="AL15" s="97"/>
-      <c r="AM15" s="97"/>
-      <c r="AN15" s="97"/>
-      <c r="AO15" s="97"/>
-      <c r="AP15" s="97"/>
-      <c r="AQ15" s="97"/>
-      <c r="AR15" s="97"/>
-      <c r="AS15" s="97"/>
-      <c r="AT15" s="97"/>
-      <c r="AU15" s="97"/>
-      <c r="AV15" s="96"/>
-      <c r="AW15" s="97"/>
-      <c r="AX15" s="97"/>
-      <c r="AY15" s="98"/>
-      <c r="AZ15" s="97"/>
-      <c r="BA15" s="97"/>
-      <c r="BB15" s="97"/>
-      <c r="BC15" s="97"/>
-      <c r="BD15" s="97"/>
-      <c r="BE15" s="97"/>
-      <c r="BF15" s="98"/>
-      <c r="BG15" s="97"/>
-      <c r="BH15" s="97"/>
-      <c r="BI15" s="97"/>
-      <c r="BJ15" s="97"/>
-      <c r="BK15" s="97"/>
-      <c r="BL15" s="98"/>
-      <c r="BM15" s="97"/>
-      <c r="BN15" s="99"/>
-    </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="K17" s="31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
+      <c r="AP17" s="10"/>
+      <c r="AQ17" s="10"/>
+      <c r="AR17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AS17" s="10"/>
+      <c r="AT17" s="10"/>
+      <c r="AU17" s="10"/>
+      <c r="AV17" s="21"/>
+      <c r="AW17" s="10"/>
+      <c r="AX17" s="10"/>
+      <c r="AY17" s="75"/>
+      <c r="AZ17" s="10"/>
+      <c r="BA17" s="10"/>
+      <c r="BB17" s="10"/>
+      <c r="BC17" s="10"/>
+      <c r="BD17" s="10"/>
+      <c r="BE17" s="10"/>
+      <c r="BF17" s="75"/>
+      <c r="BG17" s="10"/>
+      <c r="BH17" s="10"/>
+      <c r="BI17" s="10"/>
+      <c r="BJ17" s="10"/>
+      <c r="BK17" s="10"/>
+      <c r="BL17" s="75"/>
+      <c r="BM17" s="10"/>
+    </row>
+    <row r="18" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="75" t="s">
+      <c r="B18" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="23" t="s">
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F18" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G18" s="21">
         <f>Netzplan!G16</f>
         <v>5</v>
       </c>
-      <c r="H16" s="21" t="str">
+      <c r="H18" s="21" t="str">
         <f>Netzplan!H16</f>
         <v>1</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I18" s="22">
         <f>Netzplan!I16</f>
         <v>1.5</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J18" s="30">
         <f>Netzplan!J16</f>
         <v>3</v>
       </c>
-      <c r="K16" s="31">
-        <f>SUM(L16:BM16)</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="97"/>
-      <c r="S16" s="97"/>
-      <c r="T16" s="97"/>
-      <c r="U16" s="97"/>
-      <c r="V16" s="97"/>
-      <c r="W16" s="97"/>
-      <c r="X16" s="97"/>
-      <c r="Y16" s="97"/>
-      <c r="Z16" s="97"/>
-      <c r="AA16" s="97"/>
-      <c r="AB16" s="97"/>
-      <c r="AC16" s="97"/>
-      <c r="AD16" s="97"/>
-      <c r="AE16" s="97"/>
-      <c r="AF16" s="97"/>
-      <c r="AG16" s="97"/>
-      <c r="AH16" s="97"/>
-      <c r="AI16" s="97"/>
-      <c r="AJ16" s="97"/>
-      <c r="AK16" s="97"/>
-      <c r="AL16" s="97"/>
-      <c r="AM16" s="97"/>
-      <c r="AN16" s="97"/>
-      <c r="AO16" s="97"/>
-      <c r="AP16" s="97"/>
-      <c r="AQ16" s="97"/>
-      <c r="AR16" s="97"/>
-      <c r="AS16" s="97"/>
-      <c r="AT16" s="97"/>
-      <c r="AU16" s="97"/>
-      <c r="AV16" s="97"/>
-      <c r="AW16" s="96"/>
-      <c r="AX16" s="96"/>
-      <c r="AY16" s="98"/>
-      <c r="AZ16" s="97"/>
-      <c r="BA16" s="97"/>
-      <c r="BB16" s="96"/>
-      <c r="BC16" s="97"/>
-      <c r="BD16" s="97"/>
-      <c r="BE16" s="97"/>
-      <c r="BF16" s="98"/>
-      <c r="BG16" s="97"/>
-      <c r="BH16" s="97"/>
-      <c r="BI16" s="97"/>
-      <c r="BJ16" s="99"/>
-      <c r="BK16" s="97"/>
-      <c r="BL16" s="98"/>
-      <c r="BM16" s="97"/>
-      <c r="BN16" s="99"/>
-    </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+      <c r="K18" s="31">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AS18" s="10"/>
+      <c r="AT18" s="10"/>
+      <c r="AU18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AX18" s="21"/>
+      <c r="AY18" s="75"/>
+      <c r="AZ18" s="10"/>
+      <c r="BA18" s="10"/>
+      <c r="BB18" s="21"/>
+      <c r="BC18" s="10"/>
+      <c r="BD18" s="10"/>
+      <c r="BE18" s="10"/>
+      <c r="BF18" s="75"/>
+      <c r="BG18" s="10"/>
+      <c r="BH18" s="10"/>
+      <c r="BI18" s="10"/>
+      <c r="BK18" s="10"/>
+      <c r="BL18" s="75"/>
+      <c r="BM18" s="10"/>
+    </row>
+    <row r="19" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10"/>
+      <c r="AS19" s="10"/>
+      <c r="AT19" s="10"/>
+      <c r="AU19" s="10"/>
+      <c r="AV19" s="10"/>
+      <c r="AW19" s="10"/>
+      <c r="AX19" s="21"/>
+      <c r="AY19" s="75"/>
+      <c r="AZ19" s="10"/>
+      <c r="BA19" s="10"/>
+      <c r="BB19" s="21"/>
+      <c r="BC19" s="10"/>
+      <c r="BD19" s="10"/>
+      <c r="BE19" s="10"/>
+      <c r="BF19" s="75"/>
+      <c r="BG19" s="10"/>
+      <c r="BH19" s="10"/>
+      <c r="BI19" s="10"/>
+      <c r="BK19" s="10"/>
+      <c r="BL19" s="75"/>
+      <c r="BM19" s="10"/>
+    </row>
+    <row r="20" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="76" t="s">
+      <c r="B20" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="24" t="s">
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26">
+      <c r="F20" s="25"/>
+      <c r="G20" s="26">
         <f>Netzplan!G17</f>
         <v>1</v>
       </c>
-      <c r="H17" s="26" t="str">
+      <c r="H20" s="26" t="str">
         <f>Netzplan!H17</f>
         <v>1</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I20" s="32">
         <f>Netzplan!I17</f>
         <v>1</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J20" s="33">
         <f>Netzplan!J17</f>
         <v>1</v>
       </c>
-      <c r="K17" s="31">
-        <f>SUM(L17:BM17)</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="100"/>
-      <c r="R17" s="100"/>
-      <c r="S17" s="100"/>
-      <c r="T17" s="100"/>
-      <c r="U17" s="100"/>
-      <c r="V17" s="100"/>
-      <c r="W17" s="100"/>
-      <c r="X17" s="100"/>
-      <c r="Y17" s="100"/>
-      <c r="Z17" s="100"/>
-      <c r="AA17" s="100"/>
-      <c r="AB17" s="100"/>
-      <c r="AC17" s="100"/>
-      <c r="AD17" s="100"/>
-      <c r="AE17" s="100"/>
-      <c r="AF17" s="100"/>
-      <c r="AG17" s="100"/>
-      <c r="AH17" s="100"/>
-      <c r="AI17" s="100"/>
-      <c r="AJ17" s="100"/>
-      <c r="AK17" s="100"/>
-      <c r="AL17" s="100"/>
-      <c r="AM17" s="100"/>
-      <c r="AN17" s="100"/>
-      <c r="AO17" s="100"/>
-      <c r="AP17" s="100"/>
-      <c r="AQ17" s="100"/>
-      <c r="AR17" s="100"/>
-      <c r="AS17" s="100"/>
-      <c r="AT17" s="100"/>
-      <c r="AU17" s="100"/>
-      <c r="AV17" s="100"/>
-      <c r="AW17" s="100"/>
-      <c r="AX17" s="100"/>
-      <c r="AY17" s="101"/>
-      <c r="AZ17" s="100"/>
-      <c r="BA17" s="100"/>
-      <c r="BB17" s="100"/>
-      <c r="BC17" s="96"/>
-      <c r="BD17" s="100"/>
-      <c r="BE17" s="100"/>
-      <c r="BF17" s="101"/>
-      <c r="BG17" s="100"/>
-      <c r="BH17" s="100"/>
-      <c r="BI17" s="100"/>
-      <c r="BJ17" s="100"/>
-      <c r="BK17" s="100"/>
-      <c r="BL17" s="101"/>
-      <c r="BM17" s="100"/>
-      <c r="BN17" s="99"/>
+      <c r="K20" s="31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="12"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12"/>
+      <c r="AZ20" s="12"/>
+      <c r="BA20" s="12"/>
+      <c r="BB20" s="12">
+        <v>1</v>
+      </c>
+      <c r="BC20" s="21"/>
+      <c r="BD20" s="12"/>
+      <c r="BE20" s="12"/>
+      <c r="BF20" s="76"/>
+      <c r="BG20" s="12"/>
+      <c r="BH20" s="12"/>
+      <c r="BI20" s="12"/>
+      <c r="BJ20" s="12"/>
+      <c r="BK20" s="12"/>
+      <c r="BL20" s="76"/>
+      <c r="BM20" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:K17">
-    <cfRule type="expression" dxfId="7" priority="5">
+  <conditionalFormatting sqref="K2:K20">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>IF(K2&lt;&gt;J2,TRUE())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:BM17">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>IF(OR(WEEKDAY(M$1)=7,WEEKDAY(M$1)=1),1,0)</formula>
+  <conditionalFormatting sqref="L1:BM9 L10:Z11 AE10:BM11 L12:BM15 L17:AN17 AP17:AQ17 AS16:BM17 L18:AO19 AS18:AT19 AX18:BM19 L16:AM16 AP16 L20:AW20 BC20:BM20 AZ20:BA20">
+    <cfRule type="expression" dxfId="12" priority="1">
+      <formula>IF(OR(WEEKDAY(L$1)=7,WEEKDAY(L$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:BM17">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+  <conditionalFormatting sqref="L2:BM9 L10:Z11 AC10:BM11 L12:BM15 AS16:BM16 AP17:BM17 L18:AO19 AS18:BM19 AP16:AQ16 L16:AN17 L20:AW20 AZ20:BM20">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC10:AD11">
+    <cfRule type="expression" dxfId="9" priority="20">
+      <formula>IF(OR(WEEKDAY(AA$1)=7,WEEKDAY(AA$1)=1),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ16 AN16">
+    <cfRule type="expression" dxfId="7" priority="24">
+      <formula>IF(OR(WEEKDAY(AO$1)=7,WEEKDAY(AO$1)=1),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR17 BB20">
+    <cfRule type="expression" dxfId="5" priority="28">
+      <formula>IF(OR(WEEKDAY(AO$1)=7,WEEKDAY(AO$1)=1),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU18:AW19">
+    <cfRule type="expression" dxfId="3" priority="32">
+      <formula>IF(OR(WEEKDAY(AP$1)=7,WEEKDAY(AP$1)=1),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB20">
+    <cfRule type="expression" dxfId="1" priority="36">
+      <formula>IF(OR(WEEKDAY(AX$1)=7,WEEKDAY(AX$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -5678,12 +6154,13 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="3" id="{00000000-000E-0000-0200-000002000000}">
-            <xm:f>ISNUMBER(_xlfn.XMATCH(M$1,FeiertageMV!$A$1:$A$30,0))</xm:f>
+            <xm:f>ISNUMBER(_xlfn.XMATCH(L$1,FeiertageMV!$A$1:$A$30,0))</xm:f>
             <x14:dxf>
               <font>
                 <color theme="0"/>
@@ -5698,7 +6175,102 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L1:BM17</xm:sqref>
+          <xm:sqref>L1:BM9 L10:Z11 AE10:BM11 L12:BM15 L17:AN17 AP17:AQ17 AS16:BM17 L18:AO19 AS18:AT19 AX18:BM19 L16:AM16 AP16 L20:AW20 BC20:BM20 AZ20:BA20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="21" id="{00000000-000E-0000-0200-000002000000}">
+            <xm:f>ISNUMBER(_xlfn.XMATCH(AA$1,FeiertageMV!$A$1:$A$30,0))</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="0"/>
+                <name val="Arial"/>
+                <family val="2"/>
+                <charset val="1"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AC10:AD11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="25" id="{00000000-000E-0000-0200-000002000000}">
+            <xm:f>ISNUMBER(_xlfn.XMATCH(AO$1,FeiertageMV!$A$1:$A$30,0))</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="0"/>
+                <name val="Arial"/>
+                <family val="2"/>
+                <charset val="1"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AQ16 AN16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="29" id="{00000000-000E-0000-0200-000002000000}">
+            <xm:f>ISNUMBER(_xlfn.XMATCH(AO$1,FeiertageMV!$A$1:$A$30,0))</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="0"/>
+                <name val="Arial"/>
+                <family val="2"/>
+                <charset val="1"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AR17 BB20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="33" id="{00000000-000E-0000-0200-000002000000}">
+            <xm:f>ISNUMBER(_xlfn.XMATCH(AP$1,FeiertageMV!$A$1:$A$30,0))</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="0"/>
+                <name val="Arial"/>
+                <family val="2"/>
+                <charset val="1"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AU18:AW19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="37" id="{00000000-000E-0000-0200-000002000000}">
+            <xm:f>ISNUMBER(_xlfn.XMATCH(AX$1,FeiertageMV!$A$1:$A$30,0))</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="0"/>
+                <name val="Arial"/>
+                <family val="2"/>
+                <charset val="1"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF7030A0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>BB20</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5716,11 +6288,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="102" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="77" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="77" t="s">
         <v>73</v>
       </c>
       <c r="B1" t="s">
@@ -5728,7 +6300,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="102">
+      <c r="A2" s="77">
         <v>44927</v>
       </c>
       <c r="B2" t="s">
@@ -5736,7 +6308,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="102">
+      <c r="A3" s="77">
         <v>45022</v>
       </c>
       <c r="B3" t="s">
@@ -5744,7 +6316,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="102">
+      <c r="A4" s="77">
         <v>45023</v>
       </c>
       <c r="B4" t="s">
@@ -5752,7 +6324,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="102">
+      <c r="A5" s="77">
         <v>45025</v>
       </c>
       <c r="B5" t="s">
@@ -5760,7 +6332,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="102">
+      <c r="A6" s="77">
         <v>45026</v>
       </c>
       <c r="B6" t="s">
@@ -5768,7 +6340,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="102">
+      <c r="A7" s="77">
         <v>45047</v>
       </c>
       <c r="B7" t="s">
@@ -5776,7 +6348,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="102">
+      <c r="A8" s="77">
         <v>45071</v>
       </c>
       <c r="B8" t="s">
@@ -5784,7 +6356,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="102">
+      <c r="A9" s="77">
         <v>45081</v>
       </c>
       <c r="B9" t="s">
@@ -5792,7 +6364,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="102">
+      <c r="A10" s="77">
         <v>45082</v>
       </c>
       <c r="B10" t="s">
@@ -5800,7 +6372,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="102">
+      <c r="A11" s="77">
         <v>45202</v>
       </c>
       <c r="B11" t="s">
@@ -5808,7 +6380,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="102">
+      <c r="A12" s="77">
         <v>45230</v>
       </c>
       <c r="B12" t="s">
@@ -5816,7 +6388,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="102">
+      <c r="A13" s="77">
         <v>45285</v>
       </c>
       <c r="B13" t="s">
@@ -5824,7 +6396,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="102">
+      <c r="A14" s="77">
         <v>45286</v>
       </c>
       <c r="B14" t="s">
